--- a/evaluation/testing_groundtruth.xlsx
+++ b/evaluation/testing_groundtruth.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrien/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF4076-EEE3-0546-81A3-B928F07CB549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC7805B-A6A0-3F4A-B3DD-3E3B0C4428BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTING_07_07" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTING_07_07!$A$1:$T$100</definedName>
-    <definedName name="Z_71951494_2F81_47B3_85E2_F9DE763631FB_.wvu.FilterData" localSheetId="0" hidden="1">TESTING_07_07!$A$1:$T$100</definedName>
+    <definedName name="Z_BEB5A315_26E2_4D43_9EB2_358E922E89B7_.wvu.FilterData" localSheetId="0" hidden="1">TESTING_07_07!$A$1:$T$100</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Filter 1" guid="{71951494-2F81-47B3-85E2-F9DE763631FB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{BEB5A315-26E2-4D43-9EB2-358E922E89B7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1290,6 +1289,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -1482,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1576,6 +1578,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1629,6 +1634,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2948,11 +2956,13 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="33">
+        <v>2</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="34" t="s">
         <v>103</v>
       </c>
       <c r="N23" s="5"/>
@@ -3034,7 +3044,7 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32" ht="68">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B25" s="8">
@@ -3045,10 +3055,10 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="36">
+      <c r="F25" s="37">
         <v>37</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="37">
         <v>65</v>
       </c>
       <c r="H25" s="5"/>
@@ -3082,7 +3092,7 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32" ht="102">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B26" s="8">
@@ -3098,7 +3108,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="38" t="s">
         <v>117</v>
       </c>
       <c r="L26" s="5"/>
@@ -3128,7 +3138,7 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32" ht="102">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="7">
@@ -3137,7 +3147,7 @@
       <c r="C27" s="8">
         <v>0</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="39" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="9"/>
@@ -3146,7 +3156,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="38" t="s">
         <v>122</v>
       </c>
       <c r="L27" s="7"/>
@@ -3174,7 +3184,7 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32" ht="102">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="8">
@@ -3185,14 +3195,14 @@
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="36">
+      <c r="F28" s="37">
         <v>105000</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="37">
         <v>77000</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="36">
+      <c r="I28" s="37">
         <v>0.73</v>
       </c>
       <c r="J28" s="7"/>
@@ -3228,7 +3238,7 @@
       <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32" ht="85">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="8">
@@ -3237,10 +3247,10 @@
       <c r="C29" s="8">
         <v>0</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="40" t="s">
         <v>129</v>
       </c>
       <c r="F29" s="5"/>
@@ -3278,7 +3288,7 @@
       <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32" ht="102">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="8">
@@ -3287,16 +3297,18 @@
       <c r="C30" s="8">
         <v>0</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="5">
         <v>260000</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="30">
+        <v>4</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3332,7 +3344,7 @@
       <c r="AF30" s="7"/>
     </row>
     <row r="31" spans="1:32" ht="85">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>139</v>
       </c>
       <c r="B31" s="8">
@@ -3346,7 +3358,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="37">
+      <c r="I31" s="38">
         <v>3.9</v>
       </c>
       <c r="J31" s="5"/>
@@ -3382,7 +3394,7 @@
       <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32" ht="102">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="7">
@@ -3407,7 +3419,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="41" t="s">
+      <c r="P32" s="42" t="s">
         <v>144</v>
       </c>
       <c r="Q32" s="10"/>
@@ -3428,7 +3440,7 @@
       <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="1:32" ht="85">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="41" t="s">
         <v>145</v>
       </c>
       <c r="B33" s="7">
@@ -3474,7 +3486,7 @@
       <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="1:32" ht="204">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>148</v>
       </c>
       <c r="B34" s="7">
@@ -3524,7 +3536,7 @@
       <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="1:32" ht="119">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="41" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="7">
@@ -3572,7 +3584,7 @@
       <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:32" ht="102">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="41" t="s">
         <v>159</v>
       </c>
       <c r="B36" s="7">
@@ -3616,7 +3628,7 @@
       <c r="AF36" s="7"/>
     </row>
     <row r="37" spans="1:32" ht="153">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="41" t="s">
         <v>162</v>
       </c>
       <c r="B37" s="7">
@@ -3660,7 +3672,7 @@
       <c r="AF37" s="7"/>
     </row>
     <row r="38" spans="1:32" ht="102">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="41" t="s">
         <v>164</v>
       </c>
       <c r="B38" s="7">
@@ -3708,7 +3720,7 @@
       <c r="AF38" s="7"/>
     </row>
     <row r="39" spans="1:32" ht="136">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="41" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="7">
@@ -3756,7 +3768,7 @@
       <c r="AF39" s="7"/>
     </row>
     <row r="40" spans="1:32" ht="153">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B40" s="7">
@@ -3806,7 +3818,7 @@
       <c r="AF40" s="7"/>
     </row>
     <row r="41" spans="1:32" ht="153">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>177</v>
       </c>
       <c r="B41" s="7">
@@ -3820,7 +3832,9 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="10">
+        <v>11</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -3854,7 +3868,7 @@
       <c r="AF41" s="7"/>
     </row>
     <row r="42" spans="1:32" ht="85">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="41" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="7">
@@ -3906,7 +3920,7 @@
       <c r="AF42" s="7"/>
     </row>
     <row r="43" spans="1:32" ht="187">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="7">
@@ -3958,7 +3972,7 @@
       <c r="AF43" s="7"/>
     </row>
     <row r="44" spans="1:32" ht="153">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B44" s="7">
@@ -4004,7 +4018,7 @@
       <c r="AF44" s="7"/>
     </row>
     <row r="45" spans="1:32" ht="170">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="41" t="s">
         <v>195</v>
       </c>
       <c r="B45" s="7">
@@ -4058,7 +4072,7 @@
       <c r="AF45" s="7"/>
     </row>
     <row r="46" spans="1:32" ht="136">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B46" s="7">
@@ -4108,7 +4122,7 @@
       <c r="AF46" s="7"/>
     </row>
     <row r="47" spans="1:32" ht="204">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>204</v>
       </c>
       <c r="B47" s="7">
@@ -4131,10 +4145,10 @@
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="42" t="s">
+      <c r="P47" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="Q47" s="42" t="s">
+      <c r="Q47" s="43" t="s">
         <v>207</v>
       </c>
       <c r="R47" s="7" t="s">
@@ -4158,7 +4172,7 @@
       <c r="AF47" s="7"/>
     </row>
     <row r="48" spans="1:32" ht="136">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="44" t="s">
         <v>209</v>
       </c>
       <c r="B48" s="7">
@@ -4202,7 +4216,7 @@
       <c r="AF48" s="7"/>
     </row>
     <row r="49" spans="1:32" ht="204">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="44" t="s">
         <v>211</v>
       </c>
       <c r="B49" s="7">
@@ -4256,7 +4270,7 @@
       <c r="AF49" s="7"/>
     </row>
     <row r="50" spans="1:32" ht="136">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="41" t="s">
         <v>215</v>
       </c>
       <c r="B50" s="7">
@@ -4294,7 +4308,7 @@
       <c r="AF50" s="7"/>
     </row>
     <row r="51" spans="1:32" ht="153">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="41" t="s">
         <v>216</v>
       </c>
       <c r="B51" s="7">
@@ -4340,7 +4354,7 @@
       <c r="AF51" s="7"/>
     </row>
     <row r="52" spans="1:32" ht="85">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="41" t="s">
         <v>220</v>
       </c>
       <c r="B52" s="7">
@@ -4384,7 +4398,7 @@
       <c r="AF52" s="7"/>
     </row>
     <row r="53" spans="1:32" ht="170">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
         <v>223</v>
       </c>
       <c r="B53" s="7">
@@ -4434,7 +4448,7 @@
       <c r="AF53" s="7"/>
     </row>
     <row r="54" spans="1:32" ht="119">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="41" t="s">
         <v>228</v>
       </c>
       <c r="B54" s="7">
@@ -4480,7 +4494,7 @@
       <c r="AF54" s="7"/>
     </row>
     <row r="55" spans="1:32" ht="187">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="41" t="s">
         <v>231</v>
       </c>
       <c r="B55" s="7">
@@ -4503,10 +4517,10 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="42" t="s">
+      <c r="P55" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="Q55" s="42" t="s">
+      <c r="Q55" s="43" t="s">
         <v>233</v>
       </c>
       <c r="R55" s="7" t="s">
@@ -4530,7 +4544,7 @@
       <c r="AF55" s="7"/>
     </row>
     <row r="56" spans="1:32" ht="187">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="44" t="s">
         <v>235</v>
       </c>
       <c r="B56" s="7">
@@ -4561,10 +4575,10 @@
       <c r="O56" s="7">
         <v>2400</v>
       </c>
-      <c r="P56" s="45" t="s">
+      <c r="P56" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="Q56" s="45" t="s">
+      <c r="Q56" s="46" t="s">
         <v>238</v>
       </c>
       <c r="R56" s="7"/>
@@ -4584,7 +4598,7 @@
       <c r="AF56" s="7"/>
     </row>
     <row r="57" spans="1:32" ht="119">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B57" s="7">
@@ -4634,7 +4648,7 @@
       <c r="AF57" s="7"/>
     </row>
     <row r="58" spans="1:32" ht="119">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="41" t="s">
         <v>245</v>
       </c>
       <c r="B58" s="7">
@@ -4648,7 +4662,9 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="10">
+        <v>0.6</v>
+      </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -4684,7 +4700,7 @@
       <c r="AF58" s="7"/>
     </row>
     <row r="59" spans="1:32" ht="85">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="41" t="s">
         <v>250</v>
       </c>
       <c r="B59" s="7">
@@ -4697,8 +4713,10 @@
       <c r="E59" s="9"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="7"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="10">
+        <v>0.5</v>
+      </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -4730,7 +4748,7 @@
       <c r="AF59" s="7"/>
     </row>
     <row r="60" spans="1:32" ht="153">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="41" t="s">
         <v>254</v>
       </c>
       <c r="B60" s="7">
@@ -4788,7 +4806,7 @@
       <c r="AF60" s="7"/>
     </row>
     <row r="61" spans="1:32" ht="85">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="41" t="s">
         <v>260</v>
       </c>
       <c r="B61" s="7">
@@ -4836,7 +4854,7 @@
       <c r="AF61" s="7"/>
     </row>
     <row r="62" spans="1:32" ht="119">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="44" t="s">
         <v>265</v>
       </c>
       <c r="B62" s="7">
@@ -4886,7 +4904,7 @@
       <c r="AF62" s="7"/>
     </row>
     <row r="63" spans="1:32" ht="102">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="44" t="s">
         <v>269</v>
       </c>
       <c r="B63" s="7">
@@ -4930,7 +4948,7 @@
       <c r="AF63" s="7"/>
     </row>
     <row r="64" spans="1:32" ht="136">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="41" t="s">
         <v>271</v>
       </c>
       <c r="B64" s="7">
@@ -4976,7 +4994,7 @@
       <c r="AF64" s="7"/>
     </row>
     <row r="65" spans="1:32" ht="51">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B65" s="7">
@@ -5022,7 +5040,7 @@
       <c r="AF65" s="7"/>
     </row>
     <row r="66" spans="1:32" ht="136">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="41" t="s">
         <v>276</v>
       </c>
       <c r="B66" s="7">
@@ -5074,7 +5092,7 @@
       <c r="AF66" s="7"/>
     </row>
     <row r="67" spans="1:32" ht="187">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="41" t="s">
         <v>282</v>
       </c>
       <c r="B67" s="7">
@@ -5087,8 +5105,10 @@
       <c r="E67" s="9"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="7"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="10">
+        <v>1.05</v>
+      </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -5124,7 +5144,7 @@
       <c r="AF67" s="7"/>
     </row>
     <row r="68" spans="1:32" ht="153">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="41" t="s">
         <v>287</v>
       </c>
       <c r="B68" s="7">
@@ -5176,7 +5196,7 @@
       <c r="AF68" s="7"/>
     </row>
     <row r="69" spans="1:32" ht="34">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="41" t="s">
         <v>292</v>
       </c>
       <c r="B69" s="7">
@@ -5222,7 +5242,7 @@
       <c r="AF69" s="7"/>
     </row>
     <row r="70" spans="1:32" ht="102">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="35" t="s">
         <v>296</v>
       </c>
       <c r="B70" s="8">
@@ -5231,11 +5251,11 @@
       <c r="C70" s="8">
         <v>0</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="40" t="s">
         <v>297</v>
       </c>
       <c r="E70" s="28"/>
-      <c r="F70" s="36">
+      <c r="F70" s="37">
         <v>101000000</v>
       </c>
       <c r="G70" s="7"/>
@@ -5270,7 +5290,7 @@
       <c r="AF70" s="7"/>
     </row>
     <row r="71" spans="1:32" ht="136">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="45" t="s">
         <v>300</v>
       </c>
       <c r="B71" s="7">
@@ -5318,7 +5338,7 @@
       <c r="AF71" s="7"/>
     </row>
     <row r="72" spans="1:32" ht="102">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="45" t="s">
         <v>305</v>
       </c>
       <c r="B72" s="7">
@@ -5366,7 +5386,7 @@
       <c r="AF72" s="7"/>
     </row>
     <row r="73" spans="1:32" ht="85">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="45" t="s">
         <v>309</v>
       </c>
       <c r="B73" s="7">
@@ -5414,7 +5434,7 @@
       <c r="AF73" s="7"/>
     </row>
     <row r="74" spans="1:32" ht="85">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="45" t="s">
         <v>314</v>
       </c>
       <c r="B74" s="7">
@@ -5462,7 +5482,7 @@
       <c r="AF74" s="7"/>
     </row>
     <row r="75" spans="1:32" ht="85">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="45" t="s">
         <v>318</v>
       </c>
       <c r="B75" s="7">
@@ -5508,7 +5528,7 @@
       <c r="AF75" s="7"/>
     </row>
     <row r="76" spans="1:32" ht="51">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="45" t="s">
         <v>322</v>
       </c>
       <c r="B76" s="7">
@@ -5558,7 +5578,7 @@
       <c r="AF76" s="7"/>
     </row>
     <row r="77" spans="1:32" ht="68">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="45" t="s">
         <v>326</v>
       </c>
       <c r="B77" s="7">
@@ -5610,7 +5630,7 @@
       <c r="AF77" s="7"/>
     </row>
     <row r="78" spans="1:32" ht="85">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="45" t="s">
         <v>330</v>
       </c>
       <c r="B78" s="7">
@@ -5658,7 +5678,7 @@
       <c r="AF78" s="7"/>
     </row>
     <row r="79" spans="1:32" ht="136">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="48" t="s">
         <v>333</v>
       </c>
       <c r="B79" s="7">
@@ -5676,19 +5696,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7">
-        <v>7</v>
-      </c>
+      <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
-      <c r="P79" s="45" t="s">
+      <c r="P79" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="Q79" s="45" t="s">
+      <c r="Q79" s="46" t="s">
         <v>337</v>
       </c>
       <c r="R79" s="7"/>
@@ -5710,7 +5728,7 @@
       <c r="AF79" s="7"/>
     </row>
     <row r="80" spans="1:32" ht="85">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="45" t="s">
         <v>339</v>
       </c>
       <c r="B80" s="7">
@@ -5762,7 +5780,7 @@
       <c r="AF80" s="7"/>
     </row>
     <row r="81" spans="1:32" ht="85">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="45" t="s">
         <v>344</v>
       </c>
       <c r="B81" s="7">
@@ -5780,7 +5798,9 @@
         <v>318</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
+      <c r="I81" s="10">
+        <v>2</v>
+      </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -5814,7 +5834,7 @@
       <c r="AF81" s="7"/>
     </row>
     <row r="82" spans="1:32" ht="102">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="45" t="s">
         <v>349</v>
       </c>
       <c r="B82" s="7">
@@ -5866,7 +5886,7 @@
       <c r="AF82" s="7"/>
     </row>
     <row r="83" spans="1:32" ht="57">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="45" t="s">
         <v>353</v>
       </c>
       <c r="B83" s="7">
@@ -5912,7 +5932,7 @@
       <c r="AF83" s="7"/>
     </row>
     <row r="84" spans="1:32" ht="43">
-      <c r="A84" s="44" t="s">
+      <c r="A84" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B84" s="7">
@@ -5958,7 +5978,7 @@
       <c r="AF84" s="7"/>
     </row>
     <row r="85" spans="1:32" ht="51">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="45" t="s">
         <v>359</v>
       </c>
       <c r="B85" s="7">
@@ -6008,7 +6028,7 @@
       <c r="AF85" s="7"/>
     </row>
     <row r="86" spans="1:32" ht="85">
-      <c r="A86" s="44" t="s">
+      <c r="A86" s="45" t="s">
         <v>363</v>
       </c>
       <c r="B86" s="7">
@@ -6056,7 +6076,7 @@
       <c r="AF86" s="7"/>
     </row>
     <row r="87" spans="1:32" ht="85">
-      <c r="A87" s="44" t="s">
+      <c r="A87" s="45" t="s">
         <v>367</v>
       </c>
       <c r="B87" s="7">
@@ -6102,7 +6122,7 @@
       <c r="AF87" s="7"/>
     </row>
     <row r="88" spans="1:32" ht="68">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="45" t="s">
         <v>371</v>
       </c>
       <c r="B88" s="7">
@@ -6152,7 +6172,7 @@
       <c r="AF88" s="7"/>
     </row>
     <row r="89" spans="1:32" ht="85">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="45" t="s">
         <v>376</v>
       </c>
       <c r="B89" s="7">
@@ -6169,7 +6189,7 @@
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="48">
+      <c r="H89" s="49">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I89" s="7"/>
@@ -6206,7 +6226,7 @@
       <c r="AF89" s="7"/>
     </row>
     <row r="90" spans="1:32" ht="102">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="45" t="s">
         <v>383</v>
       </c>
       <c r="B90" s="7">
@@ -6250,10 +6270,10 @@
       <c r="AF90" s="7"/>
     </row>
     <row r="91" spans="1:32" ht="85">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="B91" s="49">
+      <c r="B91" s="50">
         <v>0</v>
       </c>
       <c r="C91" s="8"/>
@@ -6288,10 +6308,10 @@
       <c r="AF91" s="7"/>
     </row>
     <row r="92" spans="1:32" ht="51">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="B92" s="49">
+      <c r="B92" s="50">
         <v>0</v>
       </c>
       <c r="C92" s="8"/>
@@ -6326,7 +6346,7 @@
       <c r="AF92" s="7"/>
     </row>
     <row r="93" spans="1:32" ht="136">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="45" t="s">
         <v>388</v>
       </c>
       <c r="B93" s="7">
@@ -6370,13 +6390,13 @@
       <c r="AF93" s="7"/>
     </row>
     <row r="94" spans="1:32" ht="119">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="45" t="s">
         <v>391</v>
       </c>
       <c r="B94" s="7">
         <v>1</v>
       </c>
-      <c r="C94" s="50">
+      <c r="C94" s="51">
         <v>1</v>
       </c>
       <c r="D94" s="9"/>
@@ -6410,13 +6430,13 @@
       <c r="AF94" s="7"/>
     </row>
     <row r="95" spans="1:32" ht="204">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="45" t="s">
         <v>392</v>
       </c>
       <c r="B95" s="7">
         <v>1</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="51">
         <v>1</v>
       </c>
       <c r="D95" s="9"/>
@@ -6450,7 +6470,7 @@
       <c r="AF95" s="7"/>
     </row>
     <row r="96" spans="1:32" ht="119">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="45" t="s">
         <v>393</v>
       </c>
       <c r="B96" s="7">
@@ -6498,7 +6518,7 @@
       <c r="AF96" s="7"/>
     </row>
     <row r="97" spans="1:32" ht="68">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="45" t="s">
         <v>398</v>
       </c>
       <c r="B97" s="7">
@@ -6546,7 +6566,7 @@
       <c r="AF97" s="7"/>
     </row>
     <row r="98" spans="1:32" ht="51">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="45" t="s">
         <v>401</v>
       </c>
       <c r="B98" s="7">
@@ -6584,7 +6604,7 @@
       <c r="AF98" s="7"/>
     </row>
     <row r="99" spans="1:32" ht="68">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="45" t="s">
         <v>402</v>
       </c>
       <c r="B99" s="7">
@@ -6598,7 +6618,9 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="I99" s="52">
+        <v>45809</v>
+      </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -6630,7 +6652,7 @@
       <c r="AF99" s="7"/>
     </row>
     <row r="100" spans="1:32" ht="85">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="45" t="s">
         <v>406</v>
       </c>
       <c r="B100" s="7">
@@ -6648,7 +6670,9 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="I100" s="10">
+        <v>2</v>
+      </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -6680,7 +6704,7 @@
       <c r="AF100" s="7"/>
     </row>
     <row r="101" spans="1:32" ht="16">
-      <c r="A101" s="51"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="9"/>
@@ -6714,7 +6738,7 @@
       <c r="AF101" s="7"/>
     </row>
     <row r="102" spans="1:32" ht="16">
-      <c r="A102" s="51"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9"/>
@@ -6748,7 +6772,7 @@
       <c r="AF102" s="7"/>
     </row>
     <row r="103" spans="1:32" ht="16">
-      <c r="A103" s="51"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="9"/>
@@ -6782,7 +6806,7 @@
       <c r="AF103" s="7"/>
     </row>
     <row r="104" spans="1:32" ht="16">
-      <c r="A104" s="51"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9"/>
@@ -6816,7 +6840,7 @@
       <c r="AF104" s="7"/>
     </row>
     <row r="105" spans="1:32" ht="16">
-      <c r="A105" s="51"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -6850,7 +6874,7 @@
       <c r="AF105" s="7"/>
     </row>
     <row r="106" spans="1:32" ht="16">
-      <c r="A106" s="51"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="9"/>
@@ -6884,7 +6908,7 @@
       <c r="AF106" s="7"/>
     </row>
     <row r="107" spans="1:32" ht="16">
-      <c r="A107" s="51"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="9"/>
@@ -6918,7 +6942,7 @@
       <c r="AF107" s="7"/>
     </row>
     <row r="108" spans="1:32" ht="16">
-      <c r="A108" s="51"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
@@ -6952,7 +6976,7 @@
       <c r="AF108" s="7"/>
     </row>
     <row r="109" spans="1:32" ht="16">
-      <c r="A109" s="51"/>
+      <c r="A109" s="53"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9"/>
@@ -6986,7 +7010,7 @@
       <c r="AF109" s="7"/>
     </row>
     <row r="110" spans="1:32" ht="16">
-      <c r="A110" s="51"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="9"/>
@@ -7020,7 +7044,7 @@
       <c r="AF110" s="7"/>
     </row>
     <row r="111" spans="1:32" ht="16">
-      <c r="A111" s="51"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9"/>
@@ -7054,7 +7078,7 @@
       <c r="AF111" s="7"/>
     </row>
     <row r="112" spans="1:32" ht="16">
-      <c r="A112" s="51"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
@@ -7088,7 +7112,7 @@
       <c r="AF112" s="7"/>
     </row>
     <row r="113" spans="1:32" ht="16">
-      <c r="A113" s="51"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9"/>
@@ -7122,7 +7146,7 @@
       <c r="AF113" s="7"/>
     </row>
     <row r="114" spans="1:32" ht="16">
-      <c r="A114" s="51"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9"/>
@@ -7156,7 +7180,7 @@
       <c r="AF114" s="7"/>
     </row>
     <row r="115" spans="1:32" ht="16">
-      <c r="A115" s="51"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9"/>
@@ -7190,7 +7214,7 @@
       <c r="AF115" s="7"/>
     </row>
     <row r="116" spans="1:32" ht="16">
-      <c r="A116" s="51"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="9"/>
@@ -7224,7 +7248,7 @@
       <c r="AF116" s="7"/>
     </row>
     <row r="117" spans="1:32" ht="16">
-      <c r="A117" s="51"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9"/>
@@ -7258,7 +7282,7 @@
       <c r="AF117" s="7"/>
     </row>
     <row r="118" spans="1:32" ht="16">
-      <c r="A118" s="51"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
@@ -7292,7 +7316,7 @@
       <c r="AF118" s="7"/>
     </row>
     <row r="119" spans="1:32" ht="16">
-      <c r="A119" s="51"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9"/>
@@ -7326,7 +7350,7 @@
       <c r="AF119" s="7"/>
     </row>
     <row r="120" spans="1:32" ht="16">
-      <c r="A120" s="51"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9"/>
@@ -7360,7 +7384,7 @@
       <c r="AF120" s="7"/>
     </row>
     <row r="121" spans="1:32" ht="16">
-      <c r="A121" s="51"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9"/>
@@ -7394,7 +7418,7 @@
       <c r="AF121" s="7"/>
     </row>
     <row r="122" spans="1:32" ht="16">
-      <c r="A122" s="51"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
@@ -7428,7 +7452,7 @@
       <c r="AF122" s="7"/>
     </row>
     <row r="123" spans="1:32" ht="16">
-      <c r="A123" s="51"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9"/>
@@ -7462,7 +7486,7 @@
       <c r="AF123" s="7"/>
     </row>
     <row r="124" spans="1:32" ht="16">
-      <c r="A124" s="51"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="9"/>
@@ -7496,7 +7520,7 @@
       <c r="AF124" s="7"/>
     </row>
     <row r="125" spans="1:32" ht="16">
-      <c r="A125" s="51"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="9"/>
@@ -7530,7 +7554,7 @@
       <c r="AF125" s="7"/>
     </row>
     <row r="126" spans="1:32" ht="16">
-      <c r="A126" s="51"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9"/>
@@ -7564,7 +7588,7 @@
       <c r="AF126" s="7"/>
     </row>
     <row r="127" spans="1:32" ht="16">
-      <c r="A127" s="51"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" s="9"/>
@@ -7598,7 +7622,7 @@
       <c r="AF127" s="7"/>
     </row>
     <row r="128" spans="1:32" ht="16">
-      <c r="A128" s="51"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9"/>
@@ -7632,7 +7656,7 @@
       <c r="AF128" s="7"/>
     </row>
     <row r="129" spans="1:32" ht="16">
-      <c r="A129" s="51"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
@@ -7666,7 +7690,7 @@
       <c r="AF129" s="7"/>
     </row>
     <row r="130" spans="1:32" ht="16">
-      <c r="A130" s="51"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
@@ -7700,7 +7724,7 @@
       <c r="AF130" s="7"/>
     </row>
     <row r="131" spans="1:32" ht="16">
-      <c r="A131" s="51"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
@@ -7734,7 +7758,7 @@
       <c r="AF131" s="7"/>
     </row>
     <row r="132" spans="1:32" ht="16">
-      <c r="A132" s="51"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
@@ -7768,7 +7792,7 @@
       <c r="AF132" s="7"/>
     </row>
     <row r="133" spans="1:32" ht="16">
-      <c r="A133" s="51"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9"/>
@@ -7802,7 +7826,7 @@
       <c r="AF133" s="7"/>
     </row>
     <row r="134" spans="1:32" ht="16">
-      <c r="A134" s="51"/>
+      <c r="A134" s="53"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="9"/>
@@ -7836,7 +7860,7 @@
       <c r="AF134" s="7"/>
     </row>
     <row r="135" spans="1:32" ht="16">
-      <c r="A135" s="51"/>
+      <c r="A135" s="53"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="9"/>
@@ -7870,7 +7894,7 @@
       <c r="AF135" s="7"/>
     </row>
     <row r="136" spans="1:32" ht="16">
-      <c r="A136" s="51"/>
+      <c r="A136" s="53"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="9"/>
@@ -7904,7 +7928,7 @@
       <c r="AF136" s="7"/>
     </row>
     <row r="137" spans="1:32" ht="16">
-      <c r="A137" s="51"/>
+      <c r="A137" s="53"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="9"/>
@@ -7938,7 +7962,7 @@
       <c r="AF137" s="7"/>
     </row>
     <row r="138" spans="1:32" ht="16">
-      <c r="A138" s="51"/>
+      <c r="A138" s="53"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="9"/>
@@ -7972,7 +7996,7 @@
       <c r="AF138" s="7"/>
     </row>
     <row r="139" spans="1:32" ht="16">
-      <c r="A139" s="51"/>
+      <c r="A139" s="53"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="9"/>
@@ -8006,7 +8030,7 @@
       <c r="AF139" s="7"/>
     </row>
     <row r="140" spans="1:32" ht="16">
-      <c r="A140" s="51"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9"/>
@@ -8040,7 +8064,7 @@
       <c r="AF140" s="7"/>
     </row>
     <row r="141" spans="1:32" ht="16">
-      <c r="A141" s="51"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9"/>
@@ -8074,7 +8098,7 @@
       <c r="AF141" s="7"/>
     </row>
     <row r="142" spans="1:32" ht="16">
-      <c r="A142" s="51"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="9"/>
@@ -8108,7 +8132,7 @@
       <c r="AF142" s="7"/>
     </row>
     <row r="143" spans="1:32" ht="16">
-      <c r="A143" s="51"/>
+      <c r="A143" s="53"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9"/>
@@ -8142,7 +8166,7 @@
       <c r="AF143" s="7"/>
     </row>
     <row r="144" spans="1:32" ht="16">
-      <c r="A144" s="51"/>
+      <c r="A144" s="53"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9"/>
@@ -8176,7 +8200,7 @@
       <c r="AF144" s="7"/>
     </row>
     <row r="145" spans="1:32" ht="16">
-      <c r="A145" s="51"/>
+      <c r="A145" s="53"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
       <c r="D145" s="9"/>
@@ -8210,7 +8234,7 @@
       <c r="AF145" s="7"/>
     </row>
     <row r="146" spans="1:32" ht="16">
-      <c r="A146" s="51"/>
+      <c r="A146" s="53"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
       <c r="D146" s="9"/>
@@ -8244,7 +8268,7 @@
       <c r="AF146" s="7"/>
     </row>
     <row r="147" spans="1:32" ht="16">
-      <c r="A147" s="51"/>
+      <c r="A147" s="53"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="D147" s="9"/>
@@ -8278,7 +8302,7 @@
       <c r="AF147" s="7"/>
     </row>
     <row r="148" spans="1:32" ht="16">
-      <c r="A148" s="51"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="9"/>
@@ -8312,7 +8336,7 @@
       <c r="AF148" s="7"/>
     </row>
     <row r="149" spans="1:32" ht="16">
-      <c r="A149" s="51"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
       <c r="D149" s="9"/>
@@ -8346,7 +8370,7 @@
       <c r="AF149" s="7"/>
     </row>
     <row r="150" spans="1:32" ht="16">
-      <c r="A150" s="51"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
       <c r="D150" s="9"/>
@@ -8380,7 +8404,7 @@
       <c r="AF150" s="7"/>
     </row>
     <row r="151" spans="1:32" ht="16">
-      <c r="A151" s="51"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
       <c r="D151" s="9"/>
@@ -8414,7 +8438,7 @@
       <c r="AF151" s="7"/>
     </row>
     <row r="152" spans="1:32" ht="16">
-      <c r="A152" s="51"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
       <c r="D152" s="9"/>
@@ -8448,7 +8472,7 @@
       <c r="AF152" s="7"/>
     </row>
     <row r="153" spans="1:32" ht="16">
-      <c r="A153" s="51"/>
+      <c r="A153" s="53"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
       <c r="D153" s="9"/>
@@ -8482,7 +8506,7 @@
       <c r="AF153" s="7"/>
     </row>
     <row r="154" spans="1:32" ht="16">
-      <c r="A154" s="51"/>
+      <c r="A154" s="53"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
       <c r="D154" s="9"/>
@@ -8516,7 +8540,7 @@
       <c r="AF154" s="7"/>
     </row>
     <row r="155" spans="1:32" ht="16">
-      <c r="A155" s="51"/>
+      <c r="A155" s="53"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
       <c r="D155" s="9"/>
@@ -8550,7 +8574,7 @@
       <c r="AF155" s="7"/>
     </row>
     <row r="156" spans="1:32" ht="16">
-      <c r="A156" s="51"/>
+      <c r="A156" s="53"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
@@ -8584,7 +8608,7 @@
       <c r="AF156" s="7"/>
     </row>
     <row r="157" spans="1:32" ht="16">
-      <c r="A157" s="51"/>
+      <c r="A157" s="53"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
       <c r="D157" s="9"/>
@@ -8618,7 +8642,7 @@
       <c r="AF157" s="7"/>
     </row>
     <row r="158" spans="1:32" ht="16">
-      <c r="A158" s="51"/>
+      <c r="A158" s="53"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
       <c r="D158" s="9"/>
@@ -8652,7 +8676,7 @@
       <c r="AF158" s="7"/>
     </row>
     <row r="159" spans="1:32" ht="16">
-      <c r="A159" s="51"/>
+      <c r="A159" s="53"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
       <c r="D159" s="9"/>
@@ -8686,7 +8710,7 @@
       <c r="AF159" s="7"/>
     </row>
     <row r="160" spans="1:32" ht="16">
-      <c r="A160" s="51"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
       <c r="D160" s="9"/>
@@ -8720,7 +8744,7 @@
       <c r="AF160" s="7"/>
     </row>
     <row r="161" spans="1:32" ht="16">
-      <c r="A161" s="51"/>
+      <c r="A161" s="53"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
       <c r="D161" s="9"/>
@@ -8754,7 +8778,7 @@
       <c r="AF161" s="7"/>
     </row>
     <row r="162" spans="1:32" ht="16">
-      <c r="A162" s="51"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="D162" s="9"/>
@@ -8788,7 +8812,7 @@
       <c r="AF162" s="7"/>
     </row>
     <row r="163" spans="1:32" ht="16">
-      <c r="A163" s="51"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
       <c r="D163" s="9"/>
@@ -8822,7 +8846,7 @@
       <c r="AF163" s="7"/>
     </row>
     <row r="164" spans="1:32" ht="16">
-      <c r="A164" s="51"/>
+      <c r="A164" s="53"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
       <c r="D164" s="9"/>
@@ -8856,7 +8880,7 @@
       <c r="AF164" s="7"/>
     </row>
     <row r="165" spans="1:32" ht="16">
-      <c r="A165" s="51"/>
+      <c r="A165" s="53"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
       <c r="D165" s="9"/>
@@ -8890,7 +8914,7 @@
       <c r="AF165" s="7"/>
     </row>
     <row r="166" spans="1:32" ht="16">
-      <c r="A166" s="51"/>
+      <c r="A166" s="53"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
       <c r="D166" s="9"/>
@@ -8924,7 +8948,7 @@
       <c r="AF166" s="7"/>
     </row>
     <row r="167" spans="1:32" ht="16">
-      <c r="A167" s="51"/>
+      <c r="A167" s="53"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
       <c r="D167" s="9"/>
@@ -8958,7 +8982,7 @@
       <c r="AF167" s="7"/>
     </row>
     <row r="168" spans="1:32" ht="16">
-      <c r="A168" s="51"/>
+      <c r="A168" s="53"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
       <c r="D168" s="9"/>
@@ -8992,7 +9016,7 @@
       <c r="AF168" s="7"/>
     </row>
     <row r="169" spans="1:32" ht="16">
-      <c r="A169" s="51"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
       <c r="D169" s="9"/>
@@ -9026,7 +9050,7 @@
       <c r="AF169" s="7"/>
     </row>
     <row r="170" spans="1:32" ht="16">
-      <c r="A170" s="51"/>
+      <c r="A170" s="53"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
       <c r="D170" s="9"/>
@@ -9060,7 +9084,7 @@
       <c r="AF170" s="7"/>
     </row>
     <row r="171" spans="1:32" ht="16">
-      <c r="A171" s="51"/>
+      <c r="A171" s="53"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
       <c r="D171" s="9"/>
@@ -9094,7 +9118,7 @@
       <c r="AF171" s="7"/>
     </row>
     <row r="172" spans="1:32" ht="16">
-      <c r="A172" s="51"/>
+      <c r="A172" s="53"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
       <c r="D172" s="9"/>
@@ -9128,7 +9152,7 @@
       <c r="AF172" s="7"/>
     </row>
     <row r="173" spans="1:32" ht="16">
-      <c r="A173" s="51"/>
+      <c r="A173" s="53"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
       <c r="D173" s="9"/>
@@ -9162,7 +9186,7 @@
       <c r="AF173" s="7"/>
     </row>
     <row r="174" spans="1:32" ht="16">
-      <c r="A174" s="51"/>
+      <c r="A174" s="53"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
       <c r="D174" s="9"/>
@@ -9196,7 +9220,7 @@
       <c r="AF174" s="7"/>
     </row>
     <row r="175" spans="1:32" ht="16">
-      <c r="A175" s="51"/>
+      <c r="A175" s="53"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
       <c r="D175" s="9"/>
@@ -9230,7 +9254,7 @@
       <c r="AF175" s="7"/>
     </row>
     <row r="176" spans="1:32" ht="16">
-      <c r="A176" s="51"/>
+      <c r="A176" s="53"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
@@ -9264,7 +9288,7 @@
       <c r="AF176" s="7"/>
     </row>
     <row r="177" spans="1:32" ht="16">
-      <c r="A177" s="51"/>
+      <c r="A177" s="53"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
       <c r="D177" s="9"/>
@@ -9298,7 +9322,7 @@
       <c r="AF177" s="7"/>
     </row>
     <row r="178" spans="1:32" ht="16">
-      <c r="A178" s="51"/>
+      <c r="A178" s="53"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
       <c r="D178" s="9"/>
@@ -9332,7 +9356,7 @@
       <c r="AF178" s="7"/>
     </row>
     <row r="179" spans="1:32" ht="16">
-      <c r="A179" s="51"/>
+      <c r="A179" s="53"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
       <c r="D179" s="9"/>
@@ -9366,7 +9390,7 @@
       <c r="AF179" s="7"/>
     </row>
     <row r="180" spans="1:32" ht="16">
-      <c r="A180" s="51"/>
+      <c r="A180" s="53"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
       <c r="D180" s="9"/>
@@ -9400,7 +9424,7 @@
       <c r="AF180" s="7"/>
     </row>
     <row r="181" spans="1:32" ht="16">
-      <c r="A181" s="51"/>
+      <c r="A181" s="53"/>
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
       <c r="D181" s="9"/>
@@ -9434,7 +9458,7 @@
       <c r="AF181" s="7"/>
     </row>
     <row r="182" spans="1:32" ht="16">
-      <c r="A182" s="51"/>
+      <c r="A182" s="53"/>
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
       <c r="D182" s="9"/>
@@ -9468,7 +9492,7 @@
       <c r="AF182" s="7"/>
     </row>
     <row r="183" spans="1:32" ht="16">
-      <c r="A183" s="51"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
       <c r="D183" s="9"/>
@@ -9502,7 +9526,7 @@
       <c r="AF183" s="7"/>
     </row>
     <row r="184" spans="1:32" ht="16">
-      <c r="A184" s="51"/>
+      <c r="A184" s="53"/>
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
       <c r="D184" s="9"/>
@@ -9536,7 +9560,7 @@
       <c r="AF184" s="7"/>
     </row>
     <row r="185" spans="1:32" ht="16">
-      <c r="A185" s="51"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
       <c r="D185" s="9"/>
@@ -9570,7 +9594,7 @@
       <c r="AF185" s="7"/>
     </row>
     <row r="186" spans="1:32" ht="16">
-      <c r="A186" s="51"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="7"/>
       <c r="C186" s="8"/>
       <c r="D186" s="9"/>
@@ -9604,7 +9628,7 @@
       <c r="AF186" s="7"/>
     </row>
     <row r="187" spans="1:32" ht="16">
-      <c r="A187" s="51"/>
+      <c r="A187" s="53"/>
       <c r="B187" s="7"/>
       <c r="C187" s="8"/>
       <c r="D187" s="9"/>
@@ -9638,7 +9662,7 @@
       <c r="AF187" s="7"/>
     </row>
     <row r="188" spans="1:32" ht="16">
-      <c r="A188" s="51"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="7"/>
       <c r="C188" s="8"/>
       <c r="D188" s="9"/>
@@ -9672,7 +9696,7 @@
       <c r="AF188" s="7"/>
     </row>
     <row r="189" spans="1:32" ht="16">
-      <c r="A189" s="51"/>
+      <c r="A189" s="53"/>
       <c r="B189" s="7"/>
       <c r="C189" s="8"/>
       <c r="D189" s="9"/>
@@ -9706,7 +9730,7 @@
       <c r="AF189" s="7"/>
     </row>
     <row r="190" spans="1:32" ht="16">
-      <c r="A190" s="51"/>
+      <c r="A190" s="53"/>
       <c r="B190" s="7"/>
       <c r="C190" s="8"/>
       <c r="D190" s="9"/>
@@ -9740,7 +9764,7 @@
       <c r="AF190" s="7"/>
     </row>
     <row r="191" spans="1:32" ht="16">
-      <c r="A191" s="51"/>
+      <c r="A191" s="53"/>
       <c r="B191" s="7"/>
       <c r="C191" s="8"/>
       <c r="D191" s="9"/>
@@ -9774,7 +9798,7 @@
       <c r="AF191" s="7"/>
     </row>
     <row r="192" spans="1:32" ht="16">
-      <c r="A192" s="51"/>
+      <c r="A192" s="53"/>
       <c r="B192" s="7"/>
       <c r="C192" s="8"/>
       <c r="D192" s="9"/>
@@ -9808,7 +9832,7 @@
       <c r="AF192" s="7"/>
     </row>
     <row r="193" spans="1:32" ht="16">
-      <c r="A193" s="51"/>
+      <c r="A193" s="53"/>
       <c r="B193" s="7"/>
       <c r="C193" s="8"/>
       <c r="D193" s="9"/>
@@ -9842,7 +9866,7 @@
       <c r="AF193" s="7"/>
     </row>
     <row r="194" spans="1:32" ht="16">
-      <c r="A194" s="51"/>
+      <c r="A194" s="53"/>
       <c r="B194" s="7"/>
       <c r="C194" s="8"/>
       <c r="D194" s="9"/>
@@ -9876,7 +9900,7 @@
       <c r="AF194" s="7"/>
     </row>
     <row r="195" spans="1:32" ht="16">
-      <c r="A195" s="51"/>
+      <c r="A195" s="53"/>
       <c r="B195" s="7"/>
       <c r="C195" s="8"/>
       <c r="D195" s="9"/>
@@ -9910,7 +9934,7 @@
       <c r="AF195" s="7"/>
     </row>
     <row r="196" spans="1:32" ht="16">
-      <c r="A196" s="51"/>
+      <c r="A196" s="53"/>
       <c r="B196" s="7"/>
       <c r="C196" s="8"/>
       <c r="D196" s="9"/>
@@ -9944,7 +9968,7 @@
       <c r="AF196" s="7"/>
     </row>
     <row r="197" spans="1:32" ht="16">
-      <c r="A197" s="51"/>
+      <c r="A197" s="53"/>
       <c r="B197" s="7"/>
       <c r="C197" s="8"/>
       <c r="D197" s="9"/>
@@ -9978,7 +10002,7 @@
       <c r="AF197" s="7"/>
     </row>
     <row r="198" spans="1:32" ht="16">
-      <c r="A198" s="51"/>
+      <c r="A198" s="53"/>
       <c r="B198" s="7"/>
       <c r="C198" s="8"/>
       <c r="D198" s="9"/>
@@ -10012,7 +10036,7 @@
       <c r="AF198" s="7"/>
     </row>
     <row r="199" spans="1:32" ht="16">
-      <c r="A199" s="51"/>
+      <c r="A199" s="53"/>
       <c r="B199" s="7"/>
       <c r="C199" s="8"/>
       <c r="D199" s="9"/>
@@ -10046,7 +10070,7 @@
       <c r="AF199" s="7"/>
     </row>
     <row r="200" spans="1:32" ht="16">
-      <c r="A200" s="51"/>
+      <c r="A200" s="53"/>
       <c r="B200" s="7"/>
       <c r="C200" s="8"/>
       <c r="D200" s="9"/>
@@ -10080,7 +10104,7 @@
       <c r="AF200" s="7"/>
     </row>
     <row r="201" spans="1:32" ht="16">
-      <c r="A201" s="51"/>
+      <c r="A201" s="53"/>
       <c r="B201" s="7"/>
       <c r="C201" s="8"/>
       <c r="D201" s="9"/>
@@ -10114,7 +10138,7 @@
       <c r="AF201" s="7"/>
     </row>
     <row r="202" spans="1:32" ht="16">
-      <c r="A202" s="51"/>
+      <c r="A202" s="53"/>
       <c r="B202" s="7"/>
       <c r="C202" s="8"/>
       <c r="D202" s="9"/>
@@ -10148,7 +10172,7 @@
       <c r="AF202" s="7"/>
     </row>
     <row r="203" spans="1:32" ht="16">
-      <c r="A203" s="51"/>
+      <c r="A203" s="53"/>
       <c r="B203" s="7"/>
       <c r="C203" s="8"/>
       <c r="D203" s="9"/>
@@ -10182,7 +10206,7 @@
       <c r="AF203" s="7"/>
     </row>
     <row r="204" spans="1:32" ht="16">
-      <c r="A204" s="51"/>
+      <c r="A204" s="53"/>
       <c r="B204" s="7"/>
       <c r="C204" s="8"/>
       <c r="D204" s="9"/>
@@ -10216,7 +10240,7 @@
       <c r="AF204" s="7"/>
     </row>
     <row r="205" spans="1:32" ht="16">
-      <c r="A205" s="51"/>
+      <c r="A205" s="53"/>
       <c r="B205" s="7"/>
       <c r="C205" s="8"/>
       <c r="D205" s="9"/>
@@ -10250,7 +10274,7 @@
       <c r="AF205" s="7"/>
     </row>
     <row r="206" spans="1:32" ht="16">
-      <c r="A206" s="51"/>
+      <c r="A206" s="53"/>
       <c r="B206" s="7"/>
       <c r="C206" s="8"/>
       <c r="D206" s="9"/>
@@ -10284,7 +10308,7 @@
       <c r="AF206" s="7"/>
     </row>
     <row r="207" spans="1:32" ht="16">
-      <c r="A207" s="51"/>
+      <c r="A207" s="53"/>
       <c r="B207" s="7"/>
       <c r="C207" s="8"/>
       <c r="D207" s="9"/>
@@ -10318,7 +10342,7 @@
       <c r="AF207" s="7"/>
     </row>
     <row r="208" spans="1:32" ht="16">
-      <c r="A208" s="51"/>
+      <c r="A208" s="53"/>
       <c r="B208" s="7"/>
       <c r="C208" s="8"/>
       <c r="D208" s="9"/>
@@ -10352,7 +10376,7 @@
       <c r="AF208" s="7"/>
     </row>
     <row r="209" spans="1:32" ht="16">
-      <c r="A209" s="51"/>
+      <c r="A209" s="53"/>
       <c r="B209" s="7"/>
       <c r="C209" s="8"/>
       <c r="D209" s="9"/>
@@ -10386,7 +10410,7 @@
       <c r="AF209" s="7"/>
     </row>
     <row r="210" spans="1:32" ht="16">
-      <c r="A210" s="51"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="7"/>
       <c r="C210" s="8"/>
       <c r="D210" s="9"/>
@@ -10420,7 +10444,7 @@
       <c r="AF210" s="7"/>
     </row>
     <row r="211" spans="1:32" ht="16">
-      <c r="A211" s="51"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="7"/>
       <c r="C211" s="8"/>
       <c r="D211" s="9"/>
@@ -10454,7 +10478,7 @@
       <c r="AF211" s="7"/>
     </row>
     <row r="212" spans="1:32" ht="16">
-      <c r="A212" s="51"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="7"/>
       <c r="C212" s="8"/>
       <c r="D212" s="9"/>
@@ -10488,7 +10512,7 @@
       <c r="AF212" s="7"/>
     </row>
     <row r="213" spans="1:32" ht="16">
-      <c r="A213" s="51"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="7"/>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
@@ -10522,7 +10546,7 @@
       <c r="AF213" s="7"/>
     </row>
     <row r="214" spans="1:32" ht="16">
-      <c r="A214" s="51"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="7"/>
       <c r="C214" s="8"/>
       <c r="D214" s="9"/>
@@ -10556,7 +10580,7 @@
       <c r="AF214" s="7"/>
     </row>
     <row r="215" spans="1:32" ht="16">
-      <c r="A215" s="51"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="7"/>
       <c r="C215" s="8"/>
       <c r="D215" s="9"/>
@@ -10590,7 +10614,7 @@
       <c r="AF215" s="7"/>
     </row>
     <row r="216" spans="1:32" ht="16">
-      <c r="A216" s="51"/>
+      <c r="A216" s="53"/>
       <c r="B216" s="7"/>
       <c r="C216" s="8"/>
       <c r="D216" s="9"/>
@@ -10624,7 +10648,7 @@
       <c r="AF216" s="7"/>
     </row>
     <row r="217" spans="1:32" ht="16">
-      <c r="A217" s="51"/>
+      <c r="A217" s="53"/>
       <c r="B217" s="7"/>
       <c r="C217" s="8"/>
       <c r="D217" s="9"/>
@@ -10658,7 +10682,7 @@
       <c r="AF217" s="7"/>
     </row>
     <row r="218" spans="1:32" ht="16">
-      <c r="A218" s="51"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="7"/>
       <c r="C218" s="8"/>
       <c r="D218" s="9"/>
@@ -10692,7 +10716,7 @@
       <c r="AF218" s="7"/>
     </row>
     <row r="219" spans="1:32" ht="16">
-      <c r="A219" s="51"/>
+      <c r="A219" s="53"/>
       <c r="B219" s="7"/>
       <c r="C219" s="8"/>
       <c r="D219" s="9"/>
@@ -10726,7 +10750,7 @@
       <c r="AF219" s="7"/>
     </row>
     <row r="220" spans="1:32" ht="16">
-      <c r="A220" s="51"/>
+      <c r="A220" s="53"/>
       <c r="B220" s="7"/>
       <c r="C220" s="8"/>
       <c r="D220" s="9"/>
@@ -10760,7 +10784,7 @@
       <c r="AF220" s="7"/>
     </row>
     <row r="221" spans="1:32" ht="16">
-      <c r="A221" s="51"/>
+      <c r="A221" s="53"/>
       <c r="B221" s="7"/>
       <c r="C221" s="8"/>
       <c r="D221" s="9"/>
@@ -10794,7 +10818,7 @@
       <c r="AF221" s="7"/>
     </row>
     <row r="222" spans="1:32" ht="16">
-      <c r="A222" s="51"/>
+      <c r="A222" s="53"/>
       <c r="B222" s="7"/>
       <c r="C222" s="8"/>
       <c r="D222" s="9"/>
@@ -10828,7 +10852,7 @@
       <c r="AF222" s="7"/>
     </row>
     <row r="223" spans="1:32" ht="16">
-      <c r="A223" s="51"/>
+      <c r="A223" s="53"/>
       <c r="B223" s="7"/>
       <c r="C223" s="8"/>
       <c r="D223" s="9"/>
@@ -10862,7 +10886,7 @@
       <c r="AF223" s="7"/>
     </row>
     <row r="224" spans="1:32" ht="16">
-      <c r="A224" s="51"/>
+      <c r="A224" s="53"/>
       <c r="B224" s="7"/>
       <c r="C224" s="8"/>
       <c r="D224" s="9"/>
@@ -10896,7 +10920,7 @@
       <c r="AF224" s="7"/>
     </row>
     <row r="225" spans="1:32" ht="16">
-      <c r="A225" s="51"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="7"/>
       <c r="C225" s="8"/>
       <c r="D225" s="9"/>
@@ -10930,7 +10954,7 @@
       <c r="AF225" s="7"/>
     </row>
     <row r="226" spans="1:32" ht="16">
-      <c r="A226" s="51"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="7"/>
       <c r="C226" s="8"/>
       <c r="D226" s="9"/>
@@ -10964,7 +10988,7 @@
       <c r="AF226" s="7"/>
     </row>
     <row r="227" spans="1:32" ht="16">
-      <c r="A227" s="51"/>
+      <c r="A227" s="53"/>
       <c r="B227" s="7"/>
       <c r="C227" s="8"/>
       <c r="D227" s="9"/>
@@ -10998,7 +11022,7 @@
       <c r="AF227" s="7"/>
     </row>
     <row r="228" spans="1:32" ht="16">
-      <c r="A228" s="51"/>
+      <c r="A228" s="53"/>
       <c r="B228" s="7"/>
       <c r="C228" s="8"/>
       <c r="D228" s="9"/>
@@ -11032,7 +11056,7 @@
       <c r="AF228" s="7"/>
     </row>
     <row r="229" spans="1:32" ht="16">
-      <c r="A229" s="51"/>
+      <c r="A229" s="53"/>
       <c r="B229" s="7"/>
       <c r="C229" s="8"/>
       <c r="D229" s="9"/>
@@ -11066,7 +11090,7 @@
       <c r="AF229" s="7"/>
     </row>
     <row r="230" spans="1:32" ht="16">
-      <c r="A230" s="51"/>
+      <c r="A230" s="53"/>
       <c r="B230" s="7"/>
       <c r="C230" s="8"/>
       <c r="D230" s="9"/>
@@ -11100,7 +11124,7 @@
       <c r="AF230" s="7"/>
     </row>
     <row r="231" spans="1:32" ht="16">
-      <c r="A231" s="51"/>
+      <c r="A231" s="53"/>
       <c r="B231" s="7"/>
       <c r="C231" s="8"/>
       <c r="D231" s="9"/>
@@ -11134,7 +11158,7 @@
       <c r="AF231" s="7"/>
     </row>
     <row r="232" spans="1:32" ht="16">
-      <c r="A232" s="51"/>
+      <c r="A232" s="53"/>
       <c r="B232" s="7"/>
       <c r="C232" s="8"/>
       <c r="D232" s="9"/>
@@ -11168,7 +11192,7 @@
       <c r="AF232" s="7"/>
     </row>
     <row r="233" spans="1:32" ht="16">
-      <c r="A233" s="51"/>
+      <c r="A233" s="53"/>
       <c r="B233" s="7"/>
       <c r="C233" s="8"/>
       <c r="D233" s="9"/>
@@ -11202,7 +11226,7 @@
       <c r="AF233" s="7"/>
     </row>
     <row r="234" spans="1:32" ht="16">
-      <c r="A234" s="51"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="7"/>
       <c r="C234" s="8"/>
       <c r="D234" s="9"/>
@@ -11236,7 +11260,7 @@
       <c r="AF234" s="7"/>
     </row>
     <row r="235" spans="1:32" ht="16">
-      <c r="A235" s="51"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="7"/>
       <c r="C235" s="8"/>
       <c r="D235" s="9"/>
@@ -11270,7 +11294,7 @@
       <c r="AF235" s="7"/>
     </row>
     <row r="236" spans="1:32" ht="16">
-      <c r="A236" s="51"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="7"/>
       <c r="C236" s="8"/>
       <c r="D236" s="9"/>
@@ -11304,7 +11328,7 @@
       <c r="AF236" s="7"/>
     </row>
     <row r="237" spans="1:32" ht="16">
-      <c r="A237" s="51"/>
+      <c r="A237" s="53"/>
       <c r="B237" s="7"/>
       <c r="C237" s="8"/>
       <c r="D237" s="9"/>
@@ -11338,7 +11362,7 @@
       <c r="AF237" s="7"/>
     </row>
     <row r="238" spans="1:32" ht="16">
-      <c r="A238" s="51"/>
+      <c r="A238" s="53"/>
       <c r="B238" s="7"/>
       <c r="C238" s="8"/>
       <c r="D238" s="9"/>
@@ -11372,7 +11396,7 @@
       <c r="AF238" s="7"/>
     </row>
     <row r="239" spans="1:32" ht="16">
-      <c r="A239" s="51"/>
+      <c r="A239" s="53"/>
       <c r="B239" s="7"/>
       <c r="C239" s="8"/>
       <c r="D239" s="9"/>
@@ -11406,7 +11430,7 @@
       <c r="AF239" s="7"/>
     </row>
     <row r="240" spans="1:32" ht="16">
-      <c r="A240" s="51"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="7"/>
       <c r="C240" s="8"/>
       <c r="D240" s="9"/>
@@ -11440,7 +11464,7 @@
       <c r="AF240" s="7"/>
     </row>
     <row r="241" spans="1:32" ht="16">
-      <c r="A241" s="51"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="7"/>
       <c r="C241" s="8"/>
       <c r="D241" s="9"/>
@@ -11474,7 +11498,7 @@
       <c r="AF241" s="7"/>
     </row>
     <row r="242" spans="1:32" ht="16">
-      <c r="A242" s="51"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="7"/>
       <c r="C242" s="8"/>
       <c r="D242" s="9"/>
@@ -11508,7 +11532,7 @@
       <c r="AF242" s="7"/>
     </row>
     <row r="243" spans="1:32" ht="16">
-      <c r="A243" s="51"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="7"/>
       <c r="C243" s="8"/>
       <c r="D243" s="9"/>
@@ -11542,7 +11566,7 @@
       <c r="AF243" s="7"/>
     </row>
     <row r="244" spans="1:32" ht="16">
-      <c r="A244" s="51"/>
+      <c r="A244" s="53"/>
       <c r="B244" s="7"/>
       <c r="C244" s="8"/>
       <c r="D244" s="9"/>
@@ -11576,7 +11600,7 @@
       <c r="AF244" s="7"/>
     </row>
     <row r="245" spans="1:32" ht="16">
-      <c r="A245" s="51"/>
+      <c r="A245" s="53"/>
       <c r="B245" s="7"/>
       <c r="C245" s="8"/>
       <c r="D245" s="9"/>
@@ -11610,7 +11634,7 @@
       <c r="AF245" s="7"/>
     </row>
     <row r="246" spans="1:32" ht="16">
-      <c r="A246" s="51"/>
+      <c r="A246" s="53"/>
       <c r="B246" s="7"/>
       <c r="C246" s="8"/>
       <c r="D246" s="9"/>
@@ -11644,7 +11668,7 @@
       <c r="AF246" s="7"/>
     </row>
     <row r="247" spans="1:32" ht="16">
-      <c r="A247" s="51"/>
+      <c r="A247" s="53"/>
       <c r="B247" s="7"/>
       <c r="C247" s="8"/>
       <c r="D247" s="9"/>
@@ -11678,7 +11702,7 @@
       <c r="AF247" s="7"/>
     </row>
     <row r="248" spans="1:32" ht="16">
-      <c r="A248" s="51"/>
+      <c r="A248" s="53"/>
       <c r="B248" s="7"/>
       <c r="C248" s="8"/>
       <c r="D248" s="9"/>
@@ -11712,7 +11736,7 @@
       <c r="AF248" s="7"/>
     </row>
     <row r="249" spans="1:32" ht="16">
-      <c r="A249" s="51"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="7"/>
       <c r="C249" s="8"/>
       <c r="D249" s="9"/>
@@ -11746,7 +11770,7 @@
       <c r="AF249" s="7"/>
     </row>
     <row r="250" spans="1:32" ht="16">
-      <c r="A250" s="51"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="7"/>
       <c r="C250" s="8"/>
       <c r="D250" s="9"/>
@@ -11780,7 +11804,7 @@
       <c r="AF250" s="7"/>
     </row>
     <row r="251" spans="1:32" ht="16">
-      <c r="A251" s="51"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="7"/>
       <c r="C251" s="8"/>
       <c r="D251" s="9"/>
@@ -11814,7 +11838,7 @@
       <c r="AF251" s="7"/>
     </row>
     <row r="252" spans="1:32" ht="16">
-      <c r="A252" s="51"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="7"/>
       <c r="C252" s="8"/>
       <c r="D252" s="9"/>
@@ -11848,7 +11872,7 @@
       <c r="AF252" s="7"/>
     </row>
     <row r="253" spans="1:32" ht="16">
-      <c r="A253" s="51"/>
+      <c r="A253" s="53"/>
       <c r="B253" s="7"/>
       <c r="C253" s="8"/>
       <c r="D253" s="9"/>
@@ -11882,7 +11906,7 @@
       <c r="AF253" s="7"/>
     </row>
     <row r="254" spans="1:32" ht="16">
-      <c r="A254" s="51"/>
+      <c r="A254" s="53"/>
       <c r="B254" s="7"/>
       <c r="C254" s="8"/>
       <c r="D254" s="9"/>
@@ -11916,7 +11940,7 @@
       <c r="AF254" s="7"/>
     </row>
     <row r="255" spans="1:32" ht="16">
-      <c r="A255" s="51"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="7"/>
       <c r="C255" s="8"/>
       <c r="D255" s="9"/>
@@ -11950,7 +11974,7 @@
       <c r="AF255" s="7"/>
     </row>
     <row r="256" spans="1:32" ht="16">
-      <c r="A256" s="51"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="7"/>
       <c r="C256" s="8"/>
       <c r="D256" s="9"/>
@@ -11984,7 +12008,7 @@
       <c r="AF256" s="7"/>
     </row>
     <row r="257" spans="1:32" ht="16">
-      <c r="A257" s="51"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="7"/>
       <c r="C257" s="8"/>
       <c r="D257" s="9"/>
@@ -12018,7 +12042,7 @@
       <c r="AF257" s="7"/>
     </row>
     <row r="258" spans="1:32" ht="16">
-      <c r="A258" s="51"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="7"/>
       <c r="C258" s="8"/>
       <c r="D258" s="9"/>
@@ -12052,7 +12076,7 @@
       <c r="AF258" s="7"/>
     </row>
     <row r="259" spans="1:32" ht="16">
-      <c r="A259" s="51"/>
+      <c r="A259" s="53"/>
       <c r="B259" s="7"/>
       <c r="C259" s="8"/>
       <c r="D259" s="9"/>
@@ -12086,7 +12110,7 @@
       <c r="AF259" s="7"/>
     </row>
     <row r="260" spans="1:32" ht="16">
-      <c r="A260" s="51"/>
+      <c r="A260" s="53"/>
       <c r="B260" s="7"/>
       <c r="C260" s="8"/>
       <c r="D260" s="9"/>
@@ -12120,7 +12144,7 @@
       <c r="AF260" s="7"/>
     </row>
     <row r="261" spans="1:32" ht="16">
-      <c r="A261" s="51"/>
+      <c r="A261" s="53"/>
       <c r="B261" s="7"/>
       <c r="C261" s="8"/>
       <c r="D261" s="9"/>
@@ -12154,7 +12178,7 @@
       <c r="AF261" s="7"/>
     </row>
     <row r="262" spans="1:32" ht="16">
-      <c r="A262" s="51"/>
+      <c r="A262" s="53"/>
       <c r="B262" s="7"/>
       <c r="C262" s="8"/>
       <c r="D262" s="9"/>
@@ -12188,7 +12212,7 @@
       <c r="AF262" s="7"/>
     </row>
     <row r="263" spans="1:32" ht="16">
-      <c r="A263" s="51"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="7"/>
       <c r="C263" s="8"/>
       <c r="D263" s="9"/>
@@ -12222,7 +12246,7 @@
       <c r="AF263" s="7"/>
     </row>
     <row r="264" spans="1:32" ht="16">
-      <c r="A264" s="51"/>
+      <c r="A264" s="53"/>
       <c r="B264" s="7"/>
       <c r="C264" s="8"/>
       <c r="D264" s="9"/>
@@ -12256,7 +12280,7 @@
       <c r="AF264" s="7"/>
     </row>
     <row r="265" spans="1:32" ht="16">
-      <c r="A265" s="51"/>
+      <c r="A265" s="53"/>
       <c r="B265" s="7"/>
       <c r="C265" s="8"/>
       <c r="D265" s="9"/>
@@ -12290,7 +12314,7 @@
       <c r="AF265" s="7"/>
     </row>
     <row r="266" spans="1:32" ht="16">
-      <c r="A266" s="51"/>
+      <c r="A266" s="53"/>
       <c r="B266" s="7"/>
       <c r="C266" s="8"/>
       <c r="D266" s="9"/>
@@ -12324,7 +12348,7 @@
       <c r="AF266" s="7"/>
     </row>
     <row r="267" spans="1:32" ht="16">
-      <c r="A267" s="51"/>
+      <c r="A267" s="53"/>
       <c r="B267" s="7"/>
       <c r="C267" s="8"/>
       <c r="D267" s="9"/>
@@ -12358,7 +12382,7 @@
       <c r="AF267" s="7"/>
     </row>
     <row r="268" spans="1:32" ht="16">
-      <c r="A268" s="51"/>
+      <c r="A268" s="53"/>
       <c r="B268" s="7"/>
       <c r="C268" s="8"/>
       <c r="D268" s="9"/>
@@ -12392,7 +12416,7 @@
       <c r="AF268" s="7"/>
     </row>
     <row r="269" spans="1:32" ht="16">
-      <c r="A269" s="51"/>
+      <c r="A269" s="53"/>
       <c r="B269" s="7"/>
       <c r="C269" s="8"/>
       <c r="D269" s="9"/>
@@ -12426,7 +12450,7 @@
       <c r="AF269" s="7"/>
     </row>
     <row r="270" spans="1:32" ht="16">
-      <c r="A270" s="51"/>
+      <c r="A270" s="53"/>
       <c r="B270" s="7"/>
       <c r="C270" s="8"/>
       <c r="D270" s="9"/>
@@ -12460,7 +12484,7 @@
       <c r="AF270" s="7"/>
     </row>
     <row r="271" spans="1:32" ht="16">
-      <c r="A271" s="51"/>
+      <c r="A271" s="53"/>
       <c r="B271" s="7"/>
       <c r="C271" s="8"/>
       <c r="D271" s="9"/>
@@ -12494,7 +12518,7 @@
       <c r="AF271" s="7"/>
     </row>
     <row r="272" spans="1:32" ht="16">
-      <c r="A272" s="51"/>
+      <c r="A272" s="53"/>
       <c r="B272" s="7"/>
       <c r="C272" s="8"/>
       <c r="D272" s="9"/>
@@ -12528,7 +12552,7 @@
       <c r="AF272" s="7"/>
     </row>
     <row r="273" spans="1:32" ht="16">
-      <c r="A273" s="51"/>
+      <c r="A273" s="53"/>
       <c r="B273" s="7"/>
       <c r="C273" s="8"/>
       <c r="D273" s="9"/>
@@ -12562,7 +12586,7 @@
       <c r="AF273" s="7"/>
     </row>
     <row r="274" spans="1:32" ht="16">
-      <c r="A274" s="51"/>
+      <c r="A274" s="53"/>
       <c r="B274" s="7"/>
       <c r="C274" s="8"/>
       <c r="D274" s="9"/>
@@ -12596,7 +12620,7 @@
       <c r="AF274" s="7"/>
     </row>
     <row r="275" spans="1:32" ht="16">
-      <c r="A275" s="51"/>
+      <c r="A275" s="53"/>
       <c r="B275" s="7"/>
       <c r="C275" s="8"/>
       <c r="D275" s="9"/>
@@ -12630,7 +12654,7 @@
       <c r="AF275" s="7"/>
     </row>
     <row r="276" spans="1:32" ht="16">
-      <c r="A276" s="51"/>
+      <c r="A276" s="53"/>
       <c r="B276" s="7"/>
       <c r="C276" s="8"/>
       <c r="D276" s="9"/>
@@ -12664,7 +12688,7 @@
       <c r="AF276" s="7"/>
     </row>
     <row r="277" spans="1:32" ht="16">
-      <c r="A277" s="51"/>
+      <c r="A277" s="53"/>
       <c r="B277" s="7"/>
       <c r="C277" s="8"/>
       <c r="D277" s="9"/>
@@ -12698,7 +12722,7 @@
       <c r="AF277" s="7"/>
     </row>
     <row r="278" spans="1:32" ht="16">
-      <c r="A278" s="51"/>
+      <c r="A278" s="53"/>
       <c r="B278" s="7"/>
       <c r="C278" s="8"/>
       <c r="D278" s="9"/>
@@ -12732,7 +12756,7 @@
       <c r="AF278" s="7"/>
     </row>
     <row r="279" spans="1:32" ht="16">
-      <c r="A279" s="51"/>
+      <c r="A279" s="53"/>
       <c r="B279" s="7"/>
       <c r="C279" s="8"/>
       <c r="D279" s="9"/>
@@ -12766,7 +12790,7 @@
       <c r="AF279" s="7"/>
     </row>
     <row r="280" spans="1:32" ht="16">
-      <c r="A280" s="51"/>
+      <c r="A280" s="53"/>
       <c r="B280" s="7"/>
       <c r="C280" s="8"/>
       <c r="D280" s="9"/>
@@ -12800,7 +12824,7 @@
       <c r="AF280" s="7"/>
     </row>
     <row r="281" spans="1:32" ht="16">
-      <c r="A281" s="51"/>
+      <c r="A281" s="53"/>
       <c r="B281" s="7"/>
       <c r="C281" s="8"/>
       <c r="D281" s="9"/>
@@ -12834,7 +12858,7 @@
       <c r="AF281" s="7"/>
     </row>
     <row r="282" spans="1:32" ht="16">
-      <c r="A282" s="51"/>
+      <c r="A282" s="53"/>
       <c r="B282" s="7"/>
       <c r="C282" s="8"/>
       <c r="D282" s="9"/>
@@ -12868,7 +12892,7 @@
       <c r="AF282" s="7"/>
     </row>
     <row r="283" spans="1:32" ht="16">
-      <c r="A283" s="51"/>
+      <c r="A283" s="53"/>
       <c r="B283" s="7"/>
       <c r="C283" s="8"/>
       <c r="D283" s="9"/>
@@ -12902,7 +12926,7 @@
       <c r="AF283" s="7"/>
     </row>
     <row r="284" spans="1:32" ht="16">
-      <c r="A284" s="51"/>
+      <c r="A284" s="53"/>
       <c r="B284" s="7"/>
       <c r="C284" s="8"/>
       <c r="D284" s="9"/>
@@ -12936,7 +12960,7 @@
       <c r="AF284" s="7"/>
     </row>
     <row r="285" spans="1:32" ht="16">
-      <c r="A285" s="51"/>
+      <c r="A285" s="53"/>
       <c r="B285" s="7"/>
       <c r="C285" s="8"/>
       <c r="D285" s="9"/>
@@ -12970,7 +12994,7 @@
       <c r="AF285" s="7"/>
     </row>
     <row r="286" spans="1:32" ht="16">
-      <c r="A286" s="51"/>
+      <c r="A286" s="53"/>
       <c r="B286" s="7"/>
       <c r="C286" s="8"/>
       <c r="D286" s="9"/>
@@ -13004,7 +13028,7 @@
       <c r="AF286" s="7"/>
     </row>
     <row r="287" spans="1:32" ht="16">
-      <c r="A287" s="51"/>
+      <c r="A287" s="53"/>
       <c r="B287" s="7"/>
       <c r="C287" s="8"/>
       <c r="D287" s="9"/>
@@ -13038,7 +13062,7 @@
       <c r="AF287" s="7"/>
     </row>
     <row r="288" spans="1:32" ht="16">
-      <c r="A288" s="51"/>
+      <c r="A288" s="53"/>
       <c r="B288" s="7"/>
       <c r="C288" s="8"/>
       <c r="D288" s="9"/>
@@ -13072,7 +13096,7 @@
       <c r="AF288" s="7"/>
     </row>
     <row r="289" spans="1:32" ht="16">
-      <c r="A289" s="51"/>
+      <c r="A289" s="53"/>
       <c r="B289" s="7"/>
       <c r="C289" s="8"/>
       <c r="D289" s="9"/>
@@ -13106,7 +13130,7 @@
       <c r="AF289" s="7"/>
     </row>
     <row r="290" spans="1:32" ht="16">
-      <c r="A290" s="51"/>
+      <c r="A290" s="53"/>
       <c r="B290" s="7"/>
       <c r="C290" s="8"/>
       <c r="D290" s="9"/>
@@ -13140,7 +13164,7 @@
       <c r="AF290" s="7"/>
     </row>
     <row r="291" spans="1:32" ht="16">
-      <c r="A291" s="51"/>
+      <c r="A291" s="53"/>
       <c r="B291" s="7"/>
       <c r="C291" s="8"/>
       <c r="D291" s="9"/>
@@ -13174,7 +13198,7 @@
       <c r="AF291" s="7"/>
     </row>
     <row r="292" spans="1:32" ht="16">
-      <c r="A292" s="51"/>
+      <c r="A292" s="53"/>
       <c r="B292" s="7"/>
       <c r="C292" s="8"/>
       <c r="D292" s="9"/>
@@ -13208,7 +13232,7 @@
       <c r="AF292" s="7"/>
     </row>
     <row r="293" spans="1:32" ht="16">
-      <c r="A293" s="51"/>
+      <c r="A293" s="53"/>
       <c r="B293" s="7"/>
       <c r="C293" s="8"/>
       <c r="D293" s="9"/>
@@ -13242,7 +13266,7 @@
       <c r="AF293" s="7"/>
     </row>
     <row r="294" spans="1:32" ht="16">
-      <c r="A294" s="51"/>
+      <c r="A294" s="53"/>
       <c r="B294" s="7"/>
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
@@ -13276,7 +13300,7 @@
       <c r="AF294" s="7"/>
     </row>
     <row r="295" spans="1:32" ht="16">
-      <c r="A295" s="51"/>
+      <c r="A295" s="53"/>
       <c r="B295" s="7"/>
       <c r="C295" s="8"/>
       <c r="D295" s="9"/>
@@ -13310,7 +13334,7 @@
       <c r="AF295" s="7"/>
     </row>
     <row r="296" spans="1:32" ht="16">
-      <c r="A296" s="51"/>
+      <c r="A296" s="53"/>
       <c r="B296" s="7"/>
       <c r="C296" s="8"/>
       <c r="D296" s="9"/>
@@ -13344,7 +13368,7 @@
       <c r="AF296" s="7"/>
     </row>
     <row r="297" spans="1:32" ht="16">
-      <c r="A297" s="51"/>
+      <c r="A297" s="53"/>
       <c r="B297" s="7"/>
       <c r="C297" s="8"/>
       <c r="D297" s="9"/>
@@ -13378,7 +13402,7 @@
       <c r="AF297" s="7"/>
     </row>
     <row r="298" spans="1:32" ht="16">
-      <c r="A298" s="51"/>
+      <c r="A298" s="53"/>
       <c r="B298" s="7"/>
       <c r="C298" s="8"/>
       <c r="D298" s="9"/>
@@ -13412,7 +13436,7 @@
       <c r="AF298" s="7"/>
     </row>
     <row r="299" spans="1:32" ht="16">
-      <c r="A299" s="51"/>
+      <c r="A299" s="53"/>
       <c r="B299" s="7"/>
       <c r="C299" s="8"/>
       <c r="D299" s="9"/>
@@ -13446,7 +13470,7 @@
       <c r="AF299" s="7"/>
     </row>
     <row r="300" spans="1:32" ht="16">
-      <c r="A300" s="51"/>
+      <c r="A300" s="53"/>
       <c r="B300" s="7"/>
       <c r="C300" s="8"/>
       <c r="D300" s="9"/>
@@ -13480,7 +13504,7 @@
       <c r="AF300" s="7"/>
     </row>
     <row r="301" spans="1:32" ht="16">
-      <c r="A301" s="51"/>
+      <c r="A301" s="53"/>
       <c r="B301" s="7"/>
       <c r="C301" s="8"/>
       <c r="D301" s="9"/>
@@ -13514,7 +13538,7 @@
       <c r="AF301" s="7"/>
     </row>
     <row r="302" spans="1:32" ht="16">
-      <c r="A302" s="51"/>
+      <c r="A302" s="53"/>
       <c r="B302" s="7"/>
       <c r="C302" s="8"/>
       <c r="D302" s="9"/>
@@ -13548,7 +13572,7 @@
       <c r="AF302" s="7"/>
     </row>
     <row r="303" spans="1:32" ht="16">
-      <c r="A303" s="51"/>
+      <c r="A303" s="53"/>
       <c r="B303" s="7"/>
       <c r="C303" s="8"/>
       <c r="D303" s="9"/>
@@ -13582,7 +13606,7 @@
       <c r="AF303" s="7"/>
     </row>
     <row r="304" spans="1:32" ht="16">
-      <c r="A304" s="51"/>
+      <c r="A304" s="53"/>
       <c r="B304" s="7"/>
       <c r="C304" s="8"/>
       <c r="D304" s="9"/>
@@ -13616,7 +13640,7 @@
       <c r="AF304" s="7"/>
     </row>
     <row r="305" spans="1:32" ht="16">
-      <c r="A305" s="51"/>
+      <c r="A305" s="53"/>
       <c r="B305" s="7"/>
       <c r="C305" s="8"/>
       <c r="D305" s="9"/>
@@ -13650,7 +13674,7 @@
       <c r="AF305" s="7"/>
     </row>
     <row r="306" spans="1:32" ht="16">
-      <c r="A306" s="51"/>
+      <c r="A306" s="53"/>
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
       <c r="D306" s="9"/>
@@ -13684,7 +13708,7 @@
       <c r="AF306" s="7"/>
     </row>
     <row r="307" spans="1:32" ht="16">
-      <c r="A307" s="51"/>
+      <c r="A307" s="53"/>
       <c r="B307" s="7"/>
       <c r="C307" s="8"/>
       <c r="D307" s="9"/>
@@ -13718,7 +13742,7 @@
       <c r="AF307" s="7"/>
     </row>
     <row r="308" spans="1:32" ht="16">
-      <c r="A308" s="51"/>
+      <c r="A308" s="53"/>
       <c r="B308" s="7"/>
       <c r="C308" s="8"/>
       <c r="D308" s="9"/>
@@ -13752,7 +13776,7 @@
       <c r="AF308" s="7"/>
     </row>
     <row r="309" spans="1:32" ht="16">
-      <c r="A309" s="51"/>
+      <c r="A309" s="53"/>
       <c r="B309" s="7"/>
       <c r="C309" s="8"/>
       <c r="D309" s="9"/>
@@ -13786,7 +13810,7 @@
       <c r="AF309" s="7"/>
     </row>
     <row r="310" spans="1:32" ht="16">
-      <c r="A310" s="51"/>
+      <c r="A310" s="53"/>
       <c r="B310" s="7"/>
       <c r="C310" s="8"/>
       <c r="D310" s="9"/>
@@ -13820,7 +13844,7 @@
       <c r="AF310" s="7"/>
     </row>
     <row r="311" spans="1:32" ht="16">
-      <c r="A311" s="51"/>
+      <c r="A311" s="53"/>
       <c r="B311" s="7"/>
       <c r="C311" s="8"/>
       <c r="D311" s="9"/>
@@ -13854,7 +13878,7 @@
       <c r="AF311" s="7"/>
     </row>
     <row r="312" spans="1:32" ht="16">
-      <c r="A312" s="51"/>
+      <c r="A312" s="53"/>
       <c r="B312" s="7"/>
       <c r="C312" s="8"/>
       <c r="D312" s="9"/>
@@ -13888,7 +13912,7 @@
       <c r="AF312" s="7"/>
     </row>
     <row r="313" spans="1:32" ht="16">
-      <c r="A313" s="51"/>
+      <c r="A313" s="53"/>
       <c r="B313" s="7"/>
       <c r="C313" s="8"/>
       <c r="D313" s="9"/>
@@ -13922,7 +13946,7 @@
       <c r="AF313" s="7"/>
     </row>
     <row r="314" spans="1:32" ht="16">
-      <c r="A314" s="51"/>
+      <c r="A314" s="53"/>
       <c r="B314" s="7"/>
       <c r="C314" s="8"/>
       <c r="D314" s="9"/>
@@ -13956,7 +13980,7 @@
       <c r="AF314" s="7"/>
     </row>
     <row r="315" spans="1:32" ht="16">
-      <c r="A315" s="51"/>
+      <c r="A315" s="53"/>
       <c r="B315" s="7"/>
       <c r="C315" s="8"/>
       <c r="D315" s="9"/>
@@ -13990,7 +14014,7 @@
       <c r="AF315" s="7"/>
     </row>
     <row r="316" spans="1:32" ht="16">
-      <c r="A316" s="51"/>
+      <c r="A316" s="53"/>
       <c r="B316" s="7"/>
       <c r="C316" s="8"/>
       <c r="D316" s="9"/>
@@ -14024,7 +14048,7 @@
       <c r="AF316" s="7"/>
     </row>
     <row r="317" spans="1:32" ht="16">
-      <c r="A317" s="51"/>
+      <c r="A317" s="53"/>
       <c r="B317" s="7"/>
       <c r="C317" s="8"/>
       <c r="D317" s="9"/>
@@ -14058,7 +14082,7 @@
       <c r="AF317" s="7"/>
     </row>
     <row r="318" spans="1:32" ht="16">
-      <c r="A318" s="51"/>
+      <c r="A318" s="53"/>
       <c r="B318" s="7"/>
       <c r="C318" s="8"/>
       <c r="D318" s="9"/>
@@ -14092,7 +14116,7 @@
       <c r="AF318" s="7"/>
     </row>
     <row r="319" spans="1:32" ht="16">
-      <c r="A319" s="51"/>
+      <c r="A319" s="53"/>
       <c r="B319" s="7"/>
       <c r="C319" s="8"/>
       <c r="D319" s="9"/>
@@ -14126,7 +14150,7 @@
       <c r="AF319" s="7"/>
     </row>
     <row r="320" spans="1:32" ht="16">
-      <c r="A320" s="51"/>
+      <c r="A320" s="53"/>
       <c r="B320" s="7"/>
       <c r="C320" s="8"/>
       <c r="D320" s="9"/>
@@ -14160,7 +14184,7 @@
       <c r="AF320" s="7"/>
     </row>
     <row r="321" spans="1:32" ht="16">
-      <c r="A321" s="51"/>
+      <c r="A321" s="53"/>
       <c r="B321" s="7"/>
       <c r="C321" s="8"/>
       <c r="D321" s="9"/>
@@ -14194,7 +14218,7 @@
       <c r="AF321" s="7"/>
     </row>
     <row r="322" spans="1:32" ht="16">
-      <c r="A322" s="51"/>
+      <c r="A322" s="53"/>
       <c r="B322" s="7"/>
       <c r="C322" s="8"/>
       <c r="D322" s="9"/>
@@ -14228,7 +14252,7 @@
       <c r="AF322" s="7"/>
     </row>
     <row r="323" spans="1:32" ht="16">
-      <c r="A323" s="51"/>
+      <c r="A323" s="53"/>
       <c r="B323" s="7"/>
       <c r="C323" s="8"/>
       <c r="D323" s="9"/>
@@ -14262,7 +14286,7 @@
       <c r="AF323" s="7"/>
     </row>
     <row r="324" spans="1:32" ht="16">
-      <c r="A324" s="51"/>
+      <c r="A324" s="53"/>
       <c r="B324" s="7"/>
       <c r="C324" s="8"/>
       <c r="D324" s="9"/>
@@ -14296,7 +14320,7 @@
       <c r="AF324" s="7"/>
     </row>
     <row r="325" spans="1:32" ht="16">
-      <c r="A325" s="51"/>
+      <c r="A325" s="53"/>
       <c r="B325" s="7"/>
       <c r="C325" s="8"/>
       <c r="D325" s="9"/>
@@ -14330,7 +14354,7 @@
       <c r="AF325" s="7"/>
     </row>
     <row r="326" spans="1:32" ht="16">
-      <c r="A326" s="51"/>
+      <c r="A326" s="53"/>
       <c r="B326" s="7"/>
       <c r="C326" s="8"/>
       <c r="D326" s="9"/>
@@ -14364,7 +14388,7 @@
       <c r="AF326" s="7"/>
     </row>
     <row r="327" spans="1:32" ht="16">
-      <c r="A327" s="51"/>
+      <c r="A327" s="53"/>
       <c r="B327" s="7"/>
       <c r="C327" s="8"/>
       <c r="D327" s="9"/>
@@ -14398,7 +14422,7 @@
       <c r="AF327" s="7"/>
     </row>
     <row r="328" spans="1:32" ht="16">
-      <c r="A328" s="51"/>
+      <c r="A328" s="53"/>
       <c r="B328" s="7"/>
       <c r="C328" s="8"/>
       <c r="D328" s="9"/>
@@ -14432,7 +14456,7 @@
       <c r="AF328" s="7"/>
     </row>
     <row r="329" spans="1:32" ht="16">
-      <c r="A329" s="51"/>
+      <c r="A329" s="53"/>
       <c r="B329" s="7"/>
       <c r="C329" s="8"/>
       <c r="D329" s="9"/>
@@ -14466,7 +14490,7 @@
       <c r="AF329" s="7"/>
     </row>
     <row r="330" spans="1:32" ht="16">
-      <c r="A330" s="51"/>
+      <c r="A330" s="53"/>
       <c r="B330" s="7"/>
       <c r="C330" s="8"/>
       <c r="D330" s="9"/>
@@ -14500,7 +14524,7 @@
       <c r="AF330" s="7"/>
     </row>
     <row r="331" spans="1:32" ht="16">
-      <c r="A331" s="51"/>
+      <c r="A331" s="53"/>
       <c r="B331" s="7"/>
       <c r="C331" s="8"/>
       <c r="D331" s="9"/>
@@ -14534,7 +14558,7 @@
       <c r="AF331" s="7"/>
     </row>
     <row r="332" spans="1:32" ht="16">
-      <c r="A332" s="51"/>
+      <c r="A332" s="53"/>
       <c r="B332" s="7"/>
       <c r="C332" s="8"/>
       <c r="D332" s="9"/>
@@ -14568,7 +14592,7 @@
       <c r="AF332" s="7"/>
     </row>
     <row r="333" spans="1:32" ht="16">
-      <c r="A333" s="51"/>
+      <c r="A333" s="53"/>
       <c r="B333" s="7"/>
       <c r="C333" s="8"/>
       <c r="D333" s="9"/>
@@ -14602,7 +14626,7 @@
       <c r="AF333" s="7"/>
     </row>
     <row r="334" spans="1:32" ht="16">
-      <c r="A334" s="51"/>
+      <c r="A334" s="53"/>
       <c r="B334" s="7"/>
       <c r="C334" s="8"/>
       <c r="D334" s="9"/>
@@ -14636,7 +14660,7 @@
       <c r="AF334" s="7"/>
     </row>
     <row r="335" spans="1:32" ht="16">
-      <c r="A335" s="51"/>
+      <c r="A335" s="53"/>
       <c r="B335" s="7"/>
       <c r="C335" s="8"/>
       <c r="D335" s="9"/>
@@ -14670,7 +14694,7 @@
       <c r="AF335" s="7"/>
     </row>
     <row r="336" spans="1:32" ht="16">
-      <c r="A336" s="51"/>
+      <c r="A336" s="53"/>
       <c r="B336" s="7"/>
       <c r="C336" s="8"/>
       <c r="D336" s="9"/>
@@ -14704,7 +14728,7 @@
       <c r="AF336" s="7"/>
     </row>
     <row r="337" spans="1:32" ht="16">
-      <c r="A337" s="51"/>
+      <c r="A337" s="53"/>
       <c r="B337" s="7"/>
       <c r="C337" s="8"/>
       <c r="D337" s="9"/>
@@ -14738,7 +14762,7 @@
       <c r="AF337" s="7"/>
     </row>
     <row r="338" spans="1:32" ht="16">
-      <c r="A338" s="51"/>
+      <c r="A338" s="53"/>
       <c r="B338" s="7"/>
       <c r="C338" s="8"/>
       <c r="D338" s="9"/>
@@ -14772,7 +14796,7 @@
       <c r="AF338" s="7"/>
     </row>
     <row r="339" spans="1:32" ht="16">
-      <c r="A339" s="51"/>
+      <c r="A339" s="53"/>
       <c r="B339" s="7"/>
       <c r="C339" s="8"/>
       <c r="D339" s="9"/>
@@ -14806,7 +14830,7 @@
       <c r="AF339" s="7"/>
     </row>
     <row r="340" spans="1:32" ht="16">
-      <c r="A340" s="51"/>
+      <c r="A340" s="53"/>
       <c r="B340" s="7"/>
       <c r="C340" s="8"/>
       <c r="D340" s="9"/>
@@ -14840,7 +14864,7 @@
       <c r="AF340" s="7"/>
     </row>
     <row r="341" spans="1:32" ht="16">
-      <c r="A341" s="51"/>
+      <c r="A341" s="53"/>
       <c r="B341" s="7"/>
       <c r="C341" s="8"/>
       <c r="D341" s="9"/>
@@ -14874,7 +14898,7 @@
       <c r="AF341" s="7"/>
     </row>
     <row r="342" spans="1:32" ht="16">
-      <c r="A342" s="51"/>
+      <c r="A342" s="53"/>
       <c r="B342" s="7"/>
       <c r="C342" s="8"/>
       <c r="D342" s="9"/>
@@ -14908,7 +14932,7 @@
       <c r="AF342" s="7"/>
     </row>
     <row r="343" spans="1:32" ht="16">
-      <c r="A343" s="51"/>
+      <c r="A343" s="53"/>
       <c r="B343" s="7"/>
       <c r="C343" s="8"/>
       <c r="D343" s="9"/>
@@ -14942,7 +14966,7 @@
       <c r="AF343" s="7"/>
     </row>
     <row r="344" spans="1:32" ht="16">
-      <c r="A344" s="51"/>
+      <c r="A344" s="53"/>
       <c r="B344" s="7"/>
       <c r="C344" s="8"/>
       <c r="D344" s="9"/>
@@ -14976,7 +15000,7 @@
       <c r="AF344" s="7"/>
     </row>
     <row r="345" spans="1:32" ht="16">
-      <c r="A345" s="51"/>
+      <c r="A345" s="53"/>
       <c r="B345" s="7"/>
       <c r="C345" s="8"/>
       <c r="D345" s="9"/>
@@ -15010,7 +15034,7 @@
       <c r="AF345" s="7"/>
     </row>
     <row r="346" spans="1:32" ht="16">
-      <c r="A346" s="51"/>
+      <c r="A346" s="53"/>
       <c r="B346" s="7"/>
       <c r="C346" s="8"/>
       <c r="D346" s="9"/>
@@ -15044,7 +15068,7 @@
       <c r="AF346" s="7"/>
     </row>
     <row r="347" spans="1:32" ht="16">
-      <c r="A347" s="51"/>
+      <c r="A347" s="53"/>
       <c r="B347" s="7"/>
       <c r="C347" s="8"/>
       <c r="D347" s="9"/>
@@ -15078,7 +15102,7 @@
       <c r="AF347" s="7"/>
     </row>
     <row r="348" spans="1:32" ht="16">
-      <c r="A348" s="51"/>
+      <c r="A348" s="53"/>
       <c r="B348" s="7"/>
       <c r="C348" s="8"/>
       <c r="D348" s="9"/>
@@ -15112,7 +15136,7 @@
       <c r="AF348" s="7"/>
     </row>
     <row r="349" spans="1:32" ht="16">
-      <c r="A349" s="51"/>
+      <c r="A349" s="53"/>
       <c r="B349" s="7"/>
       <c r="C349" s="8"/>
       <c r="D349" s="9"/>
@@ -15146,7 +15170,7 @@
       <c r="AF349" s="7"/>
     </row>
     <row r="350" spans="1:32" ht="16">
-      <c r="A350" s="51"/>
+      <c r="A350" s="53"/>
       <c r="B350" s="7"/>
       <c r="C350" s="8"/>
       <c r="D350" s="9"/>
@@ -15180,7 +15204,7 @@
       <c r="AF350" s="7"/>
     </row>
     <row r="351" spans="1:32" ht="16">
-      <c r="A351" s="51"/>
+      <c r="A351" s="53"/>
       <c r="B351" s="7"/>
       <c r="C351" s="8"/>
       <c r="D351" s="9"/>
@@ -15214,7 +15238,7 @@
       <c r="AF351" s="7"/>
     </row>
     <row r="352" spans="1:32" ht="16">
-      <c r="A352" s="51"/>
+      <c r="A352" s="53"/>
       <c r="B352" s="7"/>
       <c r="C352" s="8"/>
       <c r="D352" s="9"/>
@@ -15248,7 +15272,7 @@
       <c r="AF352" s="7"/>
     </row>
     <row r="353" spans="1:32" ht="16">
-      <c r="A353" s="51"/>
+      <c r="A353" s="53"/>
       <c r="B353" s="7"/>
       <c r="C353" s="8"/>
       <c r="D353" s="9"/>
@@ -15282,7 +15306,7 @@
       <c r="AF353" s="7"/>
     </row>
     <row r="354" spans="1:32" ht="16">
-      <c r="A354" s="51"/>
+      <c r="A354" s="53"/>
       <c r="B354" s="7"/>
       <c r="C354" s="8"/>
       <c r="D354" s="9"/>
@@ -15316,7 +15340,7 @@
       <c r="AF354" s="7"/>
     </row>
     <row r="355" spans="1:32" ht="16">
-      <c r="A355" s="51"/>
+      <c r="A355" s="53"/>
       <c r="B355" s="7"/>
       <c r="C355" s="8"/>
       <c r="D355" s="9"/>
@@ -15350,7 +15374,7 @@
       <c r="AF355" s="7"/>
     </row>
     <row r="356" spans="1:32" ht="16">
-      <c r="A356" s="51"/>
+      <c r="A356" s="53"/>
       <c r="B356" s="7"/>
       <c r="C356" s="8"/>
       <c r="D356" s="9"/>
@@ -15384,7 +15408,7 @@
       <c r="AF356" s="7"/>
     </row>
     <row r="357" spans="1:32" ht="16">
-      <c r="A357" s="51"/>
+      <c r="A357" s="53"/>
       <c r="B357" s="7"/>
       <c r="C357" s="8"/>
       <c r="D357" s="9"/>
@@ -15418,7 +15442,7 @@
       <c r="AF357" s="7"/>
     </row>
     <row r="358" spans="1:32" ht="16">
-      <c r="A358" s="51"/>
+      <c r="A358" s="53"/>
       <c r="B358" s="7"/>
       <c r="C358" s="8"/>
       <c r="D358" s="9"/>
@@ -15452,7 +15476,7 @@
       <c r="AF358" s="7"/>
     </row>
     <row r="359" spans="1:32" ht="16">
-      <c r="A359" s="51"/>
+      <c r="A359" s="53"/>
       <c r="B359" s="7"/>
       <c r="C359" s="8"/>
       <c r="D359" s="9"/>
@@ -15486,7 +15510,7 @@
       <c r="AF359" s="7"/>
     </row>
     <row r="360" spans="1:32" ht="16">
-      <c r="A360" s="51"/>
+      <c r="A360" s="53"/>
       <c r="B360" s="7"/>
       <c r="C360" s="8"/>
       <c r="D360" s="9"/>
@@ -15520,7 +15544,7 @@
       <c r="AF360" s="7"/>
     </row>
     <row r="361" spans="1:32" ht="16">
-      <c r="A361" s="51"/>
+      <c r="A361" s="53"/>
       <c r="B361" s="7"/>
       <c r="C361" s="8"/>
       <c r="D361" s="9"/>
@@ -15554,7 +15578,7 @@
       <c r="AF361" s="7"/>
     </row>
     <row r="362" spans="1:32" ht="16">
-      <c r="A362" s="51"/>
+      <c r="A362" s="53"/>
       <c r="B362" s="7"/>
       <c r="C362" s="8"/>
       <c r="D362" s="9"/>
@@ -15588,7 +15612,7 @@
       <c r="AF362" s="7"/>
     </row>
     <row r="363" spans="1:32" ht="16">
-      <c r="A363" s="51"/>
+      <c r="A363" s="53"/>
       <c r="B363" s="7"/>
       <c r="C363" s="8"/>
       <c r="D363" s="9"/>
@@ -15622,7 +15646,7 @@
       <c r="AF363" s="7"/>
     </row>
     <row r="364" spans="1:32" ht="16">
-      <c r="A364" s="51"/>
+      <c r="A364" s="53"/>
       <c r="B364" s="7"/>
       <c r="C364" s="8"/>
       <c r="D364" s="9"/>
@@ -15656,7 +15680,7 @@
       <c r="AF364" s="7"/>
     </row>
     <row r="365" spans="1:32" ht="16">
-      <c r="A365" s="51"/>
+      <c r="A365" s="53"/>
       <c r="B365" s="7"/>
       <c r="C365" s="8"/>
       <c r="D365" s="9"/>
@@ -15690,7 +15714,7 @@
       <c r="AF365" s="7"/>
     </row>
     <row r="366" spans="1:32" ht="16">
-      <c r="A366" s="51"/>
+      <c r="A366" s="53"/>
       <c r="B366" s="7"/>
       <c r="C366" s="8"/>
       <c r="D366" s="9"/>
@@ -15724,7 +15748,7 @@
       <c r="AF366" s="7"/>
     </row>
     <row r="367" spans="1:32" ht="16">
-      <c r="A367" s="51"/>
+      <c r="A367" s="53"/>
       <c r="B367" s="7"/>
       <c r="C367" s="8"/>
       <c r="D367" s="9"/>
@@ -15758,7 +15782,7 @@
       <c r="AF367" s="7"/>
     </row>
     <row r="368" spans="1:32" ht="16">
-      <c r="A368" s="51"/>
+      <c r="A368" s="53"/>
       <c r="B368" s="7"/>
       <c r="C368" s="8"/>
       <c r="D368" s="9"/>
@@ -15792,7 +15816,7 @@
       <c r="AF368" s="7"/>
     </row>
     <row r="369" spans="1:32" ht="16">
-      <c r="A369" s="51"/>
+      <c r="A369" s="53"/>
       <c r="B369" s="7"/>
       <c r="C369" s="8"/>
       <c r="D369" s="9"/>
@@ -15826,7 +15850,7 @@
       <c r="AF369" s="7"/>
     </row>
     <row r="370" spans="1:32" ht="16">
-      <c r="A370" s="51"/>
+      <c r="A370" s="53"/>
       <c r="B370" s="7"/>
       <c r="C370" s="8"/>
       <c r="D370" s="9"/>
@@ -15860,7 +15884,7 @@
       <c r="AF370" s="7"/>
     </row>
     <row r="371" spans="1:32" ht="16">
-      <c r="A371" s="51"/>
+      <c r="A371" s="53"/>
       <c r="B371" s="7"/>
       <c r="C371" s="8"/>
       <c r="D371" s="9"/>
@@ -15894,7 +15918,7 @@
       <c r="AF371" s="7"/>
     </row>
     <row r="372" spans="1:32" ht="16">
-      <c r="A372" s="51"/>
+      <c r="A372" s="53"/>
       <c r="B372" s="7"/>
       <c r="C372" s="8"/>
       <c r="D372" s="9"/>
@@ -15928,7 +15952,7 @@
       <c r="AF372" s="7"/>
     </row>
     <row r="373" spans="1:32" ht="16">
-      <c r="A373" s="51"/>
+      <c r="A373" s="53"/>
       <c r="B373" s="7"/>
       <c r="C373" s="8"/>
       <c r="D373" s="9"/>
@@ -15962,7 +15986,7 @@
       <c r="AF373" s="7"/>
     </row>
     <row r="374" spans="1:32" ht="16">
-      <c r="A374" s="51"/>
+      <c r="A374" s="53"/>
       <c r="B374" s="7"/>
       <c r="C374" s="8"/>
       <c r="D374" s="9"/>
@@ -15996,7 +16020,7 @@
       <c r="AF374" s="7"/>
     </row>
     <row r="375" spans="1:32" ht="16">
-      <c r="A375" s="51"/>
+      <c r="A375" s="53"/>
       <c r="B375" s="7"/>
       <c r="C375" s="8"/>
       <c r="D375" s="9"/>
@@ -16030,7 +16054,7 @@
       <c r="AF375" s="7"/>
     </row>
     <row r="376" spans="1:32" ht="16">
-      <c r="A376" s="51"/>
+      <c r="A376" s="53"/>
       <c r="B376" s="7"/>
       <c r="C376" s="8"/>
       <c r="D376" s="9"/>
@@ -16064,7 +16088,7 @@
       <c r="AF376" s="7"/>
     </row>
     <row r="377" spans="1:32" ht="16">
-      <c r="A377" s="51"/>
+      <c r="A377" s="53"/>
       <c r="B377" s="7"/>
       <c r="C377" s="8"/>
       <c r="D377" s="9"/>
@@ -16098,7 +16122,7 @@
       <c r="AF377" s="7"/>
     </row>
     <row r="378" spans="1:32" ht="16">
-      <c r="A378" s="51"/>
+      <c r="A378" s="53"/>
       <c r="B378" s="7"/>
       <c r="C378" s="8"/>
       <c r="D378" s="9"/>
@@ -16132,7 +16156,7 @@
       <c r="AF378" s="7"/>
     </row>
     <row r="379" spans="1:32" ht="16">
-      <c r="A379" s="51"/>
+      <c r="A379" s="53"/>
       <c r="B379" s="7"/>
       <c r="C379" s="8"/>
       <c r="D379" s="9"/>
@@ -16166,7 +16190,7 @@
       <c r="AF379" s="7"/>
     </row>
     <row r="380" spans="1:32" ht="16">
-      <c r="A380" s="51"/>
+      <c r="A380" s="53"/>
       <c r="B380" s="7"/>
       <c r="C380" s="8"/>
       <c r="D380" s="9"/>
@@ -16200,7 +16224,7 @@
       <c r="AF380" s="7"/>
     </row>
     <row r="381" spans="1:32" ht="16">
-      <c r="A381" s="51"/>
+      <c r="A381" s="53"/>
       <c r="B381" s="7"/>
       <c r="C381" s="8"/>
       <c r="D381" s="9"/>
@@ -16234,7 +16258,7 @@
       <c r="AF381" s="7"/>
     </row>
     <row r="382" spans="1:32" ht="16">
-      <c r="A382" s="51"/>
+      <c r="A382" s="53"/>
       <c r="B382" s="7"/>
       <c r="C382" s="8"/>
       <c r="D382" s="9"/>
@@ -16268,7 +16292,7 @@
       <c r="AF382" s="7"/>
     </row>
     <row r="383" spans="1:32" ht="16">
-      <c r="A383" s="51"/>
+      <c r="A383" s="53"/>
       <c r="B383" s="7"/>
       <c r="C383" s="8"/>
       <c r="D383" s="9"/>
@@ -16302,7 +16326,7 @@
       <c r="AF383" s="7"/>
     </row>
     <row r="384" spans="1:32" ht="16">
-      <c r="A384" s="51"/>
+      <c r="A384" s="53"/>
       <c r="B384" s="7"/>
       <c r="C384" s="8"/>
       <c r="D384" s="9"/>
@@ -16336,7 +16360,7 @@
       <c r="AF384" s="7"/>
     </row>
     <row r="385" spans="1:32" ht="16">
-      <c r="A385" s="51"/>
+      <c r="A385" s="53"/>
       <c r="B385" s="7"/>
       <c r="C385" s="8"/>
       <c r="D385" s="9"/>
@@ -16370,7 +16394,7 @@
       <c r="AF385" s="7"/>
     </row>
     <row r="386" spans="1:32" ht="16">
-      <c r="A386" s="51"/>
+      <c r="A386" s="53"/>
       <c r="B386" s="7"/>
       <c r="C386" s="8"/>
       <c r="D386" s="9"/>
@@ -16404,7 +16428,7 @@
       <c r="AF386" s="7"/>
     </row>
     <row r="387" spans="1:32" ht="16">
-      <c r="A387" s="51"/>
+      <c r="A387" s="53"/>
       <c r="B387" s="7"/>
       <c r="C387" s="8"/>
       <c r="D387" s="9"/>
@@ -16438,7 +16462,7 @@
       <c r="AF387" s="7"/>
     </row>
     <row r="388" spans="1:32" ht="16">
-      <c r="A388" s="51"/>
+      <c r="A388" s="53"/>
       <c r="B388" s="7"/>
       <c r="C388" s="8"/>
       <c r="D388" s="9"/>
@@ -16472,7 +16496,7 @@
       <c r="AF388" s="7"/>
     </row>
     <row r="389" spans="1:32" ht="16">
-      <c r="A389" s="51"/>
+      <c r="A389" s="53"/>
       <c r="B389" s="7"/>
       <c r="C389" s="8"/>
       <c r="D389" s="9"/>
@@ -16506,7 +16530,7 @@
       <c r="AF389" s="7"/>
     </row>
     <row r="390" spans="1:32" ht="16">
-      <c r="A390" s="51"/>
+      <c r="A390" s="53"/>
       <c r="B390" s="7"/>
       <c r="C390" s="8"/>
       <c r="D390" s="9"/>
@@ -16540,7 +16564,7 @@
       <c r="AF390" s="7"/>
     </row>
     <row r="391" spans="1:32" ht="16">
-      <c r="A391" s="51"/>
+      <c r="A391" s="53"/>
       <c r="B391" s="7"/>
       <c r="C391" s="8"/>
       <c r="D391" s="9"/>
@@ -16574,7 +16598,7 @@
       <c r="AF391" s="7"/>
     </row>
     <row r="392" spans="1:32" ht="16">
-      <c r="A392" s="51"/>
+      <c r="A392" s="53"/>
       <c r="B392" s="7"/>
       <c r="C392" s="8"/>
       <c r="D392" s="9"/>
@@ -16608,7 +16632,7 @@
       <c r="AF392" s="7"/>
     </row>
     <row r="393" spans="1:32" ht="16">
-      <c r="A393" s="51"/>
+      <c r="A393" s="53"/>
       <c r="B393" s="7"/>
       <c r="C393" s="8"/>
       <c r="D393" s="9"/>
@@ -16642,7 +16666,7 @@
       <c r="AF393" s="7"/>
     </row>
     <row r="394" spans="1:32" ht="16">
-      <c r="A394" s="51"/>
+      <c r="A394" s="53"/>
       <c r="B394" s="7"/>
       <c r="C394" s="8"/>
       <c r="D394" s="9"/>
@@ -16676,7 +16700,7 @@
       <c r="AF394" s="7"/>
     </row>
     <row r="395" spans="1:32" ht="16">
-      <c r="A395" s="51"/>
+      <c r="A395" s="53"/>
       <c r="B395" s="7"/>
       <c r="C395" s="8"/>
       <c r="D395" s="9"/>
@@ -16710,7 +16734,7 @@
       <c r="AF395" s="7"/>
     </row>
     <row r="396" spans="1:32" ht="16">
-      <c r="A396" s="51"/>
+      <c r="A396" s="53"/>
       <c r="B396" s="7"/>
       <c r="C396" s="8"/>
       <c r="D396" s="9"/>
@@ -16744,7 +16768,7 @@
       <c r="AF396" s="7"/>
     </row>
     <row r="397" spans="1:32" ht="16">
-      <c r="A397" s="51"/>
+      <c r="A397" s="53"/>
       <c r="B397" s="7"/>
       <c r="C397" s="8"/>
       <c r="D397" s="9"/>
@@ -16778,7 +16802,7 @@
       <c r="AF397" s="7"/>
     </row>
     <row r="398" spans="1:32" ht="16">
-      <c r="A398" s="51"/>
+      <c r="A398" s="53"/>
       <c r="B398" s="7"/>
       <c r="C398" s="8"/>
       <c r="D398" s="9"/>
@@ -16812,7 +16836,7 @@
       <c r="AF398" s="7"/>
     </row>
     <row r="399" spans="1:32" ht="16">
-      <c r="A399" s="51"/>
+      <c r="A399" s="53"/>
       <c r="B399" s="7"/>
       <c r="C399" s="8"/>
       <c r="D399" s="9"/>
@@ -16846,7 +16870,7 @@
       <c r="AF399" s="7"/>
     </row>
     <row r="400" spans="1:32" ht="16">
-      <c r="A400" s="51"/>
+      <c r="A400" s="53"/>
       <c r="B400" s="7"/>
       <c r="C400" s="8"/>
       <c r="D400" s="9"/>
@@ -16880,7 +16904,7 @@
       <c r="AF400" s="7"/>
     </row>
     <row r="401" spans="1:32" ht="16">
-      <c r="A401" s="51"/>
+      <c r="A401" s="53"/>
       <c r="B401" s="7"/>
       <c r="C401" s="8"/>
       <c r="D401" s="9"/>
@@ -16914,7 +16938,7 @@
       <c r="AF401" s="7"/>
     </row>
     <row r="402" spans="1:32" ht="16">
-      <c r="A402" s="51"/>
+      <c r="A402" s="53"/>
       <c r="B402" s="7"/>
       <c r="C402" s="8"/>
       <c r="D402" s="9"/>
@@ -16948,7 +16972,7 @@
       <c r="AF402" s="7"/>
     </row>
     <row r="403" spans="1:32" ht="16">
-      <c r="A403" s="51"/>
+      <c r="A403" s="53"/>
       <c r="B403" s="7"/>
       <c r="C403" s="8"/>
       <c r="D403" s="9"/>
@@ -16982,7 +17006,7 @@
       <c r="AF403" s="7"/>
     </row>
     <row r="404" spans="1:32" ht="16">
-      <c r="A404" s="51"/>
+      <c r="A404" s="53"/>
       <c r="B404" s="7"/>
       <c r="C404" s="8"/>
       <c r="D404" s="9"/>
@@ -17016,7 +17040,7 @@
       <c r="AF404" s="7"/>
     </row>
     <row r="405" spans="1:32" ht="16">
-      <c r="A405" s="51"/>
+      <c r="A405" s="53"/>
       <c r="B405" s="7"/>
       <c r="C405" s="8"/>
       <c r="D405" s="9"/>
@@ -17050,7 +17074,7 @@
       <c r="AF405" s="7"/>
     </row>
     <row r="406" spans="1:32" ht="16">
-      <c r="A406" s="51"/>
+      <c r="A406" s="53"/>
       <c r="B406" s="7"/>
       <c r="C406" s="8"/>
       <c r="D406" s="9"/>
@@ -17084,7 +17108,7 @@
       <c r="AF406" s="7"/>
     </row>
     <row r="407" spans="1:32" ht="16">
-      <c r="A407" s="51"/>
+      <c r="A407" s="53"/>
       <c r="B407" s="7"/>
       <c r="C407" s="8"/>
       <c r="D407" s="9"/>
@@ -17118,7 +17142,7 @@
       <c r="AF407" s="7"/>
     </row>
     <row r="408" spans="1:32" ht="16">
-      <c r="A408" s="51"/>
+      <c r="A408" s="53"/>
       <c r="B408" s="7"/>
       <c r="C408" s="8"/>
       <c r="D408" s="9"/>
@@ -17152,7 +17176,7 @@
       <c r="AF408" s="7"/>
     </row>
     <row r="409" spans="1:32" ht="16">
-      <c r="A409" s="51"/>
+      <c r="A409" s="53"/>
       <c r="B409" s="7"/>
       <c r="C409" s="8"/>
       <c r="D409" s="9"/>
@@ -17186,7 +17210,7 @@
       <c r="AF409" s="7"/>
     </row>
     <row r="410" spans="1:32" ht="16">
-      <c r="A410" s="51"/>
+      <c r="A410" s="53"/>
       <c r="B410" s="7"/>
       <c r="C410" s="8"/>
       <c r="D410" s="9"/>
@@ -17220,7 +17244,7 @@
       <c r="AF410" s="7"/>
     </row>
     <row r="411" spans="1:32" ht="16">
-      <c r="A411" s="51"/>
+      <c r="A411" s="53"/>
       <c r="B411" s="7"/>
       <c r="C411" s="8"/>
       <c r="D411" s="9"/>
@@ -17254,7 +17278,7 @@
       <c r="AF411" s="7"/>
     </row>
     <row r="412" spans="1:32" ht="16">
-      <c r="A412" s="51"/>
+      <c r="A412" s="53"/>
       <c r="B412" s="7"/>
       <c r="C412" s="8"/>
       <c r="D412" s="9"/>
@@ -17288,7 +17312,7 @@
       <c r="AF412" s="7"/>
     </row>
     <row r="413" spans="1:32" ht="16">
-      <c r="A413" s="51"/>
+      <c r="A413" s="53"/>
       <c r="B413" s="7"/>
       <c r="C413" s="8"/>
       <c r="D413" s="9"/>
@@ -17322,7 +17346,7 @@
       <c r="AF413" s="7"/>
     </row>
     <row r="414" spans="1:32" ht="16">
-      <c r="A414" s="51"/>
+      <c r="A414" s="53"/>
       <c r="B414" s="7"/>
       <c r="C414" s="8"/>
       <c r="D414" s="9"/>
@@ -17356,7 +17380,7 @@
       <c r="AF414" s="7"/>
     </row>
     <row r="415" spans="1:32" ht="16">
-      <c r="A415" s="51"/>
+      <c r="A415" s="53"/>
       <c r="B415" s="7"/>
       <c r="C415" s="8"/>
       <c r="D415" s="9"/>
@@ -17390,7 +17414,7 @@
       <c r="AF415" s="7"/>
     </row>
     <row r="416" spans="1:32" ht="16">
-      <c r="A416" s="51"/>
+      <c r="A416" s="53"/>
       <c r="B416" s="7"/>
       <c r="C416" s="8"/>
       <c r="D416" s="9"/>
@@ -17424,7 +17448,7 @@
       <c r="AF416" s="7"/>
     </row>
     <row r="417" spans="1:32" ht="16">
-      <c r="A417" s="51"/>
+      <c r="A417" s="53"/>
       <c r="B417" s="7"/>
       <c r="C417" s="8"/>
       <c r="D417" s="9"/>
@@ -17458,7 +17482,7 @@
       <c r="AF417" s="7"/>
     </row>
     <row r="418" spans="1:32" ht="16">
-      <c r="A418" s="51"/>
+      <c r="A418" s="53"/>
       <c r="B418" s="7"/>
       <c r="C418" s="8"/>
       <c r="D418" s="9"/>
@@ -17492,7 +17516,7 @@
       <c r="AF418" s="7"/>
     </row>
     <row r="419" spans="1:32" ht="16">
-      <c r="A419" s="51"/>
+      <c r="A419" s="53"/>
       <c r="B419" s="7"/>
       <c r="C419" s="8"/>
       <c r="D419" s="9"/>
@@ -17526,7 +17550,7 @@
       <c r="AF419" s="7"/>
     </row>
     <row r="420" spans="1:32" ht="16">
-      <c r="A420" s="51"/>
+      <c r="A420" s="53"/>
       <c r="B420" s="7"/>
       <c r="C420" s="8"/>
       <c r="D420" s="9"/>
@@ -17560,7 +17584,7 @@
       <c r="AF420" s="7"/>
     </row>
     <row r="421" spans="1:32" ht="16">
-      <c r="A421" s="51"/>
+      <c r="A421" s="53"/>
       <c r="B421" s="7"/>
       <c r="C421" s="8"/>
       <c r="D421" s="9"/>
@@ -17594,7 +17618,7 @@
       <c r="AF421" s="7"/>
     </row>
     <row r="422" spans="1:32" ht="16">
-      <c r="A422" s="51"/>
+      <c r="A422" s="53"/>
       <c r="B422" s="7"/>
       <c r="C422" s="8"/>
       <c r="D422" s="9"/>
@@ -17628,7 +17652,7 @@
       <c r="AF422" s="7"/>
     </row>
     <row r="423" spans="1:32" ht="16">
-      <c r="A423" s="51"/>
+      <c r="A423" s="53"/>
       <c r="B423" s="7"/>
       <c r="C423" s="8"/>
       <c r="D423" s="9"/>
@@ -17662,7 +17686,7 @@
       <c r="AF423" s="7"/>
     </row>
     <row r="424" spans="1:32" ht="16">
-      <c r="A424" s="51"/>
+      <c r="A424" s="53"/>
       <c r="B424" s="7"/>
       <c r="C424" s="8"/>
       <c r="D424" s="9"/>
@@ -17696,7 +17720,7 @@
       <c r="AF424" s="7"/>
     </row>
     <row r="425" spans="1:32" ht="16">
-      <c r="A425" s="51"/>
+      <c r="A425" s="53"/>
       <c r="B425" s="7"/>
       <c r="C425" s="8"/>
       <c r="D425" s="9"/>
@@ -17730,7 +17754,7 @@
       <c r="AF425" s="7"/>
     </row>
     <row r="426" spans="1:32" ht="16">
-      <c r="A426" s="51"/>
+      <c r="A426" s="53"/>
       <c r="B426" s="7"/>
       <c r="C426" s="8"/>
       <c r="D426" s="9"/>
@@ -17764,7 +17788,7 @@
       <c r="AF426" s="7"/>
     </row>
     <row r="427" spans="1:32" ht="16">
-      <c r="A427" s="51"/>
+      <c r="A427" s="53"/>
       <c r="B427" s="7"/>
       <c r="C427" s="8"/>
       <c r="D427" s="9"/>
@@ -17798,7 +17822,7 @@
       <c r="AF427" s="7"/>
     </row>
     <row r="428" spans="1:32" ht="16">
-      <c r="A428" s="51"/>
+      <c r="A428" s="53"/>
       <c r="B428" s="7"/>
       <c r="C428" s="8"/>
       <c r="D428" s="9"/>
@@ -17832,7 +17856,7 @@
       <c r="AF428" s="7"/>
     </row>
     <row r="429" spans="1:32" ht="16">
-      <c r="A429" s="51"/>
+      <c r="A429" s="53"/>
       <c r="B429" s="7"/>
       <c r="C429" s="8"/>
       <c r="D429" s="9"/>
@@ -17866,7 +17890,7 @@
       <c r="AF429" s="7"/>
     </row>
     <row r="430" spans="1:32" ht="16">
-      <c r="A430" s="51"/>
+      <c r="A430" s="53"/>
       <c r="B430" s="7"/>
       <c r="C430" s="8"/>
       <c r="D430" s="9"/>
@@ -17900,7 +17924,7 @@
       <c r="AF430" s="7"/>
     </row>
     <row r="431" spans="1:32" ht="16">
-      <c r="A431" s="51"/>
+      <c r="A431" s="53"/>
       <c r="B431" s="7"/>
       <c r="C431" s="8"/>
       <c r="D431" s="9"/>
@@ -17934,7 +17958,7 @@
       <c r="AF431" s="7"/>
     </row>
     <row r="432" spans="1:32" ht="16">
-      <c r="A432" s="51"/>
+      <c r="A432" s="53"/>
       <c r="B432" s="7"/>
       <c r="C432" s="8"/>
       <c r="D432" s="9"/>
@@ -17968,7 +17992,7 @@
       <c r="AF432" s="7"/>
     </row>
     <row r="433" spans="1:32" ht="16">
-      <c r="A433" s="51"/>
+      <c r="A433" s="53"/>
       <c r="B433" s="7"/>
       <c r="C433" s="8"/>
       <c r="D433" s="9"/>
@@ -18002,7 +18026,7 @@
       <c r="AF433" s="7"/>
     </row>
     <row r="434" spans="1:32" ht="16">
-      <c r="A434" s="51"/>
+      <c r="A434" s="53"/>
       <c r="B434" s="7"/>
       <c r="C434" s="8"/>
       <c r="D434" s="9"/>
@@ -18036,7 +18060,7 @@
       <c r="AF434" s="7"/>
     </row>
     <row r="435" spans="1:32" ht="16">
-      <c r="A435" s="51"/>
+      <c r="A435" s="53"/>
       <c r="B435" s="7"/>
       <c r="C435" s="8"/>
       <c r="D435" s="9"/>
@@ -18070,7 +18094,7 @@
       <c r="AF435" s="7"/>
     </row>
     <row r="436" spans="1:32" ht="16">
-      <c r="A436" s="51"/>
+      <c r="A436" s="53"/>
       <c r="B436" s="7"/>
       <c r="C436" s="8"/>
       <c r="D436" s="9"/>
@@ -18104,7 +18128,7 @@
       <c r="AF436" s="7"/>
     </row>
     <row r="437" spans="1:32" ht="16">
-      <c r="A437" s="51"/>
+      <c r="A437" s="53"/>
       <c r="B437" s="7"/>
       <c r="C437" s="8"/>
       <c r="D437" s="9"/>
@@ -18138,7 +18162,7 @@
       <c r="AF437" s="7"/>
     </row>
     <row r="438" spans="1:32" ht="16">
-      <c r="A438" s="51"/>
+      <c r="A438" s="53"/>
       <c r="B438" s="7"/>
       <c r="C438" s="8"/>
       <c r="D438" s="9"/>
@@ -18172,7 +18196,7 @@
       <c r="AF438" s="7"/>
     </row>
     <row r="439" spans="1:32" ht="16">
-      <c r="A439" s="51"/>
+      <c r="A439" s="53"/>
       <c r="B439" s="7"/>
       <c r="C439" s="8"/>
       <c r="D439" s="9"/>
@@ -18206,7 +18230,7 @@
       <c r="AF439" s="7"/>
     </row>
     <row r="440" spans="1:32" ht="16">
-      <c r="A440" s="51"/>
+      <c r="A440" s="53"/>
       <c r="B440" s="7"/>
       <c r="C440" s="8"/>
       <c r="D440" s="9"/>
@@ -18240,7 +18264,7 @@
       <c r="AF440" s="7"/>
     </row>
     <row r="441" spans="1:32" ht="16">
-      <c r="A441" s="51"/>
+      <c r="A441" s="53"/>
       <c r="B441" s="7"/>
       <c r="C441" s="8"/>
       <c r="D441" s="9"/>
@@ -18274,7 +18298,7 @@
       <c r="AF441" s="7"/>
     </row>
     <row r="442" spans="1:32" ht="16">
-      <c r="A442" s="51"/>
+      <c r="A442" s="53"/>
       <c r="B442" s="7"/>
       <c r="C442" s="8"/>
       <c r="D442" s="9"/>
@@ -18308,7 +18332,7 @@
       <c r="AF442" s="7"/>
     </row>
     <row r="443" spans="1:32" ht="16">
-      <c r="A443" s="51"/>
+      <c r="A443" s="53"/>
       <c r="B443" s="7"/>
       <c r="C443" s="8"/>
       <c r="D443" s="9"/>
@@ -18342,7 +18366,7 @@
       <c r="AF443" s="7"/>
     </row>
     <row r="444" spans="1:32" ht="16">
-      <c r="A444" s="51"/>
+      <c r="A444" s="53"/>
       <c r="B444" s="7"/>
       <c r="C444" s="8"/>
       <c r="D444" s="9"/>
@@ -18376,7 +18400,7 @@
       <c r="AF444" s="7"/>
     </row>
     <row r="445" spans="1:32" ht="16">
-      <c r="A445" s="51"/>
+      <c r="A445" s="53"/>
       <c r="B445" s="7"/>
       <c r="C445" s="8"/>
       <c r="D445" s="9"/>
@@ -18410,7 +18434,7 @@
       <c r="AF445" s="7"/>
     </row>
     <row r="446" spans="1:32" ht="16">
-      <c r="A446" s="51"/>
+      <c r="A446" s="53"/>
       <c r="B446" s="7"/>
       <c r="C446" s="8"/>
       <c r="D446" s="9"/>
@@ -18444,7 +18468,7 @@
       <c r="AF446" s="7"/>
     </row>
     <row r="447" spans="1:32" ht="16">
-      <c r="A447" s="51"/>
+      <c r="A447" s="53"/>
       <c r="B447" s="7"/>
       <c r="C447" s="8"/>
       <c r="D447" s="9"/>
@@ -18478,7 +18502,7 @@
       <c r="AF447" s="7"/>
     </row>
     <row r="448" spans="1:32" ht="16">
-      <c r="A448" s="51"/>
+      <c r="A448" s="53"/>
       <c r="B448" s="7"/>
       <c r="C448" s="8"/>
       <c r="D448" s="9"/>
@@ -18512,7 +18536,7 @@
       <c r="AF448" s="7"/>
     </row>
     <row r="449" spans="1:32" ht="16">
-      <c r="A449" s="51"/>
+      <c r="A449" s="53"/>
       <c r="B449" s="7"/>
       <c r="C449" s="8"/>
       <c r="D449" s="9"/>
@@ -18546,7 +18570,7 @@
       <c r="AF449" s="7"/>
     </row>
     <row r="450" spans="1:32" ht="16">
-      <c r="A450" s="51"/>
+      <c r="A450" s="53"/>
       <c r="B450" s="7"/>
       <c r="C450" s="8"/>
       <c r="D450" s="9"/>
@@ -18580,7 +18604,7 @@
       <c r="AF450" s="7"/>
     </row>
     <row r="451" spans="1:32" ht="16">
-      <c r="A451" s="51"/>
+      <c r="A451" s="53"/>
       <c r="B451" s="7"/>
       <c r="C451" s="8"/>
       <c r="D451" s="9"/>
@@ -18614,7 +18638,7 @@
       <c r="AF451" s="7"/>
     </row>
     <row r="452" spans="1:32" ht="16">
-      <c r="A452" s="51"/>
+      <c r="A452" s="53"/>
       <c r="B452" s="7"/>
       <c r="C452" s="8"/>
       <c r="D452" s="9"/>
@@ -18648,7 +18672,7 @@
       <c r="AF452" s="7"/>
     </row>
     <row r="453" spans="1:32" ht="16">
-      <c r="A453" s="51"/>
+      <c r="A453" s="53"/>
       <c r="B453" s="7"/>
       <c r="C453" s="8"/>
       <c r="D453" s="9"/>
@@ -18682,7 +18706,7 @@
       <c r="AF453" s="7"/>
     </row>
     <row r="454" spans="1:32" ht="16">
-      <c r="A454" s="51"/>
+      <c r="A454" s="53"/>
       <c r="B454" s="7"/>
       <c r="C454" s="8"/>
       <c r="D454" s="9"/>
@@ -18716,7 +18740,7 @@
       <c r="AF454" s="7"/>
     </row>
     <row r="455" spans="1:32" ht="16">
-      <c r="A455" s="51"/>
+      <c r="A455" s="53"/>
       <c r="B455" s="7"/>
       <c r="C455" s="8"/>
       <c r="D455" s="9"/>
@@ -18750,7 +18774,7 @@
       <c r="AF455" s="7"/>
     </row>
     <row r="456" spans="1:32" ht="16">
-      <c r="A456" s="51"/>
+      <c r="A456" s="53"/>
       <c r="B456" s="7"/>
       <c r="C456" s="8"/>
       <c r="D456" s="9"/>
@@ -18784,7 +18808,7 @@
       <c r="AF456" s="7"/>
     </row>
     <row r="457" spans="1:32" ht="16">
-      <c r="A457" s="51"/>
+      <c r="A457" s="53"/>
       <c r="B457" s="7"/>
       <c r="C457" s="8"/>
       <c r="D457" s="9"/>
@@ -18818,7 +18842,7 @@
       <c r="AF457" s="7"/>
     </row>
     <row r="458" spans="1:32" ht="16">
-      <c r="A458" s="51"/>
+      <c r="A458" s="53"/>
       <c r="B458" s="7"/>
       <c r="C458" s="8"/>
       <c r="D458" s="9"/>
@@ -18852,7 +18876,7 @@
       <c r="AF458" s="7"/>
     </row>
     <row r="459" spans="1:32" ht="16">
-      <c r="A459" s="51"/>
+      <c r="A459" s="53"/>
       <c r="B459" s="7"/>
       <c r="C459" s="8"/>
       <c r="D459" s="9"/>
@@ -18886,7 +18910,7 @@
       <c r="AF459" s="7"/>
     </row>
     <row r="460" spans="1:32" ht="16">
-      <c r="A460" s="51"/>
+      <c r="A460" s="53"/>
       <c r="B460" s="7"/>
       <c r="C460" s="8"/>
       <c r="D460" s="9"/>
@@ -18920,7 +18944,7 @@
       <c r="AF460" s="7"/>
     </row>
     <row r="461" spans="1:32" ht="16">
-      <c r="A461" s="51"/>
+      <c r="A461" s="53"/>
       <c r="B461" s="7"/>
       <c r="C461" s="8"/>
       <c r="D461" s="9"/>
@@ -18954,7 +18978,7 @@
       <c r="AF461" s="7"/>
     </row>
     <row r="462" spans="1:32" ht="16">
-      <c r="A462" s="51"/>
+      <c r="A462" s="53"/>
       <c r="B462" s="7"/>
       <c r="C462" s="8"/>
       <c r="D462" s="9"/>
@@ -18988,7 +19012,7 @@
       <c r="AF462" s="7"/>
     </row>
     <row r="463" spans="1:32" ht="16">
-      <c r="A463" s="51"/>
+      <c r="A463" s="53"/>
       <c r="B463" s="7"/>
       <c r="C463" s="8"/>
       <c r="D463" s="9"/>
@@ -19022,7 +19046,7 @@
       <c r="AF463" s="7"/>
     </row>
     <row r="464" spans="1:32" ht="16">
-      <c r="A464" s="51"/>
+      <c r="A464" s="53"/>
       <c r="B464" s="7"/>
       <c r="C464" s="8"/>
       <c r="D464" s="9"/>
@@ -19056,7 +19080,7 @@
       <c r="AF464" s="7"/>
     </row>
     <row r="465" spans="1:32" ht="16">
-      <c r="A465" s="51"/>
+      <c r="A465" s="53"/>
       <c r="B465" s="7"/>
       <c r="C465" s="8"/>
       <c r="D465" s="9"/>
@@ -19090,7 +19114,7 @@
       <c r="AF465" s="7"/>
     </row>
     <row r="466" spans="1:32" ht="16">
-      <c r="A466" s="51"/>
+      <c r="A466" s="53"/>
       <c r="B466" s="7"/>
       <c r="C466" s="8"/>
       <c r="D466" s="9"/>
@@ -19124,7 +19148,7 @@
       <c r="AF466" s="7"/>
     </row>
     <row r="467" spans="1:32" ht="16">
-      <c r="A467" s="51"/>
+      <c r="A467" s="53"/>
       <c r="B467" s="7"/>
       <c r="C467" s="8"/>
       <c r="D467" s="9"/>
@@ -19158,7 +19182,7 @@
       <c r="AF467" s="7"/>
     </row>
     <row r="468" spans="1:32" ht="16">
-      <c r="A468" s="51"/>
+      <c r="A468" s="53"/>
       <c r="B468" s="7"/>
       <c r="C468" s="8"/>
       <c r="D468" s="9"/>
@@ -19192,7 +19216,7 @@
       <c r="AF468" s="7"/>
     </row>
     <row r="469" spans="1:32" ht="16">
-      <c r="A469" s="51"/>
+      <c r="A469" s="53"/>
       <c r="B469" s="7"/>
       <c r="C469" s="8"/>
       <c r="D469" s="9"/>
@@ -19226,7 +19250,7 @@
       <c r="AF469" s="7"/>
     </row>
     <row r="470" spans="1:32" ht="16">
-      <c r="A470" s="51"/>
+      <c r="A470" s="53"/>
       <c r="B470" s="7"/>
       <c r="C470" s="8"/>
       <c r="D470" s="9"/>
@@ -19260,7 +19284,7 @@
       <c r="AF470" s="7"/>
     </row>
     <row r="471" spans="1:32" ht="16">
-      <c r="A471" s="51"/>
+      <c r="A471" s="53"/>
       <c r="B471" s="7"/>
       <c r="C471" s="8"/>
       <c r="D471" s="9"/>
@@ -19294,7 +19318,7 @@
       <c r="AF471" s="7"/>
     </row>
     <row r="472" spans="1:32" ht="16">
-      <c r="A472" s="51"/>
+      <c r="A472" s="53"/>
       <c r="B472" s="7"/>
       <c r="C472" s="8"/>
       <c r="D472" s="9"/>
@@ -19328,7 +19352,7 @@
       <c r="AF472" s="7"/>
     </row>
     <row r="473" spans="1:32" ht="16">
-      <c r="A473" s="51"/>
+      <c r="A473" s="53"/>
       <c r="B473" s="7"/>
       <c r="C473" s="8"/>
       <c r="D473" s="9"/>
@@ -19362,7 +19386,7 @@
       <c r="AF473" s="7"/>
     </row>
     <row r="474" spans="1:32" ht="16">
-      <c r="A474" s="51"/>
+      <c r="A474" s="53"/>
       <c r="B474" s="7"/>
       <c r="C474" s="8"/>
       <c r="D474" s="9"/>
@@ -19396,7 +19420,7 @@
       <c r="AF474" s="7"/>
     </row>
     <row r="475" spans="1:32" ht="16">
-      <c r="A475" s="51"/>
+      <c r="A475" s="53"/>
       <c r="B475" s="7"/>
       <c r="C475" s="8"/>
       <c r="D475" s="9"/>
@@ -19430,7 +19454,7 @@
       <c r="AF475" s="7"/>
     </row>
     <row r="476" spans="1:32" ht="16">
-      <c r="A476" s="51"/>
+      <c r="A476" s="53"/>
       <c r="B476" s="7"/>
       <c r="C476" s="8"/>
       <c r="D476" s="9"/>
@@ -19464,7 +19488,7 @@
       <c r="AF476" s="7"/>
     </row>
     <row r="477" spans="1:32" ht="16">
-      <c r="A477" s="51"/>
+      <c r="A477" s="53"/>
       <c r="B477" s="7"/>
       <c r="C477" s="8"/>
       <c r="D477" s="9"/>
@@ -19498,7 +19522,7 @@
       <c r="AF477" s="7"/>
     </row>
     <row r="478" spans="1:32" ht="16">
-      <c r="A478" s="51"/>
+      <c r="A478" s="53"/>
       <c r="B478" s="7"/>
       <c r="C478" s="8"/>
       <c r="D478" s="9"/>
@@ -19532,7 +19556,7 @@
       <c r="AF478" s="7"/>
     </row>
     <row r="479" spans="1:32" ht="16">
-      <c r="A479" s="51"/>
+      <c r="A479" s="53"/>
       <c r="B479" s="7"/>
       <c r="C479" s="8"/>
       <c r="D479" s="9"/>
@@ -19566,7 +19590,7 @@
       <c r="AF479" s="7"/>
     </row>
     <row r="480" spans="1:32" ht="16">
-      <c r="A480" s="51"/>
+      <c r="A480" s="53"/>
       <c r="B480" s="7"/>
       <c r="C480" s="8"/>
       <c r="D480" s="9"/>
@@ -19600,7 +19624,7 @@
       <c r="AF480" s="7"/>
     </row>
     <row r="481" spans="1:32" ht="16">
-      <c r="A481" s="51"/>
+      <c r="A481" s="53"/>
       <c r="B481" s="7"/>
       <c r="C481" s="8"/>
       <c r="D481" s="9"/>
@@ -19634,7 +19658,7 @@
       <c r="AF481" s="7"/>
     </row>
     <row r="482" spans="1:32" ht="16">
-      <c r="A482" s="51"/>
+      <c r="A482" s="53"/>
       <c r="B482" s="7"/>
       <c r="C482" s="8"/>
       <c r="D482" s="9"/>
@@ -19668,7 +19692,7 @@
       <c r="AF482" s="7"/>
     </row>
     <row r="483" spans="1:32" ht="16">
-      <c r="A483" s="51"/>
+      <c r="A483" s="53"/>
       <c r="B483" s="7"/>
       <c r="C483" s="8"/>
       <c r="D483" s="9"/>
@@ -19702,7 +19726,7 @@
       <c r="AF483" s="7"/>
     </row>
     <row r="484" spans="1:32" ht="16">
-      <c r="A484" s="51"/>
+      <c r="A484" s="53"/>
       <c r="B484" s="7"/>
       <c r="C484" s="8"/>
       <c r="D484" s="9"/>
@@ -19736,7 +19760,7 @@
       <c r="AF484" s="7"/>
     </row>
     <row r="485" spans="1:32" ht="16">
-      <c r="A485" s="51"/>
+      <c r="A485" s="53"/>
       <c r="B485" s="7"/>
       <c r="C485" s="8"/>
       <c r="D485" s="9"/>
@@ -19770,7 +19794,7 @@
       <c r="AF485" s="7"/>
     </row>
     <row r="486" spans="1:32" ht="16">
-      <c r="A486" s="51"/>
+      <c r="A486" s="53"/>
       <c r="B486" s="7"/>
       <c r="C486" s="8"/>
       <c r="D486" s="9"/>
@@ -19804,7 +19828,7 @@
       <c r="AF486" s="7"/>
     </row>
     <row r="487" spans="1:32" ht="16">
-      <c r="A487" s="51"/>
+      <c r="A487" s="53"/>
       <c r="B487" s="7"/>
       <c r="C487" s="8"/>
       <c r="D487" s="9"/>
@@ -19838,7 +19862,7 @@
       <c r="AF487" s="7"/>
     </row>
     <row r="488" spans="1:32" ht="16">
-      <c r="A488" s="51"/>
+      <c r="A488" s="53"/>
       <c r="B488" s="7"/>
       <c r="C488" s="8"/>
       <c r="D488" s="9"/>
@@ -19872,7 +19896,7 @@
       <c r="AF488" s="7"/>
     </row>
     <row r="489" spans="1:32" ht="16">
-      <c r="A489" s="51"/>
+      <c r="A489" s="53"/>
       <c r="B489" s="7"/>
       <c r="C489" s="8"/>
       <c r="D489" s="9"/>
@@ -19906,7 +19930,7 @@
       <c r="AF489" s="7"/>
     </row>
     <row r="490" spans="1:32" ht="16">
-      <c r="A490" s="51"/>
+      <c r="A490" s="53"/>
       <c r="B490" s="7"/>
       <c r="C490" s="8"/>
       <c r="D490" s="9"/>
@@ -19940,7 +19964,7 @@
       <c r="AF490" s="7"/>
     </row>
     <row r="491" spans="1:32" ht="16">
-      <c r="A491" s="51"/>
+      <c r="A491" s="53"/>
       <c r="B491" s="7"/>
       <c r="C491" s="8"/>
       <c r="D491" s="9"/>
@@ -19974,7 +19998,7 @@
       <c r="AF491" s="7"/>
     </row>
     <row r="492" spans="1:32" ht="16">
-      <c r="A492" s="51"/>
+      <c r="A492" s="53"/>
       <c r="B492" s="7"/>
       <c r="C492" s="8"/>
       <c r="D492" s="9"/>
@@ -20008,7 +20032,7 @@
       <c r="AF492" s="7"/>
     </row>
     <row r="493" spans="1:32" ht="16">
-      <c r="A493" s="51"/>
+      <c r="A493" s="53"/>
       <c r="B493" s="7"/>
       <c r="C493" s="8"/>
       <c r="D493" s="9"/>
@@ -20042,7 +20066,7 @@
       <c r="AF493" s="7"/>
     </row>
     <row r="494" spans="1:32" ht="16">
-      <c r="A494" s="51"/>
+      <c r="A494" s="53"/>
       <c r="B494" s="7"/>
       <c r="C494" s="8"/>
       <c r="D494" s="9"/>
@@ -20076,7 +20100,7 @@
       <c r="AF494" s="7"/>
     </row>
     <row r="495" spans="1:32" ht="16">
-      <c r="A495" s="51"/>
+      <c r="A495" s="53"/>
       <c r="B495" s="7"/>
       <c r="C495" s="8"/>
       <c r="D495" s="9"/>
@@ -20110,7 +20134,7 @@
       <c r="AF495" s="7"/>
     </row>
     <row r="496" spans="1:32" ht="16">
-      <c r="A496" s="51"/>
+      <c r="A496" s="53"/>
       <c r="B496" s="7"/>
       <c r="C496" s="8"/>
       <c r="D496" s="9"/>
@@ -20144,7 +20168,7 @@
       <c r="AF496" s="7"/>
     </row>
     <row r="497" spans="1:32" ht="16">
-      <c r="A497" s="51"/>
+      <c r="A497" s="53"/>
       <c r="B497" s="7"/>
       <c r="C497" s="8"/>
       <c r="D497" s="9"/>
@@ -20178,7 +20202,7 @@
       <c r="AF497" s="7"/>
     </row>
     <row r="498" spans="1:32" ht="16">
-      <c r="A498" s="51"/>
+      <c r="A498" s="53"/>
       <c r="B498" s="7"/>
       <c r="C498" s="8"/>
       <c r="D498" s="9"/>
@@ -20212,7 +20236,7 @@
       <c r="AF498" s="7"/>
     </row>
     <row r="499" spans="1:32" ht="16">
-      <c r="A499" s="51"/>
+      <c r="A499" s="53"/>
       <c r="B499" s="7"/>
       <c r="C499" s="8"/>
       <c r="D499" s="9"/>
@@ -20246,7 +20270,7 @@
       <c r="AF499" s="7"/>
     </row>
     <row r="500" spans="1:32" ht="16">
-      <c r="A500" s="51"/>
+      <c r="A500" s="53"/>
       <c r="B500" s="7"/>
       <c r="C500" s="8"/>
       <c r="D500" s="9"/>
@@ -20280,7 +20304,7 @@
       <c r="AF500" s="7"/>
     </row>
     <row r="501" spans="1:32" ht="16">
-      <c r="A501" s="51"/>
+      <c r="A501" s="53"/>
       <c r="B501" s="7"/>
       <c r="C501" s="8"/>
       <c r="D501" s="9"/>
@@ -20314,7 +20338,7 @@
       <c r="AF501" s="7"/>
     </row>
     <row r="502" spans="1:32" ht="16">
-      <c r="A502" s="51"/>
+      <c r="A502" s="53"/>
       <c r="B502" s="7"/>
       <c r="C502" s="8"/>
       <c r="D502" s="9"/>
@@ -20348,7 +20372,7 @@
       <c r="AF502" s="7"/>
     </row>
     <row r="503" spans="1:32" ht="16">
-      <c r="A503" s="51"/>
+      <c r="A503" s="53"/>
       <c r="B503" s="7"/>
       <c r="C503" s="8"/>
       <c r="D503" s="9"/>
@@ -20382,7 +20406,7 @@
       <c r="AF503" s="7"/>
     </row>
     <row r="504" spans="1:32" ht="16">
-      <c r="A504" s="51"/>
+      <c r="A504" s="53"/>
       <c r="B504" s="7"/>
       <c r="C504" s="8"/>
       <c r="D504" s="9"/>
@@ -20416,7 +20440,7 @@
       <c r="AF504" s="7"/>
     </row>
     <row r="505" spans="1:32" ht="16">
-      <c r="A505" s="51"/>
+      <c r="A505" s="53"/>
       <c r="B505" s="7"/>
       <c r="C505" s="8"/>
       <c r="D505" s="9"/>
@@ -20450,7 +20474,7 @@
       <c r="AF505" s="7"/>
     </row>
     <row r="506" spans="1:32" ht="16">
-      <c r="A506" s="51"/>
+      <c r="A506" s="53"/>
       <c r="B506" s="7"/>
       <c r="C506" s="8"/>
       <c r="D506" s="9"/>
@@ -20484,7 +20508,7 @@
       <c r="AF506" s="7"/>
     </row>
     <row r="507" spans="1:32" ht="16">
-      <c r="A507" s="51"/>
+      <c r="A507" s="53"/>
       <c r="B507" s="7"/>
       <c r="C507" s="8"/>
       <c r="D507" s="9"/>
@@ -20518,7 +20542,7 @@
       <c r="AF507" s="7"/>
     </row>
     <row r="508" spans="1:32" ht="16">
-      <c r="A508" s="51"/>
+      <c r="A508" s="53"/>
       <c r="B508" s="7"/>
       <c r="C508" s="8"/>
       <c r="D508" s="9"/>
@@ -20552,7 +20576,7 @@
       <c r="AF508" s="7"/>
     </row>
     <row r="509" spans="1:32" ht="16">
-      <c r="A509" s="51"/>
+      <c r="A509" s="53"/>
       <c r="B509" s="7"/>
       <c r="C509" s="8"/>
       <c r="D509" s="9"/>
@@ -20586,7 +20610,7 @@
       <c r="AF509" s="7"/>
     </row>
     <row r="510" spans="1:32" ht="16">
-      <c r="A510" s="51"/>
+      <c r="A510" s="53"/>
       <c r="B510" s="7"/>
       <c r="C510" s="8"/>
       <c r="D510" s="9"/>
@@ -20620,7 +20644,7 @@
       <c r="AF510" s="7"/>
     </row>
     <row r="511" spans="1:32" ht="16">
-      <c r="A511" s="51"/>
+      <c r="A511" s="53"/>
       <c r="B511" s="7"/>
       <c r="C511" s="8"/>
       <c r="D511" s="9"/>
@@ -20654,7 +20678,7 @@
       <c r="AF511" s="7"/>
     </row>
     <row r="512" spans="1:32" ht="16">
-      <c r="A512" s="51"/>
+      <c r="A512" s="53"/>
       <c r="B512" s="7"/>
       <c r="C512" s="8"/>
       <c r="D512" s="9"/>
@@ -20688,7 +20712,7 @@
       <c r="AF512" s="7"/>
     </row>
     <row r="513" spans="1:32" ht="16">
-      <c r="A513" s="51"/>
+      <c r="A513" s="53"/>
       <c r="B513" s="7"/>
       <c r="C513" s="8"/>
       <c r="D513" s="9"/>
@@ -20722,7 +20746,7 @@
       <c r="AF513" s="7"/>
     </row>
     <row r="514" spans="1:32" ht="16">
-      <c r="A514" s="51"/>
+      <c r="A514" s="53"/>
       <c r="B514" s="7"/>
       <c r="C514" s="8"/>
       <c r="D514" s="9"/>
@@ -20756,7 +20780,7 @@
       <c r="AF514" s="7"/>
     </row>
     <row r="515" spans="1:32" ht="16">
-      <c r="A515" s="51"/>
+      <c r="A515" s="53"/>
       <c r="B515" s="7"/>
       <c r="C515" s="8"/>
       <c r="D515" s="9"/>
@@ -20790,7 +20814,7 @@
       <c r="AF515" s="7"/>
     </row>
     <row r="516" spans="1:32" ht="16">
-      <c r="A516" s="51"/>
+      <c r="A516" s="53"/>
       <c r="B516" s="7"/>
       <c r="C516" s="8"/>
       <c r="D516" s="9"/>
@@ -20824,7 +20848,7 @@
       <c r="AF516" s="7"/>
     </row>
     <row r="517" spans="1:32" ht="16">
-      <c r="A517" s="51"/>
+      <c r="A517" s="53"/>
       <c r="B517" s="7"/>
       <c r="C517" s="8"/>
       <c r="D517" s="9"/>
@@ -20858,7 +20882,7 @@
       <c r="AF517" s="7"/>
     </row>
     <row r="518" spans="1:32" ht="16">
-      <c r="A518" s="51"/>
+      <c r="A518" s="53"/>
       <c r="B518" s="7"/>
       <c r="C518" s="8"/>
       <c r="D518" s="9"/>
@@ -20892,7 +20916,7 @@
       <c r="AF518" s="7"/>
     </row>
     <row r="519" spans="1:32" ht="16">
-      <c r="A519" s="51"/>
+      <c r="A519" s="53"/>
       <c r="B519" s="7"/>
       <c r="C519" s="8"/>
       <c r="D519" s="9"/>
@@ -20926,7 +20950,7 @@
       <c r="AF519" s="7"/>
     </row>
     <row r="520" spans="1:32" ht="16">
-      <c r="A520" s="51"/>
+      <c r="A520" s="53"/>
       <c r="B520" s="7"/>
       <c r="C520" s="8"/>
       <c r="D520" s="9"/>
@@ -20960,7 +20984,7 @@
       <c r="AF520" s="7"/>
     </row>
     <row r="521" spans="1:32" ht="16">
-      <c r="A521" s="51"/>
+      <c r="A521" s="53"/>
       <c r="B521" s="7"/>
       <c r="C521" s="8"/>
       <c r="D521" s="9"/>
@@ -20994,7 +21018,7 @@
       <c r="AF521" s="7"/>
     </row>
     <row r="522" spans="1:32" ht="16">
-      <c r="A522" s="51"/>
+      <c r="A522" s="53"/>
       <c r="B522" s="7"/>
       <c r="C522" s="8"/>
       <c r="D522" s="9"/>
@@ -21028,7 +21052,7 @@
       <c r="AF522" s="7"/>
     </row>
     <row r="523" spans="1:32" ht="16">
-      <c r="A523" s="51"/>
+      <c r="A523" s="53"/>
       <c r="B523" s="7"/>
       <c r="C523" s="8"/>
       <c r="D523" s="9"/>
@@ -21062,7 +21086,7 @@
       <c r="AF523" s="7"/>
     </row>
     <row r="524" spans="1:32" ht="16">
-      <c r="A524" s="51"/>
+      <c r="A524" s="53"/>
       <c r="B524" s="7"/>
       <c r="C524" s="8"/>
       <c r="D524" s="9"/>
@@ -21096,7 +21120,7 @@
       <c r="AF524" s="7"/>
     </row>
     <row r="525" spans="1:32" ht="16">
-      <c r="A525" s="51"/>
+      <c r="A525" s="53"/>
       <c r="B525" s="7"/>
       <c r="C525" s="8"/>
       <c r="D525" s="9"/>
@@ -21130,7 +21154,7 @@
       <c r="AF525" s="7"/>
     </row>
     <row r="526" spans="1:32" ht="16">
-      <c r="A526" s="51"/>
+      <c r="A526" s="53"/>
       <c r="B526" s="7"/>
       <c r="C526" s="8"/>
       <c r="D526" s="9"/>
@@ -21164,7 +21188,7 @@
       <c r="AF526" s="7"/>
     </row>
     <row r="527" spans="1:32" ht="16">
-      <c r="A527" s="51"/>
+      <c r="A527" s="53"/>
       <c r="B527" s="7"/>
       <c r="C527" s="8"/>
       <c r="D527" s="9"/>
@@ -21198,7 +21222,7 @@
       <c r="AF527" s="7"/>
     </row>
     <row r="528" spans="1:32" ht="16">
-      <c r="A528" s="51"/>
+      <c r="A528" s="53"/>
       <c r="B528" s="7"/>
       <c r="C528" s="8"/>
       <c r="D528" s="9"/>
@@ -21232,7 +21256,7 @@
       <c r="AF528" s="7"/>
     </row>
     <row r="529" spans="1:32" ht="16">
-      <c r="A529" s="51"/>
+      <c r="A529" s="53"/>
       <c r="B529" s="7"/>
       <c r="C529" s="8"/>
       <c r="D529" s="9"/>
@@ -21266,7 +21290,7 @@
       <c r="AF529" s="7"/>
     </row>
     <row r="530" spans="1:32" ht="16">
-      <c r="A530" s="51"/>
+      <c r="A530" s="53"/>
       <c r="B530" s="7"/>
       <c r="C530" s="8"/>
       <c r="D530" s="9"/>
@@ -21300,7 +21324,7 @@
       <c r="AF530" s="7"/>
     </row>
     <row r="531" spans="1:32" ht="16">
-      <c r="A531" s="51"/>
+      <c r="A531" s="53"/>
       <c r="B531" s="7"/>
       <c r="C531" s="8"/>
       <c r="D531" s="9"/>
@@ -21334,7 +21358,7 @@
       <c r="AF531" s="7"/>
     </row>
     <row r="532" spans="1:32" ht="16">
-      <c r="A532" s="51"/>
+      <c r="A532" s="53"/>
       <c r="B532" s="7"/>
       <c r="C532" s="8"/>
       <c r="D532" s="9"/>
@@ -21368,7 +21392,7 @@
       <c r="AF532" s="7"/>
     </row>
     <row r="533" spans="1:32" ht="16">
-      <c r="A533" s="51"/>
+      <c r="A533" s="53"/>
       <c r="B533" s="7"/>
       <c r="C533" s="8"/>
       <c r="D533" s="9"/>
@@ -21402,7 +21426,7 @@
       <c r="AF533" s="7"/>
     </row>
     <row r="534" spans="1:32" ht="16">
-      <c r="A534" s="51"/>
+      <c r="A534" s="53"/>
       <c r="B534" s="7"/>
       <c r="C534" s="8"/>
       <c r="D534" s="9"/>
@@ -21436,7 +21460,7 @@
       <c r="AF534" s="7"/>
     </row>
     <row r="535" spans="1:32" ht="16">
-      <c r="A535" s="51"/>
+      <c r="A535" s="53"/>
       <c r="B535" s="7"/>
       <c r="C535" s="8"/>
       <c r="D535" s="9"/>
@@ -21470,7 +21494,7 @@
       <c r="AF535" s="7"/>
     </row>
     <row r="536" spans="1:32" ht="16">
-      <c r="A536" s="51"/>
+      <c r="A536" s="53"/>
       <c r="B536" s="7"/>
       <c r="C536" s="8"/>
       <c r="D536" s="9"/>
@@ -21504,7 +21528,7 @@
       <c r="AF536" s="7"/>
     </row>
     <row r="537" spans="1:32" ht="16">
-      <c r="A537" s="51"/>
+      <c r="A537" s="53"/>
       <c r="B537" s="7"/>
       <c r="C537" s="8"/>
       <c r="D537" s="9"/>
@@ -21538,7 +21562,7 @@
       <c r="AF537" s="7"/>
     </row>
     <row r="538" spans="1:32" ht="16">
-      <c r="A538" s="51"/>
+      <c r="A538" s="53"/>
       <c r="B538" s="7"/>
       <c r="C538" s="8"/>
       <c r="D538" s="9"/>
@@ -21572,7 +21596,7 @@
       <c r="AF538" s="7"/>
     </row>
     <row r="539" spans="1:32" ht="16">
-      <c r="A539" s="51"/>
+      <c r="A539" s="53"/>
       <c r="B539" s="7"/>
       <c r="C539" s="8"/>
       <c r="D539" s="9"/>
@@ -21606,7 +21630,7 @@
       <c r="AF539" s="7"/>
     </row>
     <row r="540" spans="1:32" ht="16">
-      <c r="A540" s="51"/>
+      <c r="A540" s="53"/>
       <c r="B540" s="7"/>
       <c r="C540" s="8"/>
       <c r="D540" s="9"/>
@@ -21640,7 +21664,7 @@
       <c r="AF540" s="7"/>
     </row>
     <row r="541" spans="1:32" ht="16">
-      <c r="A541" s="51"/>
+      <c r="A541" s="53"/>
       <c r="B541" s="7"/>
       <c r="C541" s="8"/>
       <c r="D541" s="9"/>
@@ -21674,7 +21698,7 @@
       <c r="AF541" s="7"/>
     </row>
     <row r="542" spans="1:32" ht="16">
-      <c r="A542" s="51"/>
+      <c r="A542" s="53"/>
       <c r="B542" s="7"/>
       <c r="C542" s="8"/>
       <c r="D542" s="9"/>
@@ -21708,7 +21732,7 @@
       <c r="AF542" s="7"/>
     </row>
     <row r="543" spans="1:32" ht="16">
-      <c r="A543" s="51"/>
+      <c r="A543" s="53"/>
       <c r="B543" s="7"/>
       <c r="C543" s="8"/>
       <c r="D543" s="9"/>
@@ -21742,7 +21766,7 @@
       <c r="AF543" s="7"/>
     </row>
     <row r="544" spans="1:32" ht="16">
-      <c r="A544" s="51"/>
+      <c r="A544" s="53"/>
       <c r="B544" s="7"/>
       <c r="C544" s="8"/>
       <c r="D544" s="9"/>
@@ -21776,7 +21800,7 @@
       <c r="AF544" s="7"/>
     </row>
     <row r="545" spans="1:32" ht="16">
-      <c r="A545" s="51"/>
+      <c r="A545" s="53"/>
       <c r="B545" s="7"/>
       <c r="C545" s="8"/>
       <c r="D545" s="9"/>
@@ -21810,7 +21834,7 @@
       <c r="AF545" s="7"/>
     </row>
     <row r="546" spans="1:32" ht="16">
-      <c r="A546" s="51"/>
+      <c r="A546" s="53"/>
       <c r="B546" s="7"/>
       <c r="C546" s="8"/>
       <c r="D546" s="9"/>
@@ -21844,7 +21868,7 @@
       <c r="AF546" s="7"/>
     </row>
     <row r="547" spans="1:32" ht="16">
-      <c r="A547" s="51"/>
+      <c r="A547" s="53"/>
       <c r="B547" s="7"/>
       <c r="C547" s="8"/>
       <c r="D547" s="9"/>
@@ -21878,7 +21902,7 @@
       <c r="AF547" s="7"/>
     </row>
     <row r="548" spans="1:32" ht="16">
-      <c r="A548" s="51"/>
+      <c r="A548" s="53"/>
       <c r="B548" s="7"/>
       <c r="C548" s="8"/>
       <c r="D548" s="9"/>
@@ -21912,7 +21936,7 @@
       <c r="AF548" s="7"/>
     </row>
     <row r="549" spans="1:32" ht="16">
-      <c r="A549" s="51"/>
+      <c r="A549" s="53"/>
       <c r="B549" s="7"/>
       <c r="C549" s="8"/>
       <c r="D549" s="9"/>
@@ -21946,7 +21970,7 @@
       <c r="AF549" s="7"/>
     </row>
     <row r="550" spans="1:32" ht="16">
-      <c r="A550" s="51"/>
+      <c r="A550" s="53"/>
       <c r="B550" s="7"/>
       <c r="C550" s="8"/>
       <c r="D550" s="9"/>
@@ -21980,7 +22004,7 @@
       <c r="AF550" s="7"/>
     </row>
     <row r="551" spans="1:32" ht="16">
-      <c r="A551" s="51"/>
+      <c r="A551" s="53"/>
       <c r="B551" s="7"/>
       <c r="C551" s="8"/>
       <c r="D551" s="9"/>
@@ -22014,7 +22038,7 @@
       <c r="AF551" s="7"/>
     </row>
     <row r="552" spans="1:32" ht="16">
-      <c r="A552" s="51"/>
+      <c r="A552" s="53"/>
       <c r="B552" s="7"/>
       <c r="C552" s="8"/>
       <c r="D552" s="9"/>
@@ -22048,7 +22072,7 @@
       <c r="AF552" s="7"/>
     </row>
     <row r="553" spans="1:32" ht="16">
-      <c r="A553" s="51"/>
+      <c r="A553" s="53"/>
       <c r="B553" s="7"/>
       <c r="C553" s="8"/>
       <c r="D553" s="9"/>
@@ -22082,7 +22106,7 @@
       <c r="AF553" s="7"/>
     </row>
     <row r="554" spans="1:32" ht="16">
-      <c r="A554" s="51"/>
+      <c r="A554" s="53"/>
       <c r="B554" s="7"/>
       <c r="C554" s="8"/>
       <c r="D554" s="9"/>
@@ -22116,7 +22140,7 @@
       <c r="AF554" s="7"/>
     </row>
     <row r="555" spans="1:32" ht="16">
-      <c r="A555" s="51"/>
+      <c r="A555" s="53"/>
       <c r="B555" s="7"/>
       <c r="C555" s="8"/>
       <c r="D555" s="9"/>
@@ -22150,7 +22174,7 @@
       <c r="AF555" s="7"/>
     </row>
     <row r="556" spans="1:32" ht="16">
-      <c r="A556" s="51"/>
+      <c r="A556" s="53"/>
       <c r="B556" s="7"/>
       <c r="C556" s="8"/>
       <c r="D556" s="9"/>
@@ -22184,7 +22208,7 @@
       <c r="AF556" s="7"/>
     </row>
     <row r="557" spans="1:32" ht="16">
-      <c r="A557" s="51"/>
+      <c r="A557" s="53"/>
       <c r="B557" s="7"/>
       <c r="C557" s="8"/>
       <c r="D557" s="9"/>
@@ -22218,7 +22242,7 @@
       <c r="AF557" s="7"/>
     </row>
     <row r="558" spans="1:32" ht="16">
-      <c r="A558" s="51"/>
+      <c r="A558" s="53"/>
       <c r="B558" s="7"/>
       <c r="C558" s="8"/>
       <c r="D558" s="9"/>
@@ -22252,7 +22276,7 @@
       <c r="AF558" s="7"/>
     </row>
     <row r="559" spans="1:32" ht="16">
-      <c r="A559" s="51"/>
+      <c r="A559" s="53"/>
       <c r="B559" s="7"/>
       <c r="C559" s="8"/>
       <c r="D559" s="9"/>
@@ -22286,7 +22310,7 @@
       <c r="AF559" s="7"/>
     </row>
     <row r="560" spans="1:32" ht="16">
-      <c r="A560" s="51"/>
+      <c r="A560" s="53"/>
       <c r="B560" s="7"/>
       <c r="C560" s="8"/>
       <c r="D560" s="9"/>
@@ -22320,7 +22344,7 @@
       <c r="AF560" s="7"/>
     </row>
     <row r="561" spans="1:32" ht="16">
-      <c r="A561" s="51"/>
+      <c r="A561" s="53"/>
       <c r="B561" s="7"/>
       <c r="C561" s="8"/>
       <c r="D561" s="9"/>
@@ -22354,7 +22378,7 @@
       <c r="AF561" s="7"/>
     </row>
     <row r="562" spans="1:32" ht="16">
-      <c r="A562" s="51"/>
+      <c r="A562" s="53"/>
       <c r="B562" s="7"/>
       <c r="C562" s="8"/>
       <c r="D562" s="9"/>
@@ -22388,7 +22412,7 @@
       <c r="AF562" s="7"/>
     </row>
     <row r="563" spans="1:32" ht="16">
-      <c r="A563" s="51"/>
+      <c r="A563" s="53"/>
       <c r="B563" s="7"/>
       <c r="C563" s="8"/>
       <c r="D563" s="9"/>
@@ -22422,7 +22446,7 @@
       <c r="AF563" s="7"/>
     </row>
     <row r="564" spans="1:32" ht="16">
-      <c r="A564" s="51"/>
+      <c r="A564" s="53"/>
       <c r="B564" s="7"/>
       <c r="C564" s="8"/>
       <c r="D564" s="9"/>
@@ -22456,7 +22480,7 @@
       <c r="AF564" s="7"/>
     </row>
     <row r="565" spans="1:32" ht="16">
-      <c r="A565" s="51"/>
+      <c r="A565" s="53"/>
       <c r="B565" s="7"/>
       <c r="C565" s="8"/>
       <c r="D565" s="9"/>
@@ -22490,7 +22514,7 @@
       <c r="AF565" s="7"/>
     </row>
     <row r="566" spans="1:32" ht="16">
-      <c r="A566" s="51"/>
+      <c r="A566" s="53"/>
       <c r="B566" s="7"/>
       <c r="C566" s="8"/>
       <c r="D566" s="9"/>
@@ -22524,7 +22548,7 @@
       <c r="AF566" s="7"/>
     </row>
     <row r="567" spans="1:32" ht="16">
-      <c r="A567" s="51"/>
+      <c r="A567" s="53"/>
       <c r="B567" s="7"/>
       <c r="C567" s="8"/>
       <c r="D567" s="9"/>
@@ -22558,7 +22582,7 @@
       <c r="AF567" s="7"/>
     </row>
     <row r="568" spans="1:32" ht="16">
-      <c r="A568" s="51"/>
+      <c r="A568" s="53"/>
       <c r="B568" s="7"/>
       <c r="C568" s="8"/>
       <c r="D568" s="9"/>
@@ -22592,7 +22616,7 @@
       <c r="AF568" s="7"/>
     </row>
     <row r="569" spans="1:32" ht="16">
-      <c r="A569" s="51"/>
+      <c r="A569" s="53"/>
       <c r="B569" s="7"/>
       <c r="C569" s="8"/>
       <c r="D569" s="9"/>
@@ -22626,7 +22650,7 @@
       <c r="AF569" s="7"/>
     </row>
     <row r="570" spans="1:32" ht="16">
-      <c r="A570" s="51"/>
+      <c r="A570" s="53"/>
       <c r="B570" s="7"/>
       <c r="C570" s="8"/>
       <c r="D570" s="9"/>
@@ -22660,7 +22684,7 @@
       <c r="AF570" s="7"/>
     </row>
     <row r="571" spans="1:32" ht="16">
-      <c r="A571" s="51"/>
+      <c r="A571" s="53"/>
       <c r="B571" s="7"/>
       <c r="C571" s="8"/>
       <c r="D571" s="9"/>
@@ -22694,7 +22718,7 @@
       <c r="AF571" s="7"/>
     </row>
     <row r="572" spans="1:32" ht="16">
-      <c r="A572" s="51"/>
+      <c r="A572" s="53"/>
       <c r="B572" s="7"/>
       <c r="C572" s="8"/>
       <c r="D572" s="9"/>
@@ -22728,7 +22752,7 @@
       <c r="AF572" s="7"/>
     </row>
     <row r="573" spans="1:32" ht="16">
-      <c r="A573" s="51"/>
+      <c r="A573" s="53"/>
       <c r="B573" s="7"/>
       <c r="C573" s="8"/>
       <c r="D573" s="9"/>
@@ -22762,7 +22786,7 @@
       <c r="AF573" s="7"/>
     </row>
     <row r="574" spans="1:32" ht="16">
-      <c r="A574" s="51"/>
+      <c r="A574" s="53"/>
       <c r="B574" s="7"/>
       <c r="C574" s="8"/>
       <c r="D574" s="9"/>
@@ -22796,7 +22820,7 @@
       <c r="AF574" s="7"/>
     </row>
     <row r="575" spans="1:32" ht="16">
-      <c r="A575" s="51"/>
+      <c r="A575" s="53"/>
       <c r="B575" s="7"/>
       <c r="C575" s="8"/>
       <c r="D575" s="9"/>
@@ -22830,7 +22854,7 @@
       <c r="AF575" s="7"/>
     </row>
     <row r="576" spans="1:32" ht="16">
-      <c r="A576" s="51"/>
+      <c r="A576" s="53"/>
       <c r="B576" s="7"/>
       <c r="C576" s="8"/>
       <c r="D576" s="9"/>
@@ -22864,7 +22888,7 @@
       <c r="AF576" s="7"/>
     </row>
     <row r="577" spans="1:32" ht="16">
-      <c r="A577" s="51"/>
+      <c r="A577" s="53"/>
       <c r="B577" s="7"/>
       <c r="C577" s="8"/>
       <c r="D577" s="9"/>
@@ -22898,7 +22922,7 @@
       <c r="AF577" s="7"/>
     </row>
     <row r="578" spans="1:32" ht="16">
-      <c r="A578" s="51"/>
+      <c r="A578" s="53"/>
       <c r="B578" s="7"/>
       <c r="C578" s="8"/>
       <c r="D578" s="9"/>
@@ -22932,7 +22956,7 @@
       <c r="AF578" s="7"/>
     </row>
     <row r="579" spans="1:32" ht="16">
-      <c r="A579" s="51"/>
+      <c r="A579" s="53"/>
       <c r="B579" s="7"/>
       <c r="C579" s="8"/>
       <c r="D579" s="9"/>
@@ -22966,7 +22990,7 @@
       <c r="AF579" s="7"/>
     </row>
     <row r="580" spans="1:32" ht="16">
-      <c r="A580" s="51"/>
+      <c r="A580" s="53"/>
       <c r="B580" s="7"/>
       <c r="C580" s="8"/>
       <c r="D580" s="9"/>
@@ -23000,7 +23024,7 @@
       <c r="AF580" s="7"/>
     </row>
     <row r="581" spans="1:32" ht="16">
-      <c r="A581" s="51"/>
+      <c r="A581" s="53"/>
       <c r="B581" s="7"/>
       <c r="C581" s="8"/>
       <c r="D581" s="9"/>
@@ -23034,7 +23058,7 @@
       <c r="AF581" s="7"/>
     </row>
     <row r="582" spans="1:32" ht="16">
-      <c r="A582" s="51"/>
+      <c r="A582" s="53"/>
       <c r="B582" s="7"/>
       <c r="C582" s="8"/>
       <c r="D582" s="9"/>
@@ -23068,7 +23092,7 @@
       <c r="AF582" s="7"/>
     </row>
     <row r="583" spans="1:32" ht="16">
-      <c r="A583" s="51"/>
+      <c r="A583" s="53"/>
       <c r="B583" s="7"/>
       <c r="C583" s="8"/>
       <c r="D583" s="9"/>
@@ -23102,7 +23126,7 @@
       <c r="AF583" s="7"/>
     </row>
     <row r="584" spans="1:32" ht="16">
-      <c r="A584" s="51"/>
+      <c r="A584" s="53"/>
       <c r="B584" s="7"/>
       <c r="C584" s="8"/>
       <c r="D584" s="9"/>
@@ -23136,7 +23160,7 @@
       <c r="AF584" s="7"/>
     </row>
     <row r="585" spans="1:32" ht="16">
-      <c r="A585" s="51"/>
+      <c r="A585" s="53"/>
       <c r="B585" s="7"/>
       <c r="C585" s="8"/>
       <c r="D585" s="9"/>
@@ -23170,7 +23194,7 @@
       <c r="AF585" s="7"/>
     </row>
     <row r="586" spans="1:32" ht="16">
-      <c r="A586" s="51"/>
+      <c r="A586" s="53"/>
       <c r="B586" s="7"/>
       <c r="C586" s="8"/>
       <c r="D586" s="9"/>
@@ -23204,7 +23228,7 @@
       <c r="AF586" s="7"/>
     </row>
     <row r="587" spans="1:32" ht="16">
-      <c r="A587" s="51"/>
+      <c r="A587" s="53"/>
       <c r="B587" s="7"/>
       <c r="C587" s="8"/>
       <c r="D587" s="9"/>
@@ -23238,7 +23262,7 @@
       <c r="AF587" s="7"/>
     </row>
     <row r="588" spans="1:32" ht="16">
-      <c r="A588" s="51"/>
+      <c r="A588" s="53"/>
       <c r="B588" s="7"/>
       <c r="C588" s="8"/>
       <c r="D588" s="9"/>
@@ -23272,7 +23296,7 @@
       <c r="AF588" s="7"/>
     </row>
     <row r="589" spans="1:32" ht="16">
-      <c r="A589" s="51"/>
+      <c r="A589" s="53"/>
       <c r="B589" s="7"/>
       <c r="C589" s="8"/>
       <c r="D589" s="9"/>
@@ -23306,7 +23330,7 @@
       <c r="AF589" s="7"/>
     </row>
     <row r="590" spans="1:32" ht="16">
-      <c r="A590" s="51"/>
+      <c r="A590" s="53"/>
       <c r="B590" s="7"/>
       <c r="C590" s="8"/>
       <c r="D590" s="9"/>
@@ -23340,7 +23364,7 @@
       <c r="AF590" s="7"/>
     </row>
     <row r="591" spans="1:32" ht="16">
-      <c r="A591" s="51"/>
+      <c r="A591" s="53"/>
       <c r="B591" s="7"/>
       <c r="C591" s="8"/>
       <c r="D591" s="9"/>
@@ -23374,7 +23398,7 @@
       <c r="AF591" s="7"/>
     </row>
     <row r="592" spans="1:32" ht="16">
-      <c r="A592" s="51"/>
+      <c r="A592" s="53"/>
       <c r="B592" s="7"/>
       <c r="C592" s="8"/>
       <c r="D592" s="9"/>
@@ -23408,7 +23432,7 @@
       <c r="AF592" s="7"/>
     </row>
     <row r="593" spans="1:32" ht="16">
-      <c r="A593" s="51"/>
+      <c r="A593" s="53"/>
       <c r="B593" s="7"/>
       <c r="C593" s="8"/>
       <c r="D593" s="9"/>
@@ -23442,7 +23466,7 @@
       <c r="AF593" s="7"/>
     </row>
     <row r="594" spans="1:32" ht="16">
-      <c r="A594" s="51"/>
+      <c r="A594" s="53"/>
       <c r="B594" s="7"/>
       <c r="C594" s="8"/>
       <c r="D594" s="9"/>
@@ -23476,7 +23500,7 @@
       <c r="AF594" s="7"/>
     </row>
     <row r="595" spans="1:32" ht="16">
-      <c r="A595" s="51"/>
+      <c r="A595" s="53"/>
       <c r="B595" s="7"/>
       <c r="C595" s="8"/>
       <c r="D595" s="9"/>
@@ -23510,7 +23534,7 @@
       <c r="AF595" s="7"/>
     </row>
     <row r="596" spans="1:32" ht="16">
-      <c r="A596" s="51"/>
+      <c r="A596" s="53"/>
       <c r="B596" s="7"/>
       <c r="C596" s="8"/>
       <c r="D596" s="9"/>
@@ -23544,7 +23568,7 @@
       <c r="AF596" s="7"/>
     </row>
     <row r="597" spans="1:32" ht="16">
-      <c r="A597" s="51"/>
+      <c r="A597" s="53"/>
       <c r="B597" s="7"/>
       <c r="C597" s="8"/>
       <c r="D597" s="9"/>
@@ -23578,7 +23602,7 @@
       <c r="AF597" s="7"/>
     </row>
     <row r="598" spans="1:32" ht="16">
-      <c r="A598" s="51"/>
+      <c r="A598" s="53"/>
       <c r="B598" s="7"/>
       <c r="C598" s="8"/>
       <c r="D598" s="9"/>
@@ -23612,7 +23636,7 @@
       <c r="AF598" s="7"/>
     </row>
     <row r="599" spans="1:32" ht="16">
-      <c r="A599" s="51"/>
+      <c r="A599" s="53"/>
       <c r="B599" s="7"/>
       <c r="C599" s="8"/>
       <c r="D599" s="9"/>
@@ -23646,7 +23670,7 @@
       <c r="AF599" s="7"/>
     </row>
     <row r="600" spans="1:32" ht="16">
-      <c r="A600" s="51"/>
+      <c r="A600" s="53"/>
       <c r="B600" s="7"/>
       <c r="C600" s="8"/>
       <c r="D600" s="9"/>
@@ -23680,7 +23704,7 @@
       <c r="AF600" s="7"/>
     </row>
     <row r="601" spans="1:32" ht="16">
-      <c r="A601" s="51"/>
+      <c r="A601" s="53"/>
       <c r="B601" s="7"/>
       <c r="C601" s="8"/>
       <c r="D601" s="9"/>
@@ -23714,7 +23738,7 @@
       <c r="AF601" s="7"/>
     </row>
     <row r="602" spans="1:32" ht="16">
-      <c r="A602" s="51"/>
+      <c r="A602" s="53"/>
       <c r="B602" s="7"/>
       <c r="C602" s="8"/>
       <c r="D602" s="9"/>
@@ -23748,7 +23772,7 @@
       <c r="AF602" s="7"/>
     </row>
     <row r="603" spans="1:32" ht="16">
-      <c r="A603" s="51"/>
+      <c r="A603" s="53"/>
       <c r="B603" s="7"/>
       <c r="C603" s="8"/>
       <c r="D603" s="9"/>
@@ -23782,7 +23806,7 @@
       <c r="AF603" s="7"/>
     </row>
     <row r="604" spans="1:32" ht="16">
-      <c r="A604" s="51"/>
+      <c r="A604" s="53"/>
       <c r="B604" s="7"/>
       <c r="C604" s="8"/>
       <c r="D604" s="9"/>
@@ -23816,7 +23840,7 @@
       <c r="AF604" s="7"/>
     </row>
     <row r="605" spans="1:32" ht="16">
-      <c r="A605" s="51"/>
+      <c r="A605" s="53"/>
       <c r="B605" s="7"/>
       <c r="C605" s="8"/>
       <c r="D605" s="9"/>
@@ -23850,7 +23874,7 @@
       <c r="AF605" s="7"/>
     </row>
     <row r="606" spans="1:32" ht="16">
-      <c r="A606" s="51"/>
+      <c r="A606" s="53"/>
       <c r="B606" s="7"/>
       <c r="C606" s="8"/>
       <c r="D606" s="9"/>
@@ -23884,7 +23908,7 @@
       <c r="AF606" s="7"/>
     </row>
     <row r="607" spans="1:32" ht="16">
-      <c r="A607" s="51"/>
+      <c r="A607" s="53"/>
       <c r="B607" s="7"/>
       <c r="C607" s="8"/>
       <c r="D607" s="9"/>
@@ -23918,7 +23942,7 @@
       <c r="AF607" s="7"/>
     </row>
     <row r="608" spans="1:32" ht="16">
-      <c r="A608" s="51"/>
+      <c r="A608" s="53"/>
       <c r="B608" s="7"/>
       <c r="C608" s="8"/>
       <c r="D608" s="9"/>
@@ -23952,7 +23976,7 @@
       <c r="AF608" s="7"/>
     </row>
     <row r="609" spans="1:32" ht="16">
-      <c r="A609" s="51"/>
+      <c r="A609" s="53"/>
       <c r="B609" s="7"/>
       <c r="C609" s="8"/>
       <c r="D609" s="9"/>
@@ -23986,7 +24010,7 @@
       <c r="AF609" s="7"/>
     </row>
     <row r="610" spans="1:32" ht="16">
-      <c r="A610" s="51"/>
+      <c r="A610" s="53"/>
       <c r="B610" s="7"/>
       <c r="C610" s="8"/>
       <c r="D610" s="9"/>
@@ -24020,7 +24044,7 @@
       <c r="AF610" s="7"/>
     </row>
     <row r="611" spans="1:32" ht="16">
-      <c r="A611" s="51"/>
+      <c r="A611" s="53"/>
       <c r="B611" s="7"/>
       <c r="C611" s="8"/>
       <c r="D611" s="9"/>
@@ -24054,7 +24078,7 @@
       <c r="AF611" s="7"/>
     </row>
     <row r="612" spans="1:32" ht="16">
-      <c r="A612" s="51"/>
+      <c r="A612" s="53"/>
       <c r="B612" s="7"/>
       <c r="C612" s="8"/>
       <c r="D612" s="9"/>
@@ -24088,7 +24112,7 @@
       <c r="AF612" s="7"/>
     </row>
     <row r="613" spans="1:32" ht="16">
-      <c r="A613" s="51"/>
+      <c r="A613" s="53"/>
       <c r="B613" s="7"/>
       <c r="C613" s="8"/>
       <c r="D613" s="9"/>
@@ -24122,7 +24146,7 @@
       <c r="AF613" s="7"/>
     </row>
     <row r="614" spans="1:32" ht="16">
-      <c r="A614" s="51"/>
+      <c r="A614" s="53"/>
       <c r="B614" s="7"/>
       <c r="C614" s="8"/>
       <c r="D614" s="9"/>
@@ -24156,7 +24180,7 @@
       <c r="AF614" s="7"/>
     </row>
     <row r="615" spans="1:32" ht="16">
-      <c r="A615" s="51"/>
+      <c r="A615" s="53"/>
       <c r="B615" s="7"/>
       <c r="C615" s="8"/>
       <c r="D615" s="9"/>
@@ -24190,7 +24214,7 @@
       <c r="AF615" s="7"/>
     </row>
     <row r="616" spans="1:32" ht="16">
-      <c r="A616" s="51"/>
+      <c r="A616" s="53"/>
       <c r="B616" s="7"/>
       <c r="C616" s="8"/>
       <c r="D616" s="9"/>
@@ -24224,7 +24248,7 @@
       <c r="AF616" s="7"/>
     </row>
     <row r="617" spans="1:32" ht="16">
-      <c r="A617" s="51"/>
+      <c r="A617" s="53"/>
       <c r="B617" s="7"/>
       <c r="C617" s="8"/>
       <c r="D617" s="9"/>
@@ -24258,7 +24282,7 @@
       <c r="AF617" s="7"/>
     </row>
     <row r="618" spans="1:32" ht="16">
-      <c r="A618" s="51"/>
+      <c r="A618" s="53"/>
       <c r="B618" s="7"/>
       <c r="C618" s="8"/>
       <c r="D618" s="9"/>
@@ -24292,7 +24316,7 @@
       <c r="AF618" s="7"/>
     </row>
     <row r="619" spans="1:32" ht="16">
-      <c r="A619" s="51"/>
+      <c r="A619" s="53"/>
       <c r="B619" s="7"/>
       <c r="C619" s="8"/>
       <c r="D619" s="9"/>
@@ -24326,7 +24350,7 @@
       <c r="AF619" s="7"/>
     </row>
     <row r="620" spans="1:32" ht="16">
-      <c r="A620" s="51"/>
+      <c r="A620" s="53"/>
       <c r="B620" s="7"/>
       <c r="C620" s="8"/>
       <c r="D620" s="9"/>
@@ -24360,7 +24384,7 @@
       <c r="AF620" s="7"/>
     </row>
     <row r="621" spans="1:32" ht="16">
-      <c r="A621" s="51"/>
+      <c r="A621" s="53"/>
       <c r="B621" s="7"/>
       <c r="C621" s="8"/>
       <c r="D621" s="9"/>
@@ -24394,7 +24418,7 @@
       <c r="AF621" s="7"/>
     </row>
     <row r="622" spans="1:32" ht="16">
-      <c r="A622" s="51"/>
+      <c r="A622" s="53"/>
       <c r="B622" s="7"/>
       <c r="C622" s="8"/>
       <c r="D622" s="9"/>
@@ -24428,7 +24452,7 @@
       <c r="AF622" s="7"/>
     </row>
     <row r="623" spans="1:32" ht="16">
-      <c r="A623" s="51"/>
+      <c r="A623" s="53"/>
       <c r="B623" s="7"/>
       <c r="C623" s="8"/>
       <c r="D623" s="9"/>
@@ -24462,7 +24486,7 @@
       <c r="AF623" s="7"/>
     </row>
     <row r="624" spans="1:32" ht="16">
-      <c r="A624" s="51"/>
+      <c r="A624" s="53"/>
       <c r="B624" s="7"/>
       <c r="C624" s="8"/>
       <c r="D624" s="9"/>
@@ -24496,7 +24520,7 @@
       <c r="AF624" s="7"/>
     </row>
     <row r="625" spans="1:32" ht="16">
-      <c r="A625" s="51"/>
+      <c r="A625" s="53"/>
       <c r="B625" s="7"/>
       <c r="C625" s="8"/>
       <c r="D625" s="9"/>
@@ -24530,7 +24554,7 @@
       <c r="AF625" s="7"/>
     </row>
     <row r="626" spans="1:32" ht="16">
-      <c r="A626" s="51"/>
+      <c r="A626" s="53"/>
       <c r="B626" s="7"/>
       <c r="C626" s="8"/>
       <c r="D626" s="9"/>
@@ -24564,7 +24588,7 @@
       <c r="AF626" s="7"/>
     </row>
     <row r="627" spans="1:32" ht="16">
-      <c r="A627" s="51"/>
+      <c r="A627" s="53"/>
       <c r="B627" s="7"/>
       <c r="C627" s="8"/>
       <c r="D627" s="9"/>
@@ -24598,7 +24622,7 @@
       <c r="AF627" s="7"/>
     </row>
     <row r="628" spans="1:32" ht="16">
-      <c r="A628" s="51"/>
+      <c r="A628" s="53"/>
       <c r="B628" s="7"/>
       <c r="C628" s="8"/>
       <c r="D628" s="9"/>
@@ -24632,7 +24656,7 @@
       <c r="AF628" s="7"/>
     </row>
     <row r="629" spans="1:32" ht="16">
-      <c r="A629" s="51"/>
+      <c r="A629" s="53"/>
       <c r="B629" s="7"/>
       <c r="C629" s="8"/>
       <c r="D629" s="9"/>
@@ -24666,7 +24690,7 @@
       <c r="AF629" s="7"/>
     </row>
     <row r="630" spans="1:32" ht="16">
-      <c r="A630" s="51"/>
+      <c r="A630" s="53"/>
       <c r="B630" s="7"/>
       <c r="C630" s="8"/>
       <c r="D630" s="9"/>
@@ -24700,7 +24724,7 @@
       <c r="AF630" s="7"/>
     </row>
     <row r="631" spans="1:32" ht="16">
-      <c r="A631" s="51"/>
+      <c r="A631" s="53"/>
       <c r="B631" s="7"/>
       <c r="C631" s="8"/>
       <c r="D631" s="9"/>
@@ -24734,7 +24758,7 @@
       <c r="AF631" s="7"/>
     </row>
     <row r="632" spans="1:32" ht="16">
-      <c r="A632" s="51"/>
+      <c r="A632" s="53"/>
       <c r="B632" s="7"/>
       <c r="C632" s="8"/>
       <c r="D632" s="9"/>
@@ -24768,7 +24792,7 @@
       <c r="AF632" s="7"/>
     </row>
     <row r="633" spans="1:32" ht="16">
-      <c r="A633" s="51"/>
+      <c r="A633" s="53"/>
       <c r="B633" s="7"/>
       <c r="C633" s="8"/>
       <c r="D633" s="9"/>
@@ -24802,7 +24826,7 @@
       <c r="AF633" s="7"/>
     </row>
     <row r="634" spans="1:32" ht="16">
-      <c r="A634" s="51"/>
+      <c r="A634" s="53"/>
       <c r="B634" s="7"/>
       <c r="C634" s="8"/>
       <c r="D634" s="9"/>
@@ -24836,7 +24860,7 @@
       <c r="AF634" s="7"/>
     </row>
     <row r="635" spans="1:32" ht="16">
-      <c r="A635" s="51"/>
+      <c r="A635" s="53"/>
       <c r="B635" s="7"/>
       <c r="C635" s="8"/>
       <c r="D635" s="9"/>
@@ -24870,7 +24894,7 @@
       <c r="AF635" s="7"/>
     </row>
     <row r="636" spans="1:32" ht="16">
-      <c r="A636" s="51"/>
+      <c r="A636" s="53"/>
       <c r="B636" s="7"/>
       <c r="C636" s="8"/>
       <c r="D636" s="9"/>
@@ -24904,7 +24928,7 @@
       <c r="AF636" s="7"/>
     </row>
     <row r="637" spans="1:32" ht="16">
-      <c r="A637" s="51"/>
+      <c r="A637" s="53"/>
       <c r="B637" s="7"/>
       <c r="C637" s="8"/>
       <c r="D637" s="9"/>
@@ -24938,7 +24962,7 @@
       <c r="AF637" s="7"/>
     </row>
     <row r="638" spans="1:32" ht="16">
-      <c r="A638" s="51"/>
+      <c r="A638" s="53"/>
       <c r="B638" s="7"/>
       <c r="C638" s="8"/>
       <c r="D638" s="9"/>
@@ -24972,7 +24996,7 @@
       <c r="AF638" s="7"/>
     </row>
     <row r="639" spans="1:32" ht="16">
-      <c r="A639" s="51"/>
+      <c r="A639" s="53"/>
       <c r="B639" s="7"/>
       <c r="C639" s="8"/>
       <c r="D639" s="9"/>
@@ -25006,7 +25030,7 @@
       <c r="AF639" s="7"/>
     </row>
     <row r="640" spans="1:32" ht="16">
-      <c r="A640" s="51"/>
+      <c r="A640" s="53"/>
       <c r="B640" s="7"/>
       <c r="C640" s="8"/>
       <c r="D640" s="9"/>
@@ -25040,7 +25064,7 @@
       <c r="AF640" s="7"/>
     </row>
     <row r="641" spans="1:32" ht="16">
-      <c r="A641" s="51"/>
+      <c r="A641" s="53"/>
       <c r="B641" s="7"/>
       <c r="C641" s="8"/>
       <c r="D641" s="9"/>
@@ -25074,7 +25098,7 @@
       <c r="AF641" s="7"/>
     </row>
     <row r="642" spans="1:32" ht="16">
-      <c r="A642" s="51"/>
+      <c r="A642" s="53"/>
       <c r="B642" s="7"/>
       <c r="C642" s="8"/>
       <c r="D642" s="9"/>
@@ -25108,7 +25132,7 @@
       <c r="AF642" s="7"/>
     </row>
     <row r="643" spans="1:32" ht="16">
-      <c r="A643" s="51"/>
+      <c r="A643" s="53"/>
       <c r="B643" s="7"/>
       <c r="C643" s="8"/>
       <c r="D643" s="9"/>
@@ -25142,7 +25166,7 @@
       <c r="AF643" s="7"/>
     </row>
     <row r="644" spans="1:32" ht="16">
-      <c r="A644" s="51"/>
+      <c r="A644" s="53"/>
       <c r="B644" s="7"/>
       <c r="C644" s="8"/>
       <c r="D644" s="9"/>
@@ -25176,7 +25200,7 @@
       <c r="AF644" s="7"/>
     </row>
     <row r="645" spans="1:32" ht="16">
-      <c r="A645" s="51"/>
+      <c r="A645" s="53"/>
       <c r="B645" s="7"/>
       <c r="C645" s="8"/>
       <c r="D645" s="9"/>
@@ -25210,7 +25234,7 @@
       <c r="AF645" s="7"/>
     </row>
     <row r="646" spans="1:32" ht="16">
-      <c r="A646" s="51"/>
+      <c r="A646" s="53"/>
       <c r="B646" s="7"/>
       <c r="C646" s="8"/>
       <c r="D646" s="9"/>
@@ -25244,7 +25268,7 @@
       <c r="AF646" s="7"/>
     </row>
     <row r="647" spans="1:32" ht="16">
-      <c r="A647" s="51"/>
+      <c r="A647" s="53"/>
       <c r="B647" s="7"/>
       <c r="C647" s="8"/>
       <c r="D647" s="9"/>
@@ -25278,7 +25302,7 @@
       <c r="AF647" s="7"/>
     </row>
     <row r="648" spans="1:32" ht="16">
-      <c r="A648" s="51"/>
+      <c r="A648" s="53"/>
       <c r="B648" s="7"/>
       <c r="C648" s="8"/>
       <c r="D648" s="9"/>
@@ -25312,7 +25336,7 @@
       <c r="AF648" s="7"/>
     </row>
     <row r="649" spans="1:32" ht="16">
-      <c r="A649" s="51"/>
+      <c r="A649" s="53"/>
       <c r="B649" s="7"/>
       <c r="C649" s="8"/>
       <c r="D649" s="9"/>
@@ -25346,7 +25370,7 @@
       <c r="AF649" s="7"/>
     </row>
     <row r="650" spans="1:32" ht="16">
-      <c r="A650" s="51"/>
+      <c r="A650" s="53"/>
       <c r="B650" s="7"/>
       <c r="C650" s="8"/>
       <c r="D650" s="9"/>
@@ -25380,7 +25404,7 @@
       <c r="AF650" s="7"/>
     </row>
     <row r="651" spans="1:32" ht="16">
-      <c r="A651" s="51"/>
+      <c r="A651" s="53"/>
       <c r="B651" s="7"/>
       <c r="C651" s="8"/>
       <c r="D651" s="9"/>
@@ -25414,7 +25438,7 @@
       <c r="AF651" s="7"/>
     </row>
     <row r="652" spans="1:32" ht="16">
-      <c r="A652" s="51"/>
+      <c r="A652" s="53"/>
       <c r="B652" s="7"/>
       <c r="C652" s="8"/>
       <c r="D652" s="9"/>
@@ -25448,7 +25472,7 @@
       <c r="AF652" s="7"/>
     </row>
     <row r="653" spans="1:32" ht="16">
-      <c r="A653" s="51"/>
+      <c r="A653" s="53"/>
       <c r="B653" s="7"/>
       <c r="C653" s="8"/>
       <c r="D653" s="9"/>
@@ -25482,7 +25506,7 @@
       <c r="AF653" s="7"/>
     </row>
     <row r="654" spans="1:32" ht="16">
-      <c r="A654" s="51"/>
+      <c r="A654" s="53"/>
       <c r="B654" s="7"/>
       <c r="C654" s="8"/>
       <c r="D654" s="9"/>
@@ -25516,7 +25540,7 @@
       <c r="AF654" s="7"/>
     </row>
     <row r="655" spans="1:32" ht="16">
-      <c r="A655" s="51"/>
+      <c r="A655" s="53"/>
       <c r="B655" s="7"/>
       <c r="C655" s="8"/>
       <c r="D655" s="9"/>
@@ -25550,7 +25574,7 @@
       <c r="AF655" s="7"/>
     </row>
     <row r="656" spans="1:32" ht="16">
-      <c r="A656" s="51"/>
+      <c r="A656" s="53"/>
       <c r="B656" s="7"/>
       <c r="C656" s="8"/>
       <c r="D656" s="9"/>
@@ -25584,7 +25608,7 @@
       <c r="AF656" s="7"/>
     </row>
     <row r="657" spans="1:32" ht="16">
-      <c r="A657" s="51"/>
+      <c r="A657" s="53"/>
       <c r="B657" s="7"/>
       <c r="C657" s="8"/>
       <c r="D657" s="9"/>
@@ -25618,7 +25642,7 @@
       <c r="AF657" s="7"/>
     </row>
     <row r="658" spans="1:32" ht="16">
-      <c r="A658" s="51"/>
+      <c r="A658" s="53"/>
       <c r="B658" s="7"/>
       <c r="C658" s="8"/>
       <c r="D658" s="9"/>
@@ -25652,7 +25676,7 @@
       <c r="AF658" s="7"/>
     </row>
     <row r="659" spans="1:32" ht="16">
-      <c r="A659" s="51"/>
+      <c r="A659" s="53"/>
       <c r="B659" s="7"/>
       <c r="C659" s="8"/>
       <c r="D659" s="9"/>
@@ -25686,7 +25710,7 @@
       <c r="AF659" s="7"/>
     </row>
     <row r="660" spans="1:32" ht="16">
-      <c r="A660" s="51"/>
+      <c r="A660" s="53"/>
       <c r="B660" s="7"/>
       <c r="C660" s="8"/>
       <c r="D660" s="9"/>
@@ -25720,7 +25744,7 @@
       <c r="AF660" s="7"/>
     </row>
     <row r="661" spans="1:32" ht="16">
-      <c r="A661" s="51"/>
+      <c r="A661" s="53"/>
       <c r="B661" s="7"/>
       <c r="C661" s="8"/>
       <c r="D661" s="9"/>
@@ -25754,7 +25778,7 @@
       <c r="AF661" s="7"/>
     </row>
     <row r="662" spans="1:32" ht="16">
-      <c r="A662" s="51"/>
+      <c r="A662" s="53"/>
       <c r="B662" s="7"/>
       <c r="C662" s="8"/>
       <c r="D662" s="9"/>
@@ -25788,7 +25812,7 @@
       <c r="AF662" s="7"/>
     </row>
     <row r="663" spans="1:32" ht="16">
-      <c r="A663" s="51"/>
+      <c r="A663" s="53"/>
       <c r="B663" s="7"/>
       <c r="C663" s="8"/>
       <c r="D663" s="9"/>
@@ -25822,7 +25846,7 @@
       <c r="AF663" s="7"/>
     </row>
     <row r="664" spans="1:32" ht="16">
-      <c r="A664" s="51"/>
+      <c r="A664" s="53"/>
       <c r="B664" s="7"/>
       <c r="C664" s="8"/>
       <c r="D664" s="9"/>
@@ -25856,7 +25880,7 @@
       <c r="AF664" s="7"/>
     </row>
     <row r="665" spans="1:32" ht="16">
-      <c r="A665" s="51"/>
+      <c r="A665" s="53"/>
       <c r="B665" s="7"/>
       <c r="C665" s="8"/>
       <c r="D665" s="9"/>
@@ -25890,7 +25914,7 @@
       <c r="AF665" s="7"/>
     </row>
     <row r="666" spans="1:32" ht="16">
-      <c r="A666" s="51"/>
+      <c r="A666" s="53"/>
       <c r="B666" s="7"/>
       <c r="C666" s="8"/>
       <c r="D666" s="9"/>
@@ -25924,7 +25948,7 @@
       <c r="AF666" s="7"/>
     </row>
     <row r="667" spans="1:32" ht="16">
-      <c r="A667" s="51"/>
+      <c r="A667" s="53"/>
       <c r="B667" s="7"/>
       <c r="C667" s="8"/>
       <c r="D667" s="9"/>
@@ -25958,7 +25982,7 @@
       <c r="AF667" s="7"/>
     </row>
     <row r="668" spans="1:32" ht="16">
-      <c r="A668" s="51"/>
+      <c r="A668" s="53"/>
       <c r="B668" s="7"/>
       <c r="C668" s="8"/>
       <c r="D668" s="9"/>
@@ -25992,7 +26016,7 @@
       <c r="AF668" s="7"/>
     </row>
     <row r="669" spans="1:32" ht="16">
-      <c r="A669" s="51"/>
+      <c r="A669" s="53"/>
       <c r="B669" s="7"/>
       <c r="C669" s="8"/>
       <c r="D669" s="9"/>
@@ -26026,7 +26050,7 @@
       <c r="AF669" s="7"/>
     </row>
     <row r="670" spans="1:32" ht="16">
-      <c r="A670" s="51"/>
+      <c r="A670" s="53"/>
       <c r="B670" s="7"/>
       <c r="C670" s="8"/>
       <c r="D670" s="9"/>
@@ -26060,7 +26084,7 @@
       <c r="AF670" s="7"/>
     </row>
     <row r="671" spans="1:32" ht="16">
-      <c r="A671" s="51"/>
+      <c r="A671" s="53"/>
       <c r="B671" s="7"/>
       <c r="C671" s="8"/>
       <c r="D671" s="9"/>
@@ -26094,7 +26118,7 @@
       <c r="AF671" s="7"/>
     </row>
     <row r="672" spans="1:32" ht="16">
-      <c r="A672" s="51"/>
+      <c r="A672" s="53"/>
       <c r="B672" s="7"/>
       <c r="C672" s="8"/>
       <c r="D672" s="9"/>
@@ -26128,7 +26152,7 @@
       <c r="AF672" s="7"/>
     </row>
     <row r="673" spans="1:32" ht="16">
-      <c r="A673" s="51"/>
+      <c r="A673" s="53"/>
       <c r="B673" s="7"/>
       <c r="C673" s="8"/>
       <c r="D673" s="9"/>
@@ -26162,7 +26186,7 @@
       <c r="AF673" s="7"/>
     </row>
     <row r="674" spans="1:32" ht="16">
-      <c r="A674" s="51"/>
+      <c r="A674" s="53"/>
       <c r="B674" s="7"/>
       <c r="C674" s="8"/>
       <c r="D674" s="9"/>
@@ -26196,7 +26220,7 @@
       <c r="AF674" s="7"/>
     </row>
     <row r="675" spans="1:32" ht="16">
-      <c r="A675" s="51"/>
+      <c r="A675" s="53"/>
       <c r="B675" s="7"/>
       <c r="C675" s="8"/>
       <c r="D675" s="9"/>
@@ -26230,7 +26254,7 @@
       <c r="AF675" s="7"/>
     </row>
     <row r="676" spans="1:32" ht="16">
-      <c r="A676" s="51"/>
+      <c r="A676" s="53"/>
       <c r="B676" s="7"/>
       <c r="C676" s="8"/>
       <c r="D676" s="9"/>
@@ -26264,7 +26288,7 @@
       <c r="AF676" s="7"/>
     </row>
     <row r="677" spans="1:32" ht="16">
-      <c r="A677" s="51"/>
+      <c r="A677" s="53"/>
       <c r="B677" s="7"/>
       <c r="C677" s="8"/>
       <c r="D677" s="9"/>
@@ -26298,7 +26322,7 @@
       <c r="AF677" s="7"/>
     </row>
     <row r="678" spans="1:32" ht="16">
-      <c r="A678" s="51"/>
+      <c r="A678" s="53"/>
       <c r="B678" s="7"/>
       <c r="C678" s="8"/>
       <c r="D678" s="9"/>
@@ -26332,7 +26356,7 @@
       <c r="AF678" s="7"/>
     </row>
     <row r="679" spans="1:32" ht="16">
-      <c r="A679" s="51"/>
+      <c r="A679" s="53"/>
       <c r="B679" s="7"/>
       <c r="C679" s="8"/>
       <c r="D679" s="9"/>
@@ -26366,7 +26390,7 @@
       <c r="AF679" s="7"/>
     </row>
     <row r="680" spans="1:32" ht="16">
-      <c r="A680" s="51"/>
+      <c r="A680" s="53"/>
       <c r="B680" s="7"/>
       <c r="C680" s="8"/>
       <c r="D680" s="9"/>
@@ -26400,7 +26424,7 @@
       <c r="AF680" s="7"/>
     </row>
     <row r="681" spans="1:32" ht="16">
-      <c r="A681" s="51"/>
+      <c r="A681" s="53"/>
       <c r="B681" s="7"/>
       <c r="C681" s="8"/>
       <c r="D681" s="9"/>
@@ -26434,7 +26458,7 @@
       <c r="AF681" s="7"/>
     </row>
     <row r="682" spans="1:32" ht="16">
-      <c r="A682" s="51"/>
+      <c r="A682" s="53"/>
       <c r="B682" s="7"/>
       <c r="C682" s="8"/>
       <c r="D682" s="9"/>
@@ -26468,7 +26492,7 @@
       <c r="AF682" s="7"/>
     </row>
     <row r="683" spans="1:32" ht="16">
-      <c r="A683" s="51"/>
+      <c r="A683" s="53"/>
       <c r="B683" s="7"/>
       <c r="C683" s="8"/>
       <c r="D683" s="9"/>
@@ -26502,7 +26526,7 @@
       <c r="AF683" s="7"/>
     </row>
     <row r="684" spans="1:32" ht="16">
-      <c r="A684" s="51"/>
+      <c r="A684" s="53"/>
       <c r="B684" s="7"/>
       <c r="C684" s="8"/>
       <c r="D684" s="9"/>
@@ -26536,7 +26560,7 @@
       <c r="AF684" s="7"/>
     </row>
     <row r="685" spans="1:32" ht="16">
-      <c r="A685" s="51"/>
+      <c r="A685" s="53"/>
       <c r="B685" s="7"/>
       <c r="C685" s="8"/>
       <c r="D685" s="9"/>
@@ -26570,7 +26594,7 @@
       <c r="AF685" s="7"/>
     </row>
     <row r="686" spans="1:32" ht="16">
-      <c r="A686" s="51"/>
+      <c r="A686" s="53"/>
       <c r="B686" s="7"/>
       <c r="C686" s="8"/>
       <c r="D686" s="9"/>
@@ -26604,7 +26628,7 @@
       <c r="AF686" s="7"/>
     </row>
     <row r="687" spans="1:32" ht="16">
-      <c r="A687" s="51"/>
+      <c r="A687" s="53"/>
       <c r="B687" s="7"/>
       <c r="C687" s="8"/>
       <c r="D687" s="9"/>
@@ -26638,7 +26662,7 @@
       <c r="AF687" s="7"/>
     </row>
     <row r="688" spans="1:32" ht="16">
-      <c r="A688" s="51"/>
+      <c r="A688" s="53"/>
       <c r="B688" s="7"/>
       <c r="C688" s="8"/>
       <c r="D688" s="9"/>
@@ -26672,7 +26696,7 @@
       <c r="AF688" s="7"/>
     </row>
     <row r="689" spans="1:32" ht="16">
-      <c r="A689" s="51"/>
+      <c r="A689" s="53"/>
       <c r="B689" s="7"/>
       <c r="C689" s="8"/>
       <c r="D689" s="9"/>
@@ -26706,7 +26730,7 @@
       <c r="AF689" s="7"/>
     </row>
     <row r="690" spans="1:32" ht="16">
-      <c r="A690" s="51"/>
+      <c r="A690" s="53"/>
       <c r="B690" s="7"/>
       <c r="C690" s="8"/>
       <c r="D690" s="9"/>
@@ -26740,7 +26764,7 @@
       <c r="AF690" s="7"/>
     </row>
     <row r="691" spans="1:32" ht="16">
-      <c r="A691" s="51"/>
+      <c r="A691" s="53"/>
       <c r="B691" s="7"/>
       <c r="C691" s="8"/>
       <c r="D691" s="9"/>
@@ -26774,7 +26798,7 @@
       <c r="AF691" s="7"/>
     </row>
     <row r="692" spans="1:32" ht="16">
-      <c r="A692" s="51"/>
+      <c r="A692" s="53"/>
       <c r="B692" s="7"/>
       <c r="C692" s="8"/>
       <c r="D692" s="9"/>
@@ -26808,7 +26832,7 @@
       <c r="AF692" s="7"/>
     </row>
     <row r="693" spans="1:32" ht="16">
-      <c r="A693" s="51"/>
+      <c r="A693" s="53"/>
       <c r="B693" s="7"/>
       <c r="C693" s="8"/>
       <c r="D693" s="9"/>
@@ -26842,7 +26866,7 @@
       <c r="AF693" s="7"/>
     </row>
     <row r="694" spans="1:32" ht="16">
-      <c r="A694" s="51"/>
+      <c r="A694" s="53"/>
       <c r="B694" s="7"/>
       <c r="C694" s="8"/>
       <c r="D694" s="9"/>
@@ -26876,7 +26900,7 @@
       <c r="AF694" s="7"/>
     </row>
     <row r="695" spans="1:32" ht="16">
-      <c r="A695" s="51"/>
+      <c r="A695" s="53"/>
       <c r="B695" s="7"/>
       <c r="C695" s="8"/>
       <c r="D695" s="9"/>
@@ -26910,7 +26934,7 @@
       <c r="AF695" s="7"/>
     </row>
     <row r="696" spans="1:32" ht="16">
-      <c r="A696" s="51"/>
+      <c r="A696" s="53"/>
       <c r="B696" s="7"/>
       <c r="C696" s="8"/>
       <c r="D696" s="9"/>
@@ -26944,7 +26968,7 @@
       <c r="AF696" s="7"/>
     </row>
     <row r="697" spans="1:32" ht="16">
-      <c r="A697" s="51"/>
+      <c r="A697" s="53"/>
       <c r="B697" s="7"/>
       <c r="C697" s="8"/>
       <c r="D697" s="9"/>
@@ -26978,7 +27002,7 @@
       <c r="AF697" s="7"/>
     </row>
     <row r="698" spans="1:32" ht="16">
-      <c r="A698" s="51"/>
+      <c r="A698" s="53"/>
       <c r="B698" s="7"/>
       <c r="C698" s="8"/>
       <c r="D698" s="9"/>
@@ -27012,7 +27036,7 @@
       <c r="AF698" s="7"/>
     </row>
     <row r="699" spans="1:32" ht="16">
-      <c r="A699" s="51"/>
+      <c r="A699" s="53"/>
       <c r="B699" s="7"/>
       <c r="C699" s="8"/>
       <c r="D699" s="9"/>
@@ -27046,7 +27070,7 @@
       <c r="AF699" s="7"/>
     </row>
     <row r="700" spans="1:32" ht="16">
-      <c r="A700" s="51"/>
+      <c r="A700" s="53"/>
       <c r="B700" s="7"/>
       <c r="C700" s="8"/>
       <c r="D700" s="9"/>
@@ -27080,7 +27104,7 @@
       <c r="AF700" s="7"/>
     </row>
     <row r="701" spans="1:32" ht="16">
-      <c r="A701" s="51"/>
+      <c r="A701" s="53"/>
       <c r="B701" s="7"/>
       <c r="C701" s="8"/>
       <c r="D701" s="9"/>
@@ -27114,7 +27138,7 @@
       <c r="AF701" s="7"/>
     </row>
     <row r="702" spans="1:32" ht="16">
-      <c r="A702" s="51"/>
+      <c r="A702" s="53"/>
       <c r="B702" s="7"/>
       <c r="C702" s="8"/>
       <c r="D702" s="9"/>
@@ -27148,7 +27172,7 @@
       <c r="AF702" s="7"/>
     </row>
     <row r="703" spans="1:32" ht="16">
-      <c r="A703" s="51"/>
+      <c r="A703" s="53"/>
       <c r="B703" s="7"/>
       <c r="C703" s="8"/>
       <c r="D703" s="9"/>
@@ -27182,7 +27206,7 @@
       <c r="AF703" s="7"/>
     </row>
     <row r="704" spans="1:32" ht="16">
-      <c r="A704" s="51"/>
+      <c r="A704" s="53"/>
       <c r="B704" s="7"/>
       <c r="C704" s="8"/>
       <c r="D704" s="9"/>
@@ -27216,7 +27240,7 @@
       <c r="AF704" s="7"/>
     </row>
     <row r="705" spans="1:32" ht="16">
-      <c r="A705" s="51"/>
+      <c r="A705" s="53"/>
       <c r="B705" s="7"/>
       <c r="C705" s="8"/>
       <c r="D705" s="9"/>
@@ -27250,7 +27274,7 @@
       <c r="AF705" s="7"/>
     </row>
     <row r="706" spans="1:32" ht="16">
-      <c r="A706" s="51"/>
+      <c r="A706" s="53"/>
       <c r="B706" s="7"/>
       <c r="C706" s="8"/>
       <c r="D706" s="9"/>
@@ -27284,7 +27308,7 @@
       <c r="AF706" s="7"/>
     </row>
     <row r="707" spans="1:32" ht="16">
-      <c r="A707" s="51"/>
+      <c r="A707" s="53"/>
       <c r="B707" s="7"/>
       <c r="C707" s="8"/>
       <c r="D707" s="9"/>
@@ -27318,7 +27342,7 @@
       <c r="AF707" s="7"/>
     </row>
     <row r="708" spans="1:32" ht="16">
-      <c r="A708" s="51"/>
+      <c r="A708" s="53"/>
       <c r="B708" s="7"/>
       <c r="C708" s="8"/>
       <c r="D708" s="9"/>
@@ -27352,7 +27376,7 @@
       <c r="AF708" s="7"/>
     </row>
     <row r="709" spans="1:32" ht="16">
-      <c r="A709" s="51"/>
+      <c r="A709" s="53"/>
       <c r="B709" s="7"/>
       <c r="C709" s="8"/>
       <c r="D709" s="9"/>
@@ -27386,7 +27410,7 @@
       <c r="AF709" s="7"/>
     </row>
     <row r="710" spans="1:32" ht="16">
-      <c r="A710" s="51"/>
+      <c r="A710" s="53"/>
       <c r="B710" s="7"/>
       <c r="C710" s="8"/>
       <c r="D710" s="9"/>
@@ -27420,7 +27444,7 @@
       <c r="AF710" s="7"/>
     </row>
     <row r="711" spans="1:32" ht="16">
-      <c r="A711" s="51"/>
+      <c r="A711" s="53"/>
       <c r="B711" s="7"/>
       <c r="C711" s="8"/>
       <c r="D711" s="9"/>
@@ -27454,7 +27478,7 @@
       <c r="AF711" s="7"/>
     </row>
     <row r="712" spans="1:32" ht="16">
-      <c r="A712" s="51"/>
+      <c r="A712" s="53"/>
       <c r="B712" s="7"/>
       <c r="C712" s="8"/>
       <c r="D712" s="9"/>
@@ -27488,7 +27512,7 @@
       <c r="AF712" s="7"/>
     </row>
     <row r="713" spans="1:32" ht="16">
-      <c r="A713" s="51"/>
+      <c r="A713" s="53"/>
       <c r="B713" s="7"/>
       <c r="C713" s="8"/>
       <c r="D713" s="9"/>
@@ -27522,7 +27546,7 @@
       <c r="AF713" s="7"/>
     </row>
     <row r="714" spans="1:32" ht="16">
-      <c r="A714" s="51"/>
+      <c r="A714" s="53"/>
       <c r="B714" s="7"/>
       <c r="C714" s="8"/>
       <c r="D714" s="9"/>
@@ -27556,7 +27580,7 @@
       <c r="AF714" s="7"/>
     </row>
     <row r="715" spans="1:32" ht="16">
-      <c r="A715" s="51"/>
+      <c r="A715" s="53"/>
       <c r="B715" s="7"/>
       <c r="C715" s="8"/>
       <c r="D715" s="9"/>
@@ -27590,7 +27614,7 @@
       <c r="AF715" s="7"/>
     </row>
     <row r="716" spans="1:32" ht="16">
-      <c r="A716" s="51"/>
+      <c r="A716" s="53"/>
       <c r="B716" s="7"/>
       <c r="C716" s="8"/>
       <c r="D716" s="9"/>
@@ -27624,7 +27648,7 @@
       <c r="AF716" s="7"/>
     </row>
     <row r="717" spans="1:32" ht="16">
-      <c r="A717" s="51"/>
+      <c r="A717" s="53"/>
       <c r="B717" s="7"/>
       <c r="C717" s="8"/>
       <c r="D717" s="9"/>
@@ -27658,7 +27682,7 @@
       <c r="AF717" s="7"/>
     </row>
     <row r="718" spans="1:32" ht="16">
-      <c r="A718" s="51"/>
+      <c r="A718" s="53"/>
       <c r="B718" s="7"/>
       <c r="C718" s="8"/>
       <c r="D718" s="9"/>
@@ -27692,7 +27716,7 @@
       <c r="AF718" s="7"/>
     </row>
     <row r="719" spans="1:32" ht="16">
-      <c r="A719" s="51"/>
+      <c r="A719" s="53"/>
       <c r="B719" s="7"/>
       <c r="C719" s="8"/>
       <c r="D719" s="9"/>
@@ -27726,7 +27750,7 @@
       <c r="AF719" s="7"/>
     </row>
     <row r="720" spans="1:32" ht="16">
-      <c r="A720" s="51"/>
+      <c r="A720" s="53"/>
       <c r="B720" s="7"/>
       <c r="C720" s="8"/>
       <c r="D720" s="9"/>
@@ -27760,7 +27784,7 @@
       <c r="AF720" s="7"/>
     </row>
     <row r="721" spans="1:32" ht="16">
-      <c r="A721" s="51"/>
+      <c r="A721" s="53"/>
       <c r="B721" s="7"/>
       <c r="C721" s="8"/>
       <c r="D721" s="9"/>
@@ -27794,7 +27818,7 @@
       <c r="AF721" s="7"/>
     </row>
     <row r="722" spans="1:32" ht="16">
-      <c r="A722" s="51"/>
+      <c r="A722" s="53"/>
       <c r="B722" s="7"/>
       <c r="C722" s="8"/>
       <c r="D722" s="9"/>
@@ -27828,7 +27852,7 @@
       <c r="AF722" s="7"/>
     </row>
     <row r="723" spans="1:32" ht="16">
-      <c r="A723" s="51"/>
+      <c r="A723" s="53"/>
       <c r="B723" s="7"/>
       <c r="C723" s="8"/>
       <c r="D723" s="9"/>
@@ -27862,7 +27886,7 @@
       <c r="AF723" s="7"/>
     </row>
     <row r="724" spans="1:32" ht="16">
-      <c r="A724" s="51"/>
+      <c r="A724" s="53"/>
       <c r="B724" s="7"/>
       <c r="C724" s="8"/>
       <c r="D724" s="9"/>
@@ -27896,7 +27920,7 @@
       <c r="AF724" s="7"/>
     </row>
     <row r="725" spans="1:32" ht="16">
-      <c r="A725" s="51"/>
+      <c r="A725" s="53"/>
       <c r="B725" s="7"/>
       <c r="C725" s="8"/>
       <c r="D725" s="9"/>
@@ -27930,7 +27954,7 @@
       <c r="AF725" s="7"/>
     </row>
     <row r="726" spans="1:32" ht="16">
-      <c r="A726" s="51"/>
+      <c r="A726" s="53"/>
       <c r="B726" s="7"/>
       <c r="C726" s="8"/>
       <c r="D726" s="9"/>
@@ -27964,7 +27988,7 @@
       <c r="AF726" s="7"/>
     </row>
     <row r="727" spans="1:32" ht="16">
-      <c r="A727" s="51"/>
+      <c r="A727" s="53"/>
       <c r="B727" s="7"/>
       <c r="C727" s="8"/>
       <c r="D727" s="9"/>
@@ -27998,7 +28022,7 @@
       <c r="AF727" s="7"/>
     </row>
     <row r="728" spans="1:32" ht="16">
-      <c r="A728" s="51"/>
+      <c r="A728" s="53"/>
       <c r="B728" s="7"/>
       <c r="C728" s="8"/>
       <c r="D728" s="9"/>
@@ -28032,7 +28056,7 @@
       <c r="AF728" s="7"/>
     </row>
     <row r="729" spans="1:32" ht="16">
-      <c r="A729" s="51"/>
+      <c r="A729" s="53"/>
       <c r="B729" s="7"/>
       <c r="C729" s="8"/>
       <c r="D729" s="9"/>
@@ -28066,7 +28090,7 @@
       <c r="AF729" s="7"/>
     </row>
     <row r="730" spans="1:32" ht="16">
-      <c r="A730" s="51"/>
+      <c r="A730" s="53"/>
       <c r="B730" s="7"/>
       <c r="C730" s="8"/>
       <c r="D730" s="9"/>
@@ -28100,7 +28124,7 @@
       <c r="AF730" s="7"/>
     </row>
     <row r="731" spans="1:32" ht="16">
-      <c r="A731" s="51"/>
+      <c r="A731" s="53"/>
       <c r="B731" s="7"/>
       <c r="C731" s="8"/>
       <c r="D731" s="9"/>
@@ -28134,7 +28158,7 @@
       <c r="AF731" s="7"/>
     </row>
     <row r="732" spans="1:32" ht="16">
-      <c r="A732" s="51"/>
+      <c r="A732" s="53"/>
       <c r="B732" s="7"/>
       <c r="C732" s="8"/>
       <c r="D732" s="9"/>
@@ -28168,7 +28192,7 @@
       <c r="AF732" s="7"/>
     </row>
     <row r="733" spans="1:32" ht="16">
-      <c r="A733" s="51"/>
+      <c r="A733" s="53"/>
       <c r="B733" s="7"/>
       <c r="C733" s="8"/>
       <c r="D733" s="9"/>
@@ -28202,7 +28226,7 @@
       <c r="AF733" s="7"/>
     </row>
     <row r="734" spans="1:32" ht="16">
-      <c r="A734" s="51"/>
+      <c r="A734" s="53"/>
       <c r="B734" s="7"/>
       <c r="C734" s="8"/>
       <c r="D734" s="9"/>
@@ -28236,7 +28260,7 @@
       <c r="AF734" s="7"/>
     </row>
     <row r="735" spans="1:32" ht="16">
-      <c r="A735" s="51"/>
+      <c r="A735" s="53"/>
       <c r="B735" s="7"/>
       <c r="C735" s="8"/>
       <c r="D735" s="9"/>
@@ -28270,7 +28294,7 @@
       <c r="AF735" s="7"/>
     </row>
     <row r="736" spans="1:32" ht="16">
-      <c r="A736" s="51"/>
+      <c r="A736" s="53"/>
       <c r="B736" s="7"/>
       <c r="C736" s="8"/>
       <c r="D736" s="9"/>
@@ -28304,7 +28328,7 @@
       <c r="AF736" s="7"/>
     </row>
     <row r="737" spans="1:32" ht="16">
-      <c r="A737" s="51"/>
+      <c r="A737" s="53"/>
       <c r="B737" s="7"/>
       <c r="C737" s="8"/>
       <c r="D737" s="9"/>
@@ -28338,7 +28362,7 @@
       <c r="AF737" s="7"/>
     </row>
     <row r="738" spans="1:32" ht="16">
-      <c r="A738" s="51"/>
+      <c r="A738" s="53"/>
       <c r="B738" s="7"/>
       <c r="C738" s="8"/>
       <c r="D738" s="9"/>
@@ -28372,7 +28396,7 @@
       <c r="AF738" s="7"/>
     </row>
     <row r="739" spans="1:32" ht="16">
-      <c r="A739" s="51"/>
+      <c r="A739" s="53"/>
       <c r="B739" s="7"/>
       <c r="C739" s="8"/>
       <c r="D739" s="9"/>
@@ -28406,7 +28430,7 @@
       <c r="AF739" s="7"/>
     </row>
     <row r="740" spans="1:32" ht="16">
-      <c r="A740" s="51"/>
+      <c r="A740" s="53"/>
       <c r="B740" s="7"/>
       <c r="C740" s="8"/>
       <c r="D740" s="9"/>
@@ -28440,7 +28464,7 @@
       <c r="AF740" s="7"/>
     </row>
     <row r="741" spans="1:32" ht="16">
-      <c r="A741" s="51"/>
+      <c r="A741" s="53"/>
       <c r="B741" s="7"/>
       <c r="C741" s="8"/>
       <c r="D741" s="9"/>
@@ -28474,7 +28498,7 @@
       <c r="AF741" s="7"/>
     </row>
     <row r="742" spans="1:32" ht="16">
-      <c r="A742" s="51"/>
+      <c r="A742" s="53"/>
       <c r="B742" s="7"/>
       <c r="C742" s="8"/>
       <c r="D742" s="9"/>
@@ -28508,7 +28532,7 @@
       <c r="AF742" s="7"/>
     </row>
     <row r="743" spans="1:32" ht="16">
-      <c r="A743" s="51"/>
+      <c r="A743" s="53"/>
       <c r="B743" s="7"/>
       <c r="C743" s="8"/>
       <c r="D743" s="9"/>
@@ -28542,7 +28566,7 @@
       <c r="AF743" s="7"/>
     </row>
     <row r="744" spans="1:32" ht="16">
-      <c r="A744" s="51"/>
+      <c r="A744" s="53"/>
       <c r="B744" s="7"/>
       <c r="C744" s="8"/>
       <c r="D744" s="9"/>
@@ -28576,7 +28600,7 @@
       <c r="AF744" s="7"/>
     </row>
     <row r="745" spans="1:32" ht="16">
-      <c r="A745" s="51"/>
+      <c r="A745" s="53"/>
       <c r="B745" s="7"/>
       <c r="C745" s="8"/>
       <c r="D745" s="9"/>
@@ -28610,7 +28634,7 @@
       <c r="AF745" s="7"/>
     </row>
     <row r="746" spans="1:32" ht="16">
-      <c r="A746" s="51"/>
+      <c r="A746" s="53"/>
       <c r="B746" s="7"/>
       <c r="C746" s="8"/>
       <c r="D746" s="9"/>
@@ -28644,7 +28668,7 @@
       <c r="AF746" s="7"/>
     </row>
     <row r="747" spans="1:32" ht="16">
-      <c r="A747" s="51"/>
+      <c r="A747" s="53"/>
       <c r="B747" s="7"/>
       <c r="C747" s="8"/>
       <c r="D747" s="9"/>
@@ -28678,7 +28702,7 @@
       <c r="AF747" s="7"/>
     </row>
     <row r="748" spans="1:32" ht="16">
-      <c r="A748" s="51"/>
+      <c r="A748" s="53"/>
       <c r="B748" s="7"/>
       <c r="C748" s="8"/>
       <c r="D748" s="9"/>
@@ -28712,7 +28736,7 @@
       <c r="AF748" s="7"/>
     </row>
     <row r="749" spans="1:32" ht="16">
-      <c r="A749" s="51"/>
+      <c r="A749" s="53"/>
       <c r="B749" s="7"/>
       <c r="C749" s="8"/>
       <c r="D749" s="9"/>
@@ -28746,7 +28770,7 @@
       <c r="AF749" s="7"/>
     </row>
     <row r="750" spans="1:32" ht="16">
-      <c r="A750" s="51"/>
+      <c r="A750" s="53"/>
       <c r="B750" s="7"/>
       <c r="C750" s="8"/>
       <c r="D750" s="9"/>
@@ -28780,7 +28804,7 @@
       <c r="AF750" s="7"/>
     </row>
     <row r="751" spans="1:32" ht="16">
-      <c r="A751" s="51"/>
+      <c r="A751" s="53"/>
       <c r="B751" s="7"/>
       <c r="C751" s="8"/>
       <c r="D751" s="9"/>
@@ -28814,7 +28838,7 @@
       <c r="AF751" s="7"/>
     </row>
     <row r="752" spans="1:32" ht="16">
-      <c r="A752" s="51"/>
+      <c r="A752" s="53"/>
       <c r="B752" s="7"/>
       <c r="C752" s="8"/>
       <c r="D752" s="9"/>
@@ -28848,7 +28872,7 @@
       <c r="AF752" s="7"/>
     </row>
     <row r="753" spans="1:32" ht="16">
-      <c r="A753" s="51"/>
+      <c r="A753" s="53"/>
       <c r="B753" s="7"/>
       <c r="C753" s="8"/>
       <c r="D753" s="9"/>
@@ -28882,7 +28906,7 @@
       <c r="AF753" s="7"/>
     </row>
     <row r="754" spans="1:32" ht="16">
-      <c r="A754" s="51"/>
+      <c r="A754" s="53"/>
       <c r="B754" s="7"/>
       <c r="C754" s="8"/>
       <c r="D754" s="9"/>
@@ -28916,7 +28940,7 @@
       <c r="AF754" s="7"/>
     </row>
     <row r="755" spans="1:32" ht="16">
-      <c r="A755" s="51"/>
+      <c r="A755" s="53"/>
       <c r="B755" s="7"/>
       <c r="C755" s="8"/>
       <c r="D755" s="9"/>
@@ -28950,7 +28974,7 @@
       <c r="AF755" s="7"/>
     </row>
     <row r="756" spans="1:32" ht="16">
-      <c r="A756" s="51"/>
+      <c r="A756" s="53"/>
       <c r="B756" s="7"/>
       <c r="C756" s="8"/>
       <c r="D756" s="9"/>
@@ -28984,7 +29008,7 @@
       <c r="AF756" s="7"/>
     </row>
     <row r="757" spans="1:32" ht="16">
-      <c r="A757" s="51"/>
+      <c r="A757" s="53"/>
       <c r="B757" s="7"/>
       <c r="C757" s="8"/>
       <c r="D757" s="9"/>
@@ -29018,7 +29042,7 @@
       <c r="AF757" s="7"/>
     </row>
     <row r="758" spans="1:32" ht="16">
-      <c r="A758" s="51"/>
+      <c r="A758" s="53"/>
       <c r="B758" s="7"/>
       <c r="C758" s="8"/>
       <c r="D758" s="9"/>
@@ -29052,7 +29076,7 @@
       <c r="AF758" s="7"/>
     </row>
     <row r="759" spans="1:32" ht="16">
-      <c r="A759" s="51"/>
+      <c r="A759" s="53"/>
       <c r="B759" s="7"/>
       <c r="C759" s="8"/>
       <c r="D759" s="9"/>
@@ -29086,7 +29110,7 @@
       <c r="AF759" s="7"/>
     </row>
     <row r="760" spans="1:32" ht="16">
-      <c r="A760" s="51"/>
+      <c r="A760" s="53"/>
       <c r="B760" s="7"/>
       <c r="C760" s="8"/>
       <c r="D760" s="9"/>
@@ -29120,7 +29144,7 @@
       <c r="AF760" s="7"/>
     </row>
     <row r="761" spans="1:32" ht="16">
-      <c r="A761" s="51"/>
+      <c r="A761" s="53"/>
       <c r="B761" s="7"/>
       <c r="C761" s="8"/>
       <c r="D761" s="9"/>
@@ -29154,7 +29178,7 @@
       <c r="AF761" s="7"/>
     </row>
     <row r="762" spans="1:32" ht="16">
-      <c r="A762" s="51"/>
+      <c r="A762" s="53"/>
       <c r="B762" s="7"/>
       <c r="C762" s="8"/>
       <c r="D762" s="9"/>
@@ -29188,7 +29212,7 @@
       <c r="AF762" s="7"/>
     </row>
     <row r="763" spans="1:32" ht="16">
-      <c r="A763" s="51"/>
+      <c r="A763" s="53"/>
       <c r="B763" s="7"/>
       <c r="C763" s="8"/>
       <c r="D763" s="9"/>
@@ -29222,7 +29246,7 @@
       <c r="AF763" s="7"/>
     </row>
     <row r="764" spans="1:32" ht="16">
-      <c r="A764" s="51"/>
+      <c r="A764" s="53"/>
       <c r="B764" s="7"/>
       <c r="C764" s="8"/>
       <c r="D764" s="9"/>
@@ -29256,7 +29280,7 @@
       <c r="AF764" s="7"/>
     </row>
     <row r="765" spans="1:32" ht="16">
-      <c r="A765" s="51"/>
+      <c r="A765" s="53"/>
       <c r="B765" s="7"/>
       <c r="C765" s="8"/>
       <c r="D765" s="9"/>
@@ -29290,7 +29314,7 @@
       <c r="AF765" s="7"/>
     </row>
     <row r="766" spans="1:32" ht="16">
-      <c r="A766" s="51"/>
+      <c r="A766" s="53"/>
       <c r="B766" s="7"/>
       <c r="C766" s="8"/>
       <c r="D766" s="9"/>
@@ -29324,7 +29348,7 @@
       <c r="AF766" s="7"/>
     </row>
     <row r="767" spans="1:32" ht="16">
-      <c r="A767" s="51"/>
+      <c r="A767" s="53"/>
       <c r="B767" s="7"/>
       <c r="C767" s="8"/>
       <c r="D767" s="9"/>
@@ -29358,7 +29382,7 @@
       <c r="AF767" s="7"/>
     </row>
     <row r="768" spans="1:32" ht="16">
-      <c r="A768" s="51"/>
+      <c r="A768" s="53"/>
       <c r="B768" s="7"/>
       <c r="C768" s="8"/>
       <c r="D768" s="9"/>
@@ -29392,7 +29416,7 @@
       <c r="AF768" s="7"/>
     </row>
     <row r="769" spans="1:32" ht="16">
-      <c r="A769" s="51"/>
+      <c r="A769" s="53"/>
       <c r="B769" s="7"/>
       <c r="C769" s="8"/>
       <c r="D769" s="9"/>
@@ -29426,7 +29450,7 @@
       <c r="AF769" s="7"/>
     </row>
     <row r="770" spans="1:32" ht="16">
-      <c r="A770" s="51"/>
+      <c r="A770" s="53"/>
       <c r="B770" s="7"/>
       <c r="C770" s="8"/>
       <c r="D770" s="9"/>
@@ -29460,7 +29484,7 @@
       <c r="AF770" s="7"/>
     </row>
     <row r="771" spans="1:32" ht="16">
-      <c r="A771" s="51"/>
+      <c r="A771" s="53"/>
       <c r="B771" s="7"/>
       <c r="C771" s="8"/>
       <c r="D771" s="9"/>
@@ -29494,7 +29518,7 @@
       <c r="AF771" s="7"/>
     </row>
     <row r="772" spans="1:32" ht="16">
-      <c r="A772" s="51"/>
+      <c r="A772" s="53"/>
       <c r="B772" s="7"/>
       <c r="C772" s="8"/>
       <c r="D772" s="9"/>
@@ -29528,7 +29552,7 @@
       <c r="AF772" s="7"/>
     </row>
     <row r="773" spans="1:32" ht="16">
-      <c r="A773" s="51"/>
+      <c r="A773" s="53"/>
       <c r="B773" s="7"/>
       <c r="C773" s="8"/>
       <c r="D773" s="9"/>
@@ -29562,7 +29586,7 @@
       <c r="AF773" s="7"/>
     </row>
     <row r="774" spans="1:32" ht="16">
-      <c r="A774" s="51"/>
+      <c r="A774" s="53"/>
       <c r="B774" s="7"/>
       <c r="C774" s="8"/>
       <c r="D774" s="9"/>
@@ -29596,7 +29620,7 @@
       <c r="AF774" s="7"/>
     </row>
     <row r="775" spans="1:32" ht="16">
-      <c r="A775" s="51"/>
+      <c r="A775" s="53"/>
       <c r="B775" s="7"/>
       <c r="C775" s="8"/>
       <c r="D775" s="9"/>
@@ -29630,7 +29654,7 @@
       <c r="AF775" s="7"/>
     </row>
     <row r="776" spans="1:32" ht="16">
-      <c r="A776" s="51"/>
+      <c r="A776" s="53"/>
       <c r="B776" s="7"/>
       <c r="C776" s="8"/>
       <c r="D776" s="9"/>
@@ -29664,7 +29688,7 @@
       <c r="AF776" s="7"/>
     </row>
     <row r="777" spans="1:32" ht="16">
-      <c r="A777" s="51"/>
+      <c r="A777" s="53"/>
       <c r="B777" s="7"/>
       <c r="C777" s="8"/>
       <c r="D777" s="9"/>
@@ -29698,7 +29722,7 @@
       <c r="AF777" s="7"/>
     </row>
     <row r="778" spans="1:32" ht="16">
-      <c r="A778" s="51"/>
+      <c r="A778" s="53"/>
       <c r="B778" s="7"/>
       <c r="C778" s="8"/>
       <c r="D778" s="9"/>
@@ -29732,7 +29756,7 @@
       <c r="AF778" s="7"/>
     </row>
     <row r="779" spans="1:32" ht="16">
-      <c r="A779" s="51"/>
+      <c r="A779" s="53"/>
       <c r="B779" s="7"/>
       <c r="C779" s="8"/>
       <c r="D779" s="9"/>
@@ -29766,7 +29790,7 @@
       <c r="AF779" s="7"/>
     </row>
     <row r="780" spans="1:32" ht="16">
-      <c r="A780" s="51"/>
+      <c r="A780" s="53"/>
       <c r="B780" s="7"/>
       <c r="C780" s="8"/>
       <c r="D780" s="9"/>
@@ -29800,7 +29824,7 @@
       <c r="AF780" s="7"/>
     </row>
     <row r="781" spans="1:32" ht="16">
-      <c r="A781" s="51"/>
+      <c r="A781" s="53"/>
       <c r="B781" s="7"/>
       <c r="C781" s="8"/>
       <c r="D781" s="9"/>
@@ -29834,7 +29858,7 @@
       <c r="AF781" s="7"/>
     </row>
     <row r="782" spans="1:32" ht="16">
-      <c r="A782" s="51"/>
+      <c r="A782" s="53"/>
       <c r="B782" s="7"/>
       <c r="C782" s="8"/>
       <c r="D782" s="9"/>
@@ -29868,7 +29892,7 @@
       <c r="AF782" s="7"/>
     </row>
     <row r="783" spans="1:32" ht="16">
-      <c r="A783" s="51"/>
+      <c r="A783" s="53"/>
       <c r="B783" s="7"/>
       <c r="C783" s="8"/>
       <c r="D783" s="9"/>
@@ -29902,7 +29926,7 @@
       <c r="AF783" s="7"/>
     </row>
     <row r="784" spans="1:32" ht="16">
-      <c r="A784" s="51"/>
+      <c r="A784" s="53"/>
       <c r="B784" s="7"/>
       <c r="C784" s="8"/>
       <c r="D784" s="9"/>
@@ -29936,7 +29960,7 @@
       <c r="AF784" s="7"/>
     </row>
     <row r="785" spans="1:32" ht="16">
-      <c r="A785" s="51"/>
+      <c r="A785" s="53"/>
       <c r="B785" s="7"/>
       <c r="C785" s="8"/>
       <c r="D785" s="9"/>
@@ -29970,7 +29994,7 @@
       <c r="AF785" s="7"/>
     </row>
     <row r="786" spans="1:32" ht="16">
-      <c r="A786" s="51"/>
+      <c r="A786" s="53"/>
       <c r="B786" s="7"/>
       <c r="C786" s="8"/>
       <c r="D786" s="9"/>
@@ -30004,7 +30028,7 @@
       <c r="AF786" s="7"/>
     </row>
     <row r="787" spans="1:32" ht="16">
-      <c r="A787" s="51"/>
+      <c r="A787" s="53"/>
       <c r="B787" s="7"/>
       <c r="C787" s="8"/>
       <c r="D787" s="9"/>
@@ -30038,7 +30062,7 @@
       <c r="AF787" s="7"/>
     </row>
     <row r="788" spans="1:32" ht="16">
-      <c r="A788" s="51"/>
+      <c r="A788" s="53"/>
       <c r="B788" s="7"/>
       <c r="C788" s="8"/>
       <c r="D788" s="9"/>
@@ -30072,7 +30096,7 @@
       <c r="AF788" s="7"/>
     </row>
     <row r="789" spans="1:32" ht="16">
-      <c r="A789" s="51"/>
+      <c r="A789" s="53"/>
       <c r="B789" s="7"/>
       <c r="C789" s="8"/>
       <c r="D789" s="9"/>
@@ -30106,7 +30130,7 @@
       <c r="AF789" s="7"/>
     </row>
     <row r="790" spans="1:32" ht="16">
-      <c r="A790" s="51"/>
+      <c r="A790" s="53"/>
       <c r="B790" s="7"/>
       <c r="C790" s="8"/>
       <c r="D790" s="9"/>
@@ -30140,7 +30164,7 @@
       <c r="AF790" s="7"/>
     </row>
     <row r="791" spans="1:32" ht="16">
-      <c r="A791" s="51"/>
+      <c r="A791" s="53"/>
       <c r="B791" s="7"/>
       <c r="C791" s="8"/>
       <c r="D791" s="9"/>
@@ -30174,7 +30198,7 @@
       <c r="AF791" s="7"/>
     </row>
     <row r="792" spans="1:32" ht="16">
-      <c r="A792" s="51"/>
+      <c r="A792" s="53"/>
       <c r="B792" s="7"/>
       <c r="C792" s="8"/>
       <c r="D792" s="9"/>
@@ -30208,7 +30232,7 @@
       <c r="AF792" s="7"/>
     </row>
     <row r="793" spans="1:32" ht="16">
-      <c r="A793" s="51"/>
+      <c r="A793" s="53"/>
       <c r="B793" s="7"/>
       <c r="C793" s="8"/>
       <c r="D793" s="9"/>
@@ -30242,7 +30266,7 @@
       <c r="AF793" s="7"/>
     </row>
     <row r="794" spans="1:32" ht="16">
-      <c r="A794" s="51"/>
+      <c r="A794" s="53"/>
       <c r="B794" s="7"/>
       <c r="C794" s="8"/>
       <c r="D794" s="9"/>
@@ -30276,7 +30300,7 @@
       <c r="AF794" s="7"/>
     </row>
     <row r="795" spans="1:32" ht="16">
-      <c r="A795" s="51"/>
+      <c r="A795" s="53"/>
       <c r="B795" s="7"/>
       <c r="C795" s="8"/>
       <c r="D795" s="9"/>
@@ -30310,7 +30334,7 @@
       <c r="AF795" s="7"/>
     </row>
     <row r="796" spans="1:32" ht="16">
-      <c r="A796" s="51"/>
+      <c r="A796" s="53"/>
       <c r="B796" s="7"/>
       <c r="C796" s="8"/>
       <c r="D796" s="9"/>
@@ -30344,7 +30368,7 @@
       <c r="AF796" s="7"/>
     </row>
     <row r="797" spans="1:32" ht="16">
-      <c r="A797" s="51"/>
+      <c r="A797" s="53"/>
       <c r="B797" s="7"/>
       <c r="C797" s="8"/>
       <c r="D797" s="9"/>
@@ -30378,7 +30402,7 @@
       <c r="AF797" s="7"/>
     </row>
     <row r="798" spans="1:32" ht="16">
-      <c r="A798" s="51"/>
+      <c r="A798" s="53"/>
       <c r="B798" s="7"/>
       <c r="C798" s="8"/>
       <c r="D798" s="9"/>
@@ -30412,7 +30436,7 @@
       <c r="AF798" s="7"/>
     </row>
     <row r="799" spans="1:32" ht="16">
-      <c r="A799" s="51"/>
+      <c r="A799" s="53"/>
       <c r="B799" s="7"/>
       <c r="C799" s="8"/>
       <c r="D799" s="9"/>
@@ -30446,7 +30470,7 @@
       <c r="AF799" s="7"/>
     </row>
     <row r="800" spans="1:32" ht="16">
-      <c r="A800" s="51"/>
+      <c r="A800" s="53"/>
       <c r="B800" s="7"/>
       <c r="C800" s="8"/>
       <c r="D800" s="9"/>
@@ -30480,7 +30504,7 @@
       <c r="AF800" s="7"/>
     </row>
     <row r="801" spans="1:32" ht="16">
-      <c r="A801" s="51"/>
+      <c r="A801" s="53"/>
       <c r="B801" s="7"/>
       <c r="C801" s="8"/>
       <c r="D801" s="9"/>
@@ -30514,7 +30538,7 @@
       <c r="AF801" s="7"/>
     </row>
     <row r="802" spans="1:32" ht="16">
-      <c r="A802" s="51"/>
+      <c r="A802" s="53"/>
       <c r="B802" s="7"/>
       <c r="C802" s="8"/>
       <c r="D802" s="9"/>
@@ -30548,7 +30572,7 @@
       <c r="AF802" s="7"/>
     </row>
     <row r="803" spans="1:32" ht="16">
-      <c r="A803" s="51"/>
+      <c r="A803" s="53"/>
       <c r="B803" s="7"/>
       <c r="C803" s="8"/>
       <c r="D803" s="9"/>
@@ -30582,7 +30606,7 @@
       <c r="AF803" s="7"/>
     </row>
     <row r="804" spans="1:32" ht="16">
-      <c r="A804" s="51"/>
+      <c r="A804" s="53"/>
       <c r="B804" s="7"/>
       <c r="C804" s="8"/>
       <c r="D804" s="9"/>
@@ -30616,7 +30640,7 @@
       <c r="AF804" s="7"/>
     </row>
     <row r="805" spans="1:32" ht="16">
-      <c r="A805" s="51"/>
+      <c r="A805" s="53"/>
       <c r="B805" s="7"/>
       <c r="C805" s="8"/>
       <c r="D805" s="9"/>
@@ -30650,7 +30674,7 @@
       <c r="AF805" s="7"/>
     </row>
     <row r="806" spans="1:32" ht="16">
-      <c r="A806" s="51"/>
+      <c r="A806" s="53"/>
       <c r="B806" s="7"/>
       <c r="C806" s="8"/>
       <c r="D806" s="9"/>
@@ -30684,7 +30708,7 @@
       <c r="AF806" s="7"/>
     </row>
     <row r="807" spans="1:32" ht="16">
-      <c r="A807" s="51"/>
+      <c r="A807" s="53"/>
       <c r="B807" s="7"/>
       <c r="C807" s="8"/>
       <c r="D807" s="9"/>
@@ -30718,7 +30742,7 @@
       <c r="AF807" s="7"/>
     </row>
     <row r="808" spans="1:32" ht="16">
-      <c r="A808" s="51"/>
+      <c r="A808" s="53"/>
       <c r="B808" s="7"/>
       <c r="C808" s="8"/>
       <c r="D808" s="9"/>
@@ -30752,7 +30776,7 @@
       <c r="AF808" s="7"/>
     </row>
     <row r="809" spans="1:32" ht="16">
-      <c r="A809" s="51"/>
+      <c r="A809" s="53"/>
       <c r="B809" s="7"/>
       <c r="C809" s="8"/>
       <c r="D809" s="9"/>
@@ -30786,7 +30810,7 @@
       <c r="AF809" s="7"/>
     </row>
     <row r="810" spans="1:32" ht="16">
-      <c r="A810" s="51"/>
+      <c r="A810" s="53"/>
       <c r="B810" s="7"/>
       <c r="C810" s="8"/>
       <c r="D810" s="9"/>
@@ -30820,7 +30844,7 @@
       <c r="AF810" s="7"/>
     </row>
     <row r="811" spans="1:32" ht="16">
-      <c r="A811" s="51"/>
+      <c r="A811" s="53"/>
       <c r="B811" s="7"/>
       <c r="C811" s="8"/>
       <c r="D811" s="9"/>
@@ -30854,7 +30878,7 @@
       <c r="AF811" s="7"/>
     </row>
     <row r="812" spans="1:32" ht="16">
-      <c r="A812" s="51"/>
+      <c r="A812" s="53"/>
       <c r="B812" s="7"/>
       <c r="C812" s="8"/>
       <c r="D812" s="9"/>
@@ -30888,7 +30912,7 @@
       <c r="AF812" s="7"/>
     </row>
     <row r="813" spans="1:32" ht="16">
-      <c r="A813" s="51"/>
+      <c r="A813" s="53"/>
       <c r="B813" s="7"/>
       <c r="C813" s="8"/>
       <c r="D813" s="9"/>
@@ -30922,7 +30946,7 @@
       <c r="AF813" s="7"/>
     </row>
     <row r="814" spans="1:32" ht="16">
-      <c r="A814" s="51"/>
+      <c r="A814" s="53"/>
       <c r="B814" s="7"/>
       <c r="C814" s="8"/>
       <c r="D814" s="9"/>
@@ -30956,7 +30980,7 @@
       <c r="AF814" s="7"/>
     </row>
     <row r="815" spans="1:32" ht="16">
-      <c r="A815" s="51"/>
+      <c r="A815" s="53"/>
       <c r="B815" s="7"/>
       <c r="C815" s="8"/>
       <c r="D815" s="9"/>
@@ -30990,7 +31014,7 @@
       <c r="AF815" s="7"/>
     </row>
     <row r="816" spans="1:32" ht="16">
-      <c r="A816" s="51"/>
+      <c r="A816" s="53"/>
       <c r="B816" s="7"/>
       <c r="C816" s="8"/>
       <c r="D816" s="9"/>
@@ -31024,7 +31048,7 @@
       <c r="AF816" s="7"/>
     </row>
     <row r="817" spans="1:32" ht="16">
-      <c r="A817" s="51"/>
+      <c r="A817" s="53"/>
       <c r="B817" s="7"/>
       <c r="C817" s="8"/>
       <c r="D817" s="9"/>
@@ -31058,7 +31082,7 @@
       <c r="AF817" s="7"/>
     </row>
     <row r="818" spans="1:32" ht="16">
-      <c r="A818" s="51"/>
+      <c r="A818" s="53"/>
       <c r="B818" s="7"/>
       <c r="C818" s="8"/>
       <c r="D818" s="9"/>
@@ -31092,7 +31116,7 @@
       <c r="AF818" s="7"/>
     </row>
     <row r="819" spans="1:32" ht="16">
-      <c r="A819" s="51"/>
+      <c r="A819" s="53"/>
       <c r="B819" s="7"/>
       <c r="C819" s="8"/>
       <c r="D819" s="9"/>
@@ -31126,7 +31150,7 @@
       <c r="AF819" s="7"/>
     </row>
     <row r="820" spans="1:32" ht="16">
-      <c r="A820" s="51"/>
+      <c r="A820" s="53"/>
       <c r="B820" s="7"/>
       <c r="C820" s="8"/>
       <c r="D820" s="9"/>
@@ -31160,7 +31184,7 @@
       <c r="AF820" s="7"/>
     </row>
     <row r="821" spans="1:32" ht="16">
-      <c r="A821" s="51"/>
+      <c r="A821" s="53"/>
       <c r="B821" s="7"/>
       <c r="C821" s="8"/>
       <c r="D821" s="9"/>
@@ -31194,7 +31218,7 @@
       <c r="AF821" s="7"/>
     </row>
     <row r="822" spans="1:32" ht="16">
-      <c r="A822" s="51"/>
+      <c r="A822" s="53"/>
       <c r="B822" s="7"/>
       <c r="C822" s="8"/>
       <c r="D822" s="9"/>
@@ -31228,7 +31252,7 @@
       <c r="AF822" s="7"/>
     </row>
     <row r="823" spans="1:32" ht="16">
-      <c r="A823" s="51"/>
+      <c r="A823" s="53"/>
       <c r="B823" s="7"/>
       <c r="C823" s="8"/>
       <c r="D823" s="9"/>
@@ -31262,7 +31286,7 @@
       <c r="AF823" s="7"/>
     </row>
     <row r="824" spans="1:32" ht="16">
-      <c r="A824" s="51"/>
+      <c r="A824" s="53"/>
       <c r="B824" s="7"/>
       <c r="C824" s="8"/>
       <c r="D824" s="9"/>
@@ -31296,7 +31320,7 @@
       <c r="AF824" s="7"/>
     </row>
     <row r="825" spans="1:32" ht="16">
-      <c r="A825" s="51"/>
+      <c r="A825" s="53"/>
       <c r="B825" s="7"/>
       <c r="C825" s="8"/>
       <c r="D825" s="9"/>
@@ -31330,7 +31354,7 @@
       <c r="AF825" s="7"/>
     </row>
     <row r="826" spans="1:32" ht="16">
-      <c r="A826" s="51"/>
+      <c r="A826" s="53"/>
       <c r="B826" s="7"/>
       <c r="C826" s="8"/>
       <c r="D826" s="9"/>
@@ -31364,7 +31388,7 @@
       <c r="AF826" s="7"/>
     </row>
     <row r="827" spans="1:32" ht="16">
-      <c r="A827" s="51"/>
+      <c r="A827" s="53"/>
       <c r="B827" s="7"/>
       <c r="C827" s="8"/>
       <c r="D827" s="9"/>
@@ -31398,7 +31422,7 @@
       <c r="AF827" s="7"/>
     </row>
     <row r="828" spans="1:32" ht="16">
-      <c r="A828" s="51"/>
+      <c r="A828" s="53"/>
       <c r="B828" s="7"/>
       <c r="C828" s="8"/>
       <c r="D828" s="9"/>
@@ -31432,7 +31456,7 @@
       <c r="AF828" s="7"/>
     </row>
     <row r="829" spans="1:32" ht="16">
-      <c r="A829" s="51"/>
+      <c r="A829" s="53"/>
       <c r="B829" s="7"/>
       <c r="C829" s="8"/>
       <c r="D829" s="9"/>
@@ -31466,7 +31490,7 @@
       <c r="AF829" s="7"/>
     </row>
     <row r="830" spans="1:32" ht="16">
-      <c r="A830" s="51"/>
+      <c r="A830" s="53"/>
       <c r="B830" s="7"/>
       <c r="C830" s="8"/>
       <c r="D830" s="9"/>
@@ -31500,7 +31524,7 @@
       <c r="AF830" s="7"/>
     </row>
     <row r="831" spans="1:32" ht="16">
-      <c r="A831" s="51"/>
+      <c r="A831" s="53"/>
       <c r="B831" s="7"/>
       <c r="C831" s="8"/>
       <c r="D831" s="9"/>
@@ -31534,7 +31558,7 @@
       <c r="AF831" s="7"/>
     </row>
     <row r="832" spans="1:32" ht="16">
-      <c r="A832" s="51"/>
+      <c r="A832" s="53"/>
       <c r="B832" s="7"/>
       <c r="C832" s="8"/>
       <c r="D832" s="9"/>
@@ -31568,7 +31592,7 @@
       <c r="AF832" s="7"/>
     </row>
     <row r="833" spans="1:32" ht="16">
-      <c r="A833" s="51"/>
+      <c r="A833" s="53"/>
       <c r="B833" s="7"/>
       <c r="C833" s="8"/>
       <c r="D833" s="9"/>
@@ -31602,7 +31626,7 @@
       <c r="AF833" s="7"/>
     </row>
     <row r="834" spans="1:32" ht="16">
-      <c r="A834" s="51"/>
+      <c r="A834" s="53"/>
       <c r="B834" s="7"/>
       <c r="C834" s="8"/>
       <c r="D834" s="9"/>
@@ -31636,7 +31660,7 @@
       <c r="AF834" s="7"/>
     </row>
     <row r="835" spans="1:32" ht="16">
-      <c r="A835" s="51"/>
+      <c r="A835" s="53"/>
       <c r="B835" s="7"/>
       <c r="C835" s="8"/>
       <c r="D835" s="9"/>
@@ -31670,7 +31694,7 @@
       <c r="AF835" s="7"/>
     </row>
     <row r="836" spans="1:32" ht="16">
-      <c r="A836" s="51"/>
+      <c r="A836" s="53"/>
       <c r="B836" s="7"/>
       <c r="C836" s="8"/>
       <c r="D836" s="9"/>
@@ -31704,7 +31728,7 @@
       <c r="AF836" s="7"/>
     </row>
     <row r="837" spans="1:32" ht="16">
-      <c r="A837" s="51"/>
+      <c r="A837" s="53"/>
       <c r="B837" s="7"/>
       <c r="C837" s="8"/>
       <c r="D837" s="9"/>
@@ -31738,7 +31762,7 @@
       <c r="AF837" s="7"/>
     </row>
     <row r="838" spans="1:32" ht="16">
-      <c r="A838" s="51"/>
+      <c r="A838" s="53"/>
       <c r="B838" s="7"/>
       <c r="C838" s="8"/>
       <c r="D838" s="9"/>
@@ -31772,7 +31796,7 @@
       <c r="AF838" s="7"/>
     </row>
     <row r="839" spans="1:32" ht="16">
-      <c r="A839" s="51"/>
+      <c r="A839" s="53"/>
       <c r="B839" s="7"/>
       <c r="C839" s="8"/>
       <c r="D839" s="9"/>
@@ -31806,7 +31830,7 @@
       <c r="AF839" s="7"/>
     </row>
     <row r="840" spans="1:32" ht="16">
-      <c r="A840" s="51"/>
+      <c r="A840" s="53"/>
       <c r="B840" s="7"/>
       <c r="C840" s="8"/>
       <c r="D840" s="9"/>
@@ -31840,7 +31864,7 @@
       <c r="AF840" s="7"/>
     </row>
     <row r="841" spans="1:32" ht="16">
-      <c r="A841" s="51"/>
+      <c r="A841" s="53"/>
       <c r="B841" s="7"/>
       <c r="C841" s="8"/>
       <c r="D841" s="9"/>
@@ -31874,7 +31898,7 @@
       <c r="AF841" s="7"/>
     </row>
     <row r="842" spans="1:32" ht="16">
-      <c r="A842" s="51"/>
+      <c r="A842" s="53"/>
       <c r="B842" s="7"/>
       <c r="C842" s="8"/>
       <c r="D842" s="9"/>
@@ -31908,7 +31932,7 @@
       <c r="AF842" s="7"/>
     </row>
     <row r="843" spans="1:32" ht="16">
-      <c r="A843" s="51"/>
+      <c r="A843" s="53"/>
       <c r="B843" s="7"/>
       <c r="C843" s="8"/>
       <c r="D843" s="9"/>
@@ -31942,7 +31966,7 @@
       <c r="AF843" s="7"/>
     </row>
     <row r="844" spans="1:32" ht="16">
-      <c r="A844" s="51"/>
+      <c r="A844" s="53"/>
       <c r="B844" s="7"/>
       <c r="C844" s="8"/>
       <c r="D844" s="9"/>
@@ -31976,7 +32000,7 @@
       <c r="AF844" s="7"/>
     </row>
     <row r="845" spans="1:32" ht="16">
-      <c r="A845" s="51"/>
+      <c r="A845" s="53"/>
       <c r="B845" s="7"/>
       <c r="C845" s="8"/>
       <c r="D845" s="9"/>
@@ -32010,7 +32034,7 @@
       <c r="AF845" s="7"/>
     </row>
     <row r="846" spans="1:32" ht="16">
-      <c r="A846" s="51"/>
+      <c r="A846" s="53"/>
       <c r="B846" s="7"/>
       <c r="C846" s="8"/>
       <c r="D846" s="9"/>
@@ -32044,7 +32068,7 @@
       <c r="AF846" s="7"/>
     </row>
     <row r="847" spans="1:32" ht="16">
-      <c r="A847" s="51"/>
+      <c r="A847" s="53"/>
       <c r="B847" s="7"/>
       <c r="C847" s="8"/>
       <c r="D847" s="9"/>
@@ -32078,7 +32102,7 @@
       <c r="AF847" s="7"/>
     </row>
     <row r="848" spans="1:32" ht="16">
-      <c r="A848" s="51"/>
+      <c r="A848" s="53"/>
       <c r="B848" s="7"/>
       <c r="C848" s="8"/>
       <c r="D848" s="9"/>
@@ -32112,7 +32136,7 @@
       <c r="AF848" s="7"/>
     </row>
     <row r="849" spans="1:32" ht="16">
-      <c r="A849" s="51"/>
+      <c r="A849" s="53"/>
       <c r="B849" s="7"/>
       <c r="C849" s="8"/>
       <c r="D849" s="9"/>
@@ -32146,7 +32170,7 @@
       <c r="AF849" s="7"/>
     </row>
     <row r="850" spans="1:32" ht="16">
-      <c r="A850" s="51"/>
+      <c r="A850" s="53"/>
       <c r="B850" s="7"/>
       <c r="C850" s="8"/>
       <c r="D850" s="9"/>
@@ -32180,7 +32204,7 @@
       <c r="AF850" s="7"/>
     </row>
     <row r="851" spans="1:32" ht="16">
-      <c r="A851" s="51"/>
+      <c r="A851" s="53"/>
       <c r="B851" s="7"/>
       <c r="C851" s="8"/>
       <c r="D851" s="9"/>
@@ -32214,7 +32238,7 @@
       <c r="AF851" s="7"/>
     </row>
     <row r="852" spans="1:32" ht="16">
-      <c r="A852" s="51"/>
+      <c r="A852" s="53"/>
       <c r="B852" s="7"/>
       <c r="C852" s="8"/>
       <c r="D852" s="9"/>
@@ -32248,7 +32272,7 @@
       <c r="AF852" s="7"/>
     </row>
     <row r="853" spans="1:32" ht="16">
-      <c r="A853" s="51"/>
+      <c r="A853" s="53"/>
       <c r="B853" s="7"/>
       <c r="C853" s="8"/>
       <c r="D853" s="9"/>
@@ -32282,7 +32306,7 @@
       <c r="AF853" s="7"/>
     </row>
     <row r="854" spans="1:32" ht="16">
-      <c r="A854" s="51"/>
+      <c r="A854" s="53"/>
       <c r="B854" s="7"/>
       <c r="C854" s="8"/>
       <c r="D854" s="9"/>
@@ -32316,7 +32340,7 @@
       <c r="AF854" s="7"/>
     </row>
     <row r="855" spans="1:32" ht="16">
-      <c r="A855" s="51"/>
+      <c r="A855" s="53"/>
       <c r="B855" s="7"/>
       <c r="C855" s="8"/>
       <c r="D855" s="9"/>
@@ -32350,7 +32374,7 @@
       <c r="AF855" s="7"/>
     </row>
     <row r="856" spans="1:32" ht="16">
-      <c r="A856" s="51"/>
+      <c r="A856" s="53"/>
       <c r="B856" s="7"/>
       <c r="C856" s="8"/>
       <c r="D856" s="9"/>
@@ -32384,7 +32408,7 @@
       <c r="AF856" s="7"/>
     </row>
     <row r="857" spans="1:32" ht="16">
-      <c r="A857" s="51"/>
+      <c r="A857" s="53"/>
       <c r="B857" s="7"/>
       <c r="C857" s="8"/>
       <c r="D857" s="9"/>
@@ -32418,7 +32442,7 @@
       <c r="AF857" s="7"/>
     </row>
     <row r="858" spans="1:32" ht="16">
-      <c r="A858" s="51"/>
+      <c r="A858" s="53"/>
       <c r="B858" s="7"/>
       <c r="C858" s="8"/>
       <c r="D858" s="9"/>
@@ -32452,7 +32476,7 @@
       <c r="AF858" s="7"/>
     </row>
     <row r="859" spans="1:32" ht="16">
-      <c r="A859" s="51"/>
+      <c r="A859" s="53"/>
       <c r="B859" s="7"/>
       <c r="C859" s="8"/>
       <c r="D859" s="9"/>
@@ -32486,7 +32510,7 @@
       <c r="AF859" s="7"/>
     </row>
     <row r="860" spans="1:32" ht="16">
-      <c r="A860" s="51"/>
+      <c r="A860" s="53"/>
       <c r="B860" s="7"/>
       <c r="C860" s="8"/>
       <c r="D860" s="9"/>
@@ -32520,7 +32544,7 @@
       <c r="AF860" s="7"/>
     </row>
     <row r="861" spans="1:32" ht="16">
-      <c r="A861" s="51"/>
+      <c r="A861" s="53"/>
       <c r="B861" s="7"/>
       <c r="C861" s="8"/>
       <c r="D861" s="9"/>
@@ -32554,7 +32578,7 @@
       <c r="AF861" s="7"/>
     </row>
     <row r="862" spans="1:32" ht="16">
-      <c r="A862" s="51"/>
+      <c r="A862" s="53"/>
       <c r="B862" s="7"/>
       <c r="C862" s="8"/>
       <c r="D862" s="9"/>
@@ -32588,7 +32612,7 @@
       <c r="AF862" s="7"/>
     </row>
     <row r="863" spans="1:32" ht="16">
-      <c r="A863" s="51"/>
+      <c r="A863" s="53"/>
       <c r="B863" s="7"/>
       <c r="C863" s="8"/>
       <c r="D863" s="9"/>
@@ -32622,7 +32646,7 @@
       <c r="AF863" s="7"/>
     </row>
     <row r="864" spans="1:32" ht="16">
-      <c r="A864" s="51"/>
+      <c r="A864" s="53"/>
       <c r="B864" s="7"/>
       <c r="C864" s="8"/>
       <c r="D864" s="9"/>
@@ -32656,7 +32680,7 @@
       <c r="AF864" s="7"/>
     </row>
     <row r="865" spans="1:32" ht="16">
-      <c r="A865" s="51"/>
+      <c r="A865" s="53"/>
       <c r="B865" s="7"/>
       <c r="C865" s="8"/>
       <c r="D865" s="9"/>
@@ -32690,7 +32714,7 @@
       <c r="AF865" s="7"/>
     </row>
     <row r="866" spans="1:32" ht="16">
-      <c r="A866" s="51"/>
+      <c r="A866" s="53"/>
       <c r="B866" s="7"/>
       <c r="C866" s="8"/>
       <c r="D866" s="9"/>
@@ -32724,7 +32748,7 @@
       <c r="AF866" s="7"/>
     </row>
     <row r="867" spans="1:32" ht="16">
-      <c r="A867" s="51"/>
+      <c r="A867" s="53"/>
       <c r="B867" s="7"/>
       <c r="C867" s="8"/>
       <c r="D867" s="9"/>
@@ -32758,7 +32782,7 @@
       <c r="AF867" s="7"/>
     </row>
     <row r="868" spans="1:32" ht="16">
-      <c r="A868" s="51"/>
+      <c r="A868" s="53"/>
       <c r="B868" s="7"/>
       <c r="C868" s="8"/>
       <c r="D868" s="9"/>
@@ -32792,7 +32816,7 @@
       <c r="AF868" s="7"/>
     </row>
     <row r="869" spans="1:32" ht="16">
-      <c r="A869" s="51"/>
+      <c r="A869" s="53"/>
       <c r="B869" s="7"/>
       <c r="C869" s="8"/>
       <c r="D869" s="9"/>
@@ -32826,7 +32850,7 @@
       <c r="AF869" s="7"/>
     </row>
     <row r="870" spans="1:32" ht="16">
-      <c r="A870" s="51"/>
+      <c r="A870" s="53"/>
       <c r="B870" s="7"/>
       <c r="C870" s="8"/>
       <c r="D870" s="9"/>
@@ -32860,7 +32884,7 @@
       <c r="AF870" s="7"/>
     </row>
     <row r="871" spans="1:32" ht="16">
-      <c r="A871" s="51"/>
+      <c r="A871" s="53"/>
       <c r="B871" s="7"/>
       <c r="C871" s="8"/>
       <c r="D871" s="9"/>
@@ -32894,7 +32918,7 @@
       <c r="AF871" s="7"/>
     </row>
     <row r="872" spans="1:32" ht="16">
-      <c r="A872" s="51"/>
+      <c r="A872" s="53"/>
       <c r="B872" s="7"/>
       <c r="C872" s="8"/>
       <c r="D872" s="9"/>
@@ -32928,7 +32952,7 @@
       <c r="AF872" s="7"/>
     </row>
     <row r="873" spans="1:32" ht="16">
-      <c r="A873" s="51"/>
+      <c r="A873" s="53"/>
       <c r="B873" s="7"/>
       <c r="C873" s="8"/>
       <c r="D873" s="9"/>
@@ -32962,7 +32986,7 @@
       <c r="AF873" s="7"/>
     </row>
     <row r="874" spans="1:32" ht="16">
-      <c r="A874" s="51"/>
+      <c r="A874" s="53"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
       <c r="D874" s="9"/>
@@ -32996,7 +33020,7 @@
       <c r="AF874" s="7"/>
     </row>
     <row r="875" spans="1:32" ht="16">
-      <c r="A875" s="51"/>
+      <c r="A875" s="53"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
       <c r="D875" s="9"/>
@@ -33030,7 +33054,7 @@
       <c r="AF875" s="7"/>
     </row>
     <row r="876" spans="1:32" ht="16">
-      <c r="A876" s="51"/>
+      <c r="A876" s="53"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
       <c r="D876" s="9"/>
@@ -33064,11 +33088,10 @@
       <c r="AF876" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{71951494-2F81-47B3-85E2-F9DE763631FB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BEB5A315-26E2-4D43-9EB2-358E922E89B7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:U100" xr:uid="{4EB54EA2-4DAF-B244-B421-B65EAEEAB619}"/>
+      <autoFilter ref="A1:U100" xr:uid="{581C5C55-49A5-1146-8700-D700CD2C13D1}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
